--- a/data/variables/ds1/variables.xlsx
+++ b/data/variables/ds1/variables.xlsx
@@ -2816,9 +2816,6 @@
     <t>recode adem05a_g2d (1/10 92 =1) (11/16 91 = 2), gen(adem05a_g3)</t>
   </si>
   <si>
-    <t>recode adem07_d (1942/1959 = 1), gen (adem07_g1c)</t>
-  </si>
-  <si>
     <t>recode adem08b_g1o (22 = 1) (35 = 2) (37 = 3) (39/41 43/46 68 = 4) (20 21 23/34 36 38 42 53 54 61 = 5) (48/52 63 64 62 = 6) (55 56 = 7) (57/60 = 8) (80/82 = 9) (65/67 85/87 = 10) (69/77 = 11) (88/90 = 12) (47 99 95/97 = -966), gen(adem08b_g2r)</t>
   </si>
   <si>
@@ -2941,6 +2938,9 @@
   </si>
   <si>
     <t>gra2009-ds1-dem153b</t>
+  </si>
+  <si>
+    <t>recode adem07_d (1942/1959 = 1), gen (adem07_g1)</t>
   </si>
 </sst>
 </file>
@@ -3278,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A794" workbookViewId="0">
-      <selection activeCell="N432" sqref="N432"/>
+    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
+      <selection activeCell="K768" sqref="K768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3292,43 +3292,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C1" t="s">
         <v>936</v>
-      </c>
-      <c r="C1" t="s">
-        <v>937</v>
       </c>
       <c r="D1" t="s">
         <v>818</v>
       </c>
       <c r="E1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F1" t="s">
         <v>938</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>939</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>940</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>941</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>942</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>943</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>944</v>
       </c>
-      <c r="L1" t="s">
-        <v>945</v>
-      </c>
       <c r="M1" t="s">
+        <v>933</v>
+      </c>
+      <c r="N1" t="s">
         <v>934</v>
-      </c>
-      <c r="N1" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -15972,7 +15972,7 @@
         <v>811</v>
       </c>
       <c r="M437" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.2">
@@ -16001,7 +16001,7 @@
         <v>811</v>
       </c>
       <c r="M438" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.2">
@@ -16610,7 +16610,7 @@
         <v>811</v>
       </c>
       <c r="M459" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.2">
@@ -22178,7 +22178,7 @@
         <v>811</v>
       </c>
       <c r="M651" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="652" spans="1:13" x14ac:dyDescent="0.2">
@@ -23715,7 +23715,7 @@
         <v>811</v>
       </c>
       <c r="M704" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.2">
@@ -23744,7 +23744,7 @@
         <v>811</v>
       </c>
       <c r="M705" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="706" spans="1:13" x14ac:dyDescent="0.2">
@@ -23773,7 +23773,7 @@
         <v>811</v>
       </c>
       <c r="M706" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="707" spans="1:13" x14ac:dyDescent="0.2">
@@ -23831,7 +23831,7 @@
         <v>811</v>
       </c>
       <c r="M708" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.2">
@@ -24237,7 +24237,7 @@
         <v>811</v>
       </c>
       <c r="M722" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="723" spans="1:13" x14ac:dyDescent="0.2">
@@ -24266,7 +24266,7 @@
         <v>811</v>
       </c>
       <c r="M723" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="724" spans="1:13" x14ac:dyDescent="0.2">
@@ -25565,7 +25565,7 @@
         <v>875</v>
       </c>
       <c r="K768" t="s">
-        <v>927</v>
+        <v>968</v>
       </c>
       <c r="L768" t="s">
         <v>836</v>
@@ -25600,7 +25600,7 @@
         <v>811</v>
       </c>
       <c r="M769" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="770" spans="1:13" x14ac:dyDescent="0.2">
@@ -25629,7 +25629,7 @@
         <v>811</v>
       </c>
       <c r="M770" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="771" spans="1:13" x14ac:dyDescent="0.2">
@@ -25652,13 +25652,13 @@
         <v>876</v>
       </c>
       <c r="K771" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L771" t="s">
         <v>836</v>
       </c>
       <c r="M771" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.2">
@@ -25681,13 +25681,13 @@
         <v>877</v>
       </c>
       <c r="K772" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L772" t="s">
         <v>836</v>
       </c>
       <c r="M772" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="773" spans="1:13" x14ac:dyDescent="0.2">
@@ -25768,7 +25768,7 @@
         <v>878</v>
       </c>
       <c r="K775" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L775" t="s">
         <v>836</v>
@@ -25797,7 +25797,7 @@
         <v>879</v>
       </c>
       <c r="K776" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L776" t="s">
         <v>836</v>
@@ -26029,7 +26029,7 @@
         <v>882</v>
       </c>
       <c r="K784" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L784" t="s">
         <v>836</v>
@@ -26058,7 +26058,7 @@
         <v>883</v>
       </c>
       <c r="K785" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L785" t="s">
         <v>836</v>
@@ -26180,7 +26180,7 @@
         <v>811</v>
       </c>
       <c r="M789" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="790" spans="1:13" x14ac:dyDescent="0.2">
@@ -26209,7 +26209,7 @@
         <v>811</v>
       </c>
       <c r="M790" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="791" spans="1:13" x14ac:dyDescent="0.2">
@@ -26238,7 +26238,7 @@
         <v>811</v>
       </c>
       <c r="M791" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="792" spans="1:13" x14ac:dyDescent="0.2">
@@ -26267,7 +26267,7 @@
         <v>811</v>
       </c>
       <c r="M792" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="793" spans="1:13" x14ac:dyDescent="0.2">
@@ -26296,7 +26296,7 @@
         <v>811</v>
       </c>
       <c r="M793" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="794" spans="1:13" x14ac:dyDescent="0.2">
@@ -26325,7 +26325,7 @@
         <v>811</v>
       </c>
       <c r="M794" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="795" spans="1:13" x14ac:dyDescent="0.2">
@@ -26673,7 +26673,7 @@
         <v>811</v>
       </c>
       <c r="M806" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.2">
@@ -26702,7 +26702,7 @@
         <v>811</v>
       </c>
       <c r="M807" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.2">
@@ -26731,7 +26731,7 @@
         <v>811</v>
       </c>
       <c r="M808" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.2">

--- a/data/variables/ds1/variables.xlsx
+++ b/data/variables/ds1/variables.xlsx
@@ -2782,31 +2782,16 @@
     <t xml:space="preserve">recode aocc242j_g1r (20/90 96 99 =100), gen(aocc242j_g2d) </t>
   </si>
   <si>
-    <t>recode aocc242j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc242_g3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">recode aocc243j_g1r (20/90 96 99 =100), gen(aocc243j_g2d) </t>
   </si>
   <si>
-    <t>recode aocc243j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc243_g3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">recode aocc244j_g1r (20/90 96 99 =100), gen(aocc244j_g2d) </t>
   </si>
   <si>
-    <t>recode aocc244j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc244_g3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">recode aocc245j_g1r (20/90 96 99 =100), gen(aocc245j_g2d) </t>
   </si>
   <si>
-    <t>recode aocc245j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc245_g3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">recode aocc246j_g1r (20/90 96 99 =100), gen(aocc246j_g2d) </t>
-  </si>
-  <si>
-    <t>recode aocc246j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc246_g3)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2941,6 +2926,21 @@
   </si>
   <si>
     <t>recode adem07_d (1942/1959 = 1), gen (adem07_g1)</t>
+  </si>
+  <si>
+    <t>recode aocc242j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc242j_g3)</t>
+  </si>
+  <si>
+    <t>recode aocc243j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc243j_g3)</t>
+  </si>
+  <si>
+    <t>recode aocc244j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc244j_g3)</t>
+  </si>
+  <si>
+    <t>recode aocc245j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc245j_g3)</t>
+  </si>
+  <si>
+    <t>recode aocc246j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc246j_g3)</t>
   </si>
 </sst>
 </file>
@@ -3278,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
-      <selection activeCell="K768" sqref="K768"/>
+    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
+      <selection activeCell="K600" sqref="K600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3292,43 +3292,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C1" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D1" t="s">
         <v>818</v>
       </c>
       <c r="E1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F1" t="s">
+        <v>933</v>
+      </c>
+      <c r="G1" t="s">
+        <v>934</v>
+      </c>
+      <c r="H1" t="s">
+        <v>935</v>
+      </c>
+      <c r="I1" t="s">
+        <v>936</v>
+      </c>
+      <c r="J1" t="s">
         <v>937</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>938</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>939</v>
       </c>
-      <c r="H1" t="s">
-        <v>940</v>
-      </c>
-      <c r="I1" t="s">
-        <v>941</v>
-      </c>
-      <c r="J1" t="s">
-        <v>942</v>
-      </c>
-      <c r="K1" t="s">
-        <v>943</v>
-      </c>
-      <c r="L1" t="s">
-        <v>944</v>
-      </c>
       <c r="M1" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="N1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -15972,7 +15972,7 @@
         <v>811</v>
       </c>
       <c r="M437" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.2">
@@ -16001,7 +16001,7 @@
         <v>811</v>
       </c>
       <c r="M438" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.2">
@@ -16610,7 +16610,7 @@
         <v>811</v>
       </c>
       <c r="M459" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.2">
@@ -19098,7 +19098,7 @@
         <v>860</v>
       </c>
       <c r="K545" t="s">
-        <v>916</v>
+        <v>964</v>
       </c>
       <c r="L545" t="s">
         <v>836</v>
@@ -19475,7 +19475,7 @@
         <v>859</v>
       </c>
       <c r="K558" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L558" t="s">
         <v>836</v>
@@ -19504,7 +19504,7 @@
         <v>860</v>
       </c>
       <c r="K559" t="s">
-        <v>918</v>
+        <v>965</v>
       </c>
       <c r="L559" t="s">
         <v>836</v>
@@ -19881,7 +19881,7 @@
         <v>859</v>
       </c>
       <c r="K572" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L572" t="s">
         <v>836</v>
@@ -19910,7 +19910,7 @@
         <v>860</v>
       </c>
       <c r="K573" t="s">
-        <v>920</v>
+        <v>966</v>
       </c>
       <c r="L573" t="s">
         <v>836</v>
@@ -20287,7 +20287,7 @@
         <v>859</v>
       </c>
       <c r="K586" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="L586" t="s">
         <v>836</v>
@@ -20316,7 +20316,7 @@
         <v>860</v>
       </c>
       <c r="K587" t="s">
-        <v>922</v>
+        <v>967</v>
       </c>
       <c r="L587" t="s">
         <v>836</v>
@@ -20693,7 +20693,7 @@
         <v>859</v>
       </c>
       <c r="K600" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="L600" t="s">
         <v>836</v>
@@ -20722,7 +20722,7 @@
         <v>860</v>
       </c>
       <c r="K601" t="s">
-        <v>924</v>
+        <v>968</v>
       </c>
       <c r="L601" t="s">
         <v>836</v>
@@ -22178,7 +22178,7 @@
         <v>811</v>
       </c>
       <c r="M651" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="652" spans="1:13" x14ac:dyDescent="0.2">
@@ -23715,7 +23715,7 @@
         <v>811</v>
       </c>
       <c r="M704" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.2">
@@ -23744,7 +23744,7 @@
         <v>811</v>
       </c>
       <c r="M705" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="706" spans="1:13" x14ac:dyDescent="0.2">
@@ -23773,7 +23773,7 @@
         <v>811</v>
       </c>
       <c r="M706" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="707" spans="1:13" x14ac:dyDescent="0.2">
@@ -23831,7 +23831,7 @@
         <v>811</v>
       </c>
       <c r="M708" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.2">
@@ -24237,7 +24237,7 @@
         <v>811</v>
       </c>
       <c r="M722" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="723" spans="1:13" x14ac:dyDescent="0.2">
@@ -24266,7 +24266,7 @@
         <v>811</v>
       </c>
       <c r="M723" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="724" spans="1:13" x14ac:dyDescent="0.2">
@@ -25217,7 +25217,7 @@
         <v>870</v>
       </c>
       <c r="K756" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="L756" t="s">
         <v>836</v>
@@ -25246,7 +25246,7 @@
         <v>871</v>
       </c>
       <c r="K757" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="L757" t="s">
         <v>836</v>
@@ -25565,7 +25565,7 @@
         <v>875</v>
       </c>
       <c r="K768" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="L768" t="s">
         <v>836</v>
@@ -25600,7 +25600,7 @@
         <v>811</v>
       </c>
       <c r="M769" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="770" spans="1:13" x14ac:dyDescent="0.2">
@@ -25629,7 +25629,7 @@
         <v>811</v>
       </c>
       <c r="M770" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="771" spans="1:13" x14ac:dyDescent="0.2">
@@ -25652,13 +25652,13 @@
         <v>876</v>
       </c>
       <c r="K771" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="L771" t="s">
         <v>836</v>
       </c>
       <c r="M771" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.2">
@@ -25681,13 +25681,13 @@
         <v>877</v>
       </c>
       <c r="K772" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="L772" t="s">
         <v>836</v>
       </c>
       <c r="M772" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
     </row>
     <row r="773" spans="1:13" x14ac:dyDescent="0.2">
@@ -25768,7 +25768,7 @@
         <v>878</v>
       </c>
       <c r="K775" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="L775" t="s">
         <v>836</v>
@@ -25797,7 +25797,7 @@
         <v>879</v>
       </c>
       <c r="K776" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="L776" t="s">
         <v>836</v>
@@ -26029,7 +26029,7 @@
         <v>882</v>
       </c>
       <c r="K784" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="L784" t="s">
         <v>836</v>
@@ -26058,7 +26058,7 @@
         <v>883</v>
       </c>
       <c r="K785" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="L785" t="s">
         <v>836</v>
@@ -26180,7 +26180,7 @@
         <v>811</v>
       </c>
       <c r="M789" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="790" spans="1:13" x14ac:dyDescent="0.2">
@@ -26209,7 +26209,7 @@
         <v>811</v>
       </c>
       <c r="M790" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="791" spans="1:13" x14ac:dyDescent="0.2">
@@ -26238,7 +26238,7 @@
         <v>811</v>
       </c>
       <c r="M791" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="792" spans="1:13" x14ac:dyDescent="0.2">
@@ -26267,7 +26267,7 @@
         <v>811</v>
       </c>
       <c r="M792" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="793" spans="1:13" x14ac:dyDescent="0.2">
@@ -26296,7 +26296,7 @@
         <v>811</v>
       </c>
       <c r="M793" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="794" spans="1:13" x14ac:dyDescent="0.2">
@@ -26325,7 +26325,7 @@
         <v>811</v>
       </c>
       <c r="M794" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="795" spans="1:13" x14ac:dyDescent="0.2">
@@ -26673,7 +26673,7 @@
         <v>811</v>
       </c>
       <c r="M806" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.2">
@@ -26702,7 +26702,7 @@
         <v>811</v>
       </c>
       <c r="M807" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.2">
@@ -26731,7 +26731,7 @@
         <v>811</v>
       </c>
       <c r="M808" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.2">

--- a/data/variables/ds1/variables.xlsx
+++ b/data/variables/ds1/variables.xlsx
@@ -2651,13 +2651,7 @@
     <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Staatsangehörigkeitsvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste (in Anlehnung an die Länderklassifikation des NEPS bei der Startkohorte 5, aber mit Anpassungen bei den europäischen Ländern) verwendet (vgl. cl-dzhw-23). Zu Einzelheiten vgl. Generierungsregel.</t>
   </si>
   <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Staatsangehörigkeitsvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-23). Dabei wurde die Türkei wurde zu Asien und Russland zu Europa außerhalb der EU codiert. Zu Einzelheiten vgl. Generierungsregel.</t>
-  </si>
-  <si>
     <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Geburtslandvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste (in Anlehnung an die Länderklassifikation des NEPS bei der Startkohorte 5, aber mit Anpassungen bei den europäischen Ländern) verwendet (vgl. cl-dzhw-23). Zu Einzelheiten vgl. Generierungsregel.</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Geburtslandvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-23). Dabei wurde die Türkei wurde zu Asien und Russland zu Europa außerhalb der EU codiert. Zu Einzelheiten vgl. Generierungsregel.</t>
   </si>
   <si>
     <t>Diese Variable wurde zum Zweck der Anonymisierung aus der Wohnsitzvariable (erfasst als dreistellige Postleitzahl) generiert. Zur Aggregation wurde die Referenzliste "Tercet NUTS-postal codes matching tables" des Statistischen Amtes der Europäischen Union (Eurostat) von 2010 verwendet (cl-eurostat-deplznuts-2010). Diese Referenzliste weist die fünfstellige Postleitzahl und die zugehörige NUTS-3 Region aus. Daraus wurden die dreistelligen Postleitzahlen und die NUTS-2 Regionen gebildet. Sofern die dreistellige Postleitzahl nicht eindeutig einer NUTS-2-Region zugeordnet werden konnte, wurde der Missingwert "-966 nicht bestimmbar" vergeben.</t>
@@ -2843,78 +2837,6 @@
     <t>generationDetails.ruleExpressionLanguage</t>
   </si>
   <si>
-    <t>gra2009-ds1-dem08b_g1o</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-dem08b_g2r</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-dem08b_g3d</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-sys01a_o</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-sys01b_o</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-sys01c_o</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-occ04a</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-occ04b</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-occ10</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-occ262</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-occ342a</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-occ342b</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-occ342c</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-occ352</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-occ37a</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-occ37b</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-dem08a</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-dem151a</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-dem151b</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-dem152a</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-dem152b</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-dem153a</t>
-  </si>
-  <si>
-    <t>gra2009-ds1-dem153b</t>
-  </si>
-  <si>
-    <t>recode adem07_d (1942/1959 = 1), gen (adem07_g1)</t>
-  </si>
-  <si>
     <t>recode aocc242j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc242j_g3)</t>
   </si>
   <si>
@@ -2941,6 +2863,84 @@
   </si>
   <si>
     <t>Haben die Befragten mehr als drei Kinder angegeben, wurden die Geburtsdaten des ältesten und des jüngsten Kindes beibehalten. Angaben zu den mittleren Kindern wurden gestrichen und durch die Angaben zum jüngsten bzw. ältesten Kind ersetzt.</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ04a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ04b_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ10_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ262_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ342a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ342b_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ342c_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ352_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ37a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ37b_c</t>
+  </si>
+  <si>
+    <t>recode adem07_d (1942/1959 = 1), gen(adem07_g1)</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem08a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem08b_g1o</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem08b_g2r</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Staatsangehörigkeitsvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-23). Dabei wurde die Türkei zu Asien und Russland zu Europa außerhalb der EU codiert. Zu Einzelheiten vgl. Generierungsregel.</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem08b_g3d</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Geburtslandvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-23). Dabei wurde die Türkei zu Asien und Russland zu Europa außerhalb der EU codiert. Zu Einzelheiten vgl. Generierungsregel.</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem151a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem151b_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem152a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem152b_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem153a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem153b_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-sys01a_o</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-sys01b_o</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-sys01c_o</t>
   </si>
 </sst>
 </file>
@@ -2973,11 +2973,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3281,57 +3278,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A775" workbookViewId="0">
-      <selection activeCell="B794" sqref="B794"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D1" t="s">
         <v>814</v>
       </c>
       <c r="E1" t="s">
+        <v>926</v>
+      </c>
+      <c r="F1" t="s">
+        <v>927</v>
+      </c>
+      <c r="G1" t="s">
         <v>928</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>929</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>930</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>931</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>932</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>933</v>
       </c>
-      <c r="K1" t="s">
-        <v>934</v>
-      </c>
-      <c r="L1" t="s">
-        <v>935</v>
-      </c>
       <c r="M1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3934,7 +3928,7 @@
         <v>840</v>
       </c>
       <c r="K22" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="L22" t="s">
         <v>832</v>
@@ -3992,7 +3986,7 @@
         <v>842</v>
       </c>
       <c r="K24" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="L24" t="s">
         <v>832</v>
@@ -4572,7 +4566,7 @@
         <v>840</v>
       </c>
       <c r="K44" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="L44" t="s">
         <v>832</v>
@@ -4630,7 +4624,7 @@
         <v>842</v>
       </c>
       <c r="K46" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="L46" t="s">
         <v>832</v>
@@ -5210,7 +5204,7 @@
         <v>840</v>
       </c>
       <c r="K66" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="L66" t="s">
         <v>832</v>
@@ -5268,7 +5262,7 @@
         <v>842</v>
       </c>
       <c r="K68" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="L68" t="s">
         <v>832</v>
@@ -5848,7 +5842,7 @@
         <v>840</v>
       </c>
       <c r="K88" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="L88" t="s">
         <v>832</v>
@@ -5906,7 +5900,7 @@
         <v>842</v>
       </c>
       <c r="K90" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="L90" t="s">
         <v>832</v>
@@ -6486,7 +6480,7 @@
         <v>840</v>
       </c>
       <c r="K110" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="L110" t="s">
         <v>832</v>
@@ -6544,7 +6538,7 @@
         <v>842</v>
       </c>
       <c r="K112" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="L112" t="s">
         <v>832</v>
@@ -7008,7 +7002,7 @@
         <v>840</v>
       </c>
       <c r="K128" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="L128" t="s">
         <v>832</v>
@@ -7066,7 +7060,7 @@
         <v>842</v>
       </c>
       <c r="K130" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="L130" t="s">
         <v>832</v>
@@ -7530,7 +7524,7 @@
         <v>840</v>
       </c>
       <c r="K146" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="L146" t="s">
         <v>832</v>
@@ -7588,7 +7582,7 @@
         <v>842</v>
       </c>
       <c r="K148" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="L148" t="s">
         <v>832</v>
@@ -8052,7 +8046,7 @@
         <v>840</v>
       </c>
       <c r="K164" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="L164" t="s">
         <v>832</v>
@@ -8110,7 +8104,7 @@
         <v>842</v>
       </c>
       <c r="K166" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="L166" t="s">
         <v>832</v>
@@ -13243,7 +13237,7 @@
         <v>840</v>
       </c>
       <c r="K343" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="L343" t="s">
         <v>832</v>
@@ -13301,7 +13295,7 @@
         <v>842</v>
       </c>
       <c r="K345" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="L345" t="s">
         <v>832</v>
@@ -13417,7 +13411,7 @@
         <v>840</v>
       </c>
       <c r="K349" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="L349" t="s">
         <v>832</v>
@@ -13475,7 +13469,7 @@
         <v>842</v>
       </c>
       <c r="K351" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="L351" t="s">
         <v>832</v>
@@ -13591,7 +13585,7 @@
         <v>840</v>
       </c>
       <c r="K355" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="L355" t="s">
         <v>832</v>
@@ -13649,7 +13643,7 @@
         <v>842</v>
       </c>
       <c r="K357" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="L357" t="s">
         <v>832</v>
@@ -14258,7 +14252,7 @@
         <v>840</v>
       </c>
       <c r="K378" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="L378" t="s">
         <v>832</v>
@@ -14316,7 +14310,7 @@
         <v>842</v>
       </c>
       <c r="K380" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="L380" t="s">
         <v>832</v>
@@ -14432,7 +14426,7 @@
         <v>840</v>
       </c>
       <c r="K384" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="L384" t="s">
         <v>832</v>
@@ -14490,7 +14484,7 @@
         <v>842</v>
       </c>
       <c r="K386" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="L386" t="s">
         <v>832</v>
@@ -14606,7 +14600,7 @@
         <v>840</v>
       </c>
       <c r="K390" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="L390" t="s">
         <v>832</v>
@@ -14664,7 +14658,7 @@
         <v>842</v>
       </c>
       <c r="K392" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="L392" t="s">
         <v>832</v>
@@ -15975,7 +15969,7 @@
         <v>811</v>
       </c>
       <c r="M437" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.2">
@@ -16004,7 +15998,7 @@
         <v>811</v>
       </c>
       <c r="M438" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.2">
@@ -16613,15 +16607,15 @@
         <v>811</v>
       </c>
       <c r="M459" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="460" spans="1:13" ht="409.5" x14ac:dyDescent="0.2">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>459</v>
       </c>
-      <c r="B460" s="1" t="s">
-        <v>965</v>
+      <c r="B460" t="s">
+        <v>939</v>
       </c>
       <c r="D460" t="s">
         <v>815</v>
@@ -18666,7 +18660,7 @@
         <v>855</v>
       </c>
       <c r="K530" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="L530" t="s">
         <v>832</v>
@@ -18695,7 +18689,7 @@
         <v>856</v>
       </c>
       <c r="K531" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="L531" t="s">
         <v>832</v>
@@ -19072,7 +19066,7 @@
         <v>855</v>
       </c>
       <c r="K544" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="L544" t="s">
         <v>832</v>
@@ -19101,7 +19095,7 @@
         <v>856</v>
       </c>
       <c r="K545" t="s">
-        <v>960</v>
+        <v>934</v>
       </c>
       <c r="L545" t="s">
         <v>832</v>
@@ -19478,7 +19472,7 @@
         <v>855</v>
       </c>
       <c r="K558" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L558" t="s">
         <v>832</v>
@@ -19507,7 +19501,7 @@
         <v>856</v>
       </c>
       <c r="K559" t="s">
-        <v>961</v>
+        <v>935</v>
       </c>
       <c r="L559" t="s">
         <v>832</v>
@@ -19884,7 +19878,7 @@
         <v>855</v>
       </c>
       <c r="K572" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="L572" t="s">
         <v>832</v>
@@ -19913,7 +19907,7 @@
         <v>856</v>
       </c>
       <c r="K573" t="s">
-        <v>962</v>
+        <v>936</v>
       </c>
       <c r="L573" t="s">
         <v>832</v>
@@ -20290,7 +20284,7 @@
         <v>855</v>
       </c>
       <c r="K586" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="L586" t="s">
         <v>832</v>
@@ -20319,7 +20313,7 @@
         <v>856</v>
       </c>
       <c r="K587" t="s">
-        <v>963</v>
+        <v>937</v>
       </c>
       <c r="L587" t="s">
         <v>832</v>
@@ -20696,7 +20690,7 @@
         <v>855</v>
       </c>
       <c r="K600" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="L600" t="s">
         <v>832</v>
@@ -20725,7 +20719,7 @@
         <v>856</v>
       </c>
       <c r="K601" t="s">
-        <v>964</v>
+        <v>938</v>
       </c>
       <c r="L601" t="s">
         <v>832</v>
@@ -22181,7 +22175,7 @@
         <v>811</v>
       </c>
       <c r="M651" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="652" spans="1:13" x14ac:dyDescent="0.2">
@@ -23718,7 +23712,7 @@
         <v>811</v>
       </c>
       <c r="M704" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.2">
@@ -23747,7 +23741,7 @@
         <v>811</v>
       </c>
       <c r="M705" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="706" spans="1:13" x14ac:dyDescent="0.2">
@@ -23776,7 +23770,7 @@
         <v>811</v>
       </c>
       <c r="M706" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="707" spans="1:13" x14ac:dyDescent="0.2">
@@ -23834,7 +23828,7 @@
         <v>811</v>
       </c>
       <c r="M708" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.2">
@@ -24240,7 +24234,7 @@
         <v>811</v>
       </c>
       <c r="M722" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="723" spans="1:13" x14ac:dyDescent="0.2">
@@ -24269,7 +24263,7 @@
         <v>811</v>
       </c>
       <c r="M723" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="724" spans="1:13" x14ac:dyDescent="0.2">
@@ -25220,7 +25214,7 @@
         <v>866</v>
       </c>
       <c r="K756" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="L756" t="s">
         <v>832</v>
@@ -25249,7 +25243,7 @@
         <v>867</v>
       </c>
       <c r="K757" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="L757" t="s">
         <v>832</v>
@@ -25568,7 +25562,7 @@
         <v>871</v>
       </c>
       <c r="K768" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="L768" t="s">
         <v>832</v>
@@ -25582,7 +25576,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="s">
-        <v>967</v>
+        <v>941</v>
       </c>
       <c r="D769" t="s">
         <v>815</v>
@@ -25603,7 +25597,7 @@
         <v>811</v>
       </c>
       <c r="M769" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="770" spans="1:13" x14ac:dyDescent="0.2">
@@ -25632,7 +25626,7 @@
         <v>811</v>
       </c>
       <c r="M770" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
     </row>
     <row r="771" spans="1:13" x14ac:dyDescent="0.2">
@@ -25655,13 +25649,13 @@
         <v>872</v>
       </c>
       <c r="K771" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="L771" t="s">
         <v>832</v>
       </c>
       <c r="M771" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.2">
@@ -25681,16 +25675,16 @@
         <v>811</v>
       </c>
       <c r="I772" t="s">
-        <v>873</v>
+        <v>957</v>
       </c>
       <c r="K772" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L772" t="s">
         <v>832</v>
       </c>
       <c r="M772" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
     </row>
     <row r="773" spans="1:13" x14ac:dyDescent="0.2">
@@ -25768,10 +25762,10 @@
         <v>811</v>
       </c>
       <c r="I775" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K775" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="L775" t="s">
         <v>832</v>
@@ -25797,10 +25791,10 @@
         <v>811</v>
       </c>
       <c r="I776" t="s">
-        <v>875</v>
+        <v>959</v>
       </c>
       <c r="K776" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="L776" t="s">
         <v>832</v>
@@ -25971,7 +25965,7 @@
         <v>811</v>
       </c>
       <c r="I782" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="K782" t="s">
         <v>811</v>
@@ -26000,7 +25994,7 @@
         <v>811</v>
       </c>
       <c r="I783" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K783" t="s">
         <v>811</v>
@@ -26029,10 +26023,10 @@
         <v>811</v>
       </c>
       <c r="I784" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K784" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="L784" t="s">
         <v>832</v>
@@ -26058,10 +26052,10 @@
         <v>811</v>
       </c>
       <c r="I785" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="K785" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="L785" t="s">
         <v>832</v>
@@ -26162,7 +26156,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="s">
-        <v>968</v>
+        <v>942</v>
       </c>
       <c r="D789" t="s">
         <v>815</v>
@@ -26183,7 +26177,7 @@
         <v>811</v>
       </c>
       <c r="M789" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
     </row>
     <row r="790" spans="1:13" x14ac:dyDescent="0.2">
@@ -26191,7 +26185,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="s">
-        <v>968</v>
+        <v>942</v>
       </c>
       <c r="D790" t="s">
         <v>815</v>
@@ -26212,7 +26206,7 @@
         <v>811</v>
       </c>
       <c r="M790" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
     </row>
     <row r="791" spans="1:13" x14ac:dyDescent="0.2">
@@ -26220,7 +26214,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="s">
-        <v>968</v>
+        <v>942</v>
       </c>
       <c r="D791" t="s">
         <v>815</v>
@@ -26241,7 +26235,7 @@
         <v>811</v>
       </c>
       <c r="M791" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="792" spans="1:13" x14ac:dyDescent="0.2">
@@ -26249,7 +26243,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="s">
-        <v>968</v>
+        <v>942</v>
       </c>
       <c r="D792" t="s">
         <v>815</v>
@@ -26270,7 +26264,7 @@
         <v>811</v>
       </c>
       <c r="M792" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
     </row>
     <row r="793" spans="1:13" x14ac:dyDescent="0.2">
@@ -26278,7 +26272,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="s">
-        <v>968</v>
+        <v>942</v>
       </c>
       <c r="D793" t="s">
         <v>815</v>
@@ -26299,7 +26293,7 @@
         <v>811</v>
       </c>
       <c r="M793" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
     </row>
     <row r="794" spans="1:13" x14ac:dyDescent="0.2">
@@ -26307,7 +26301,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="s">
-        <v>968</v>
+        <v>942</v>
       </c>
       <c r="D794" t="s">
         <v>815</v>
@@ -26328,7 +26322,7 @@
         <v>811</v>
       </c>
       <c r="M794" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
     </row>
     <row r="795" spans="1:13" x14ac:dyDescent="0.2">
@@ -26348,7 +26342,7 @@
         <v>832</v>
       </c>
       <c r="I795" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K795" t="s">
         <v>811</v>
@@ -26676,7 +26670,7 @@
         <v>811</v>
       </c>
       <c r="M806" t="s">
-        <v>939</v>
+        <v>966</v>
       </c>
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.2">
@@ -26705,7 +26699,7 @@
         <v>811</v>
       </c>
       <c r="M807" t="s">
-        <v>940</v>
+        <v>967</v>
       </c>
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.2">
@@ -26734,7 +26728,7 @@
         <v>811</v>
       </c>
       <c r="M808" t="s">
-        <v>941</v>
+        <v>968</v>
       </c>
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.2">
@@ -26742,7 +26736,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="s">
-        <v>966</v>
+        <v>940</v>
       </c>
       <c r="D809" t="s">
         <v>817</v>
@@ -26771,7 +26765,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="s">
-        <v>966</v>
+        <v>940</v>
       </c>
       <c r="D810" t="s">
         <v>817</v>
@@ -26800,7 +26794,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="s">
-        <v>966</v>
+        <v>940</v>
       </c>
       <c r="D811" t="s">
         <v>817</v>

--- a/data/variables/ds1/variables.xlsx
+++ b/data/variables/ds1/variables.xlsx
@@ -2541,406 +2541,406 @@
     <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Variablen zum Bundesland der Hochschule generiert. Zu Einzelheiten vgl. die Generierungsregel.</t>
   </si>
   <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Hochschulartvariablen generiert. Dabei wurden die 6 Hochschultypen zu den beiden Kategorien "Universität" und "Fachhochschule" aggregiert. Die generierte Variable hat die Ausprägung 1 "Universität", wenn es eine Universität, Pädagogische Hochschule, Theologische/Kirchliche Hochschule oder Kunsthochschule ist. Sie hat die Ausprägung 2 "Fachhochschule", wenn es sich um eine Fachhochschule oder Verwaltungsfachhochschule handelt.
+Für Hochschulen, deren Hochschulart nicht bestimmbar war (dies betrifft Hochschulen im Ausland und sonstige deutsche Hochschulen), wurde der Missingwert -966 "nicht bestimmbar" vergeben.</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten Angaben zur Lehramtsausrichtung in codierter Form. Dabei wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-21).</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten Länderangaben in codierter Form. Dabei wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-23).</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten Angaben zu sonstigen Weiterbildungen (Variable afvt01k), die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten sonstigen Motive für eine weitere akademische Qualifikation, die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten Angaben zu sonstigen Schwierigkeiten bei der Stellensuche (Variable aocc08k), die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten Angaben zu sonstigen Motiven für ein Praktikum (Variable aocc15g), die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diese Variable enthält die offen erfassten Berufsangaben in codierter Form. Als Codierliste wurde das Destatis-Schlüsselverzeichnis für die "Klassifizierung der Berufe (KldB)" von 2010 herangezogen (vgl. cl-destatis-kldb-2010) und die Angaben fünfstellig codiert (ergänzt um Sondercodes, wenn nicht zuordenbar). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Berufsvariablen (KldB-5-Steller) generiert. Dabei wurde der dreistellige Code gemäß Destatis-Schlüsselverzeichnis für die "Klassifizierung der Berufe (KldB)" von 2010 (vgl. cl-destatis-kldb-2010) vergeben (ergänzt um Sondercodes, wenn nicht zuordenbar). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Berufsvariablen (KldB-5-Steller) generiert. Dabei wurde der zweistellige Code gemäß Destatis-Schlüsselverzeichnis für die "Klassifizierung der Berufe (KldB)" von 2010 (vgl. cl-destatis-kldb-2010) vergeben (ergänzt um Sondercodes, wenn nicht zuordenbar). </t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten beruflichen Aufgabenbereiche bzw. Funktionen (erste Angabe) der derzeitigen bzw. letzten beruflichen Tätigkeit in codierter Form. Dabei wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-4).</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten beruflichen Aufgabenbereiche bzw. Funktionen (zweite Angabe) der derzeitigen bzw. letzten beruflichen Tätigkeit in codierter Form. Dabei wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-4).</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten Angaben zum Bundesland bzw. 
+Land (bei Ausland) der Tätigkeit in codierter Form. Zur Codierung der Bundesländer wurde der Destatis-Schlüssel der Bundesländer (vgl. cl-destatis-bundesland-1990) gemäß des Amtlichen Gemeindeschlüssels (AGS) (mit Ergänzungen, wenn nicht zuordenbar) verwendet. Die Länder (bei Ausland) wurden nach einer projekteigenen Codierliste codiert (vgl. cl-dzhw-23).</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus dem Tätigkeitsort (Bundesland/Land) generiert. Zu Einzelheiten vgl. Generierungsregel.</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus dem Tätigkeitsort (Bundesland/Ausland) generiert. Zu Einzelheiten vgl. Generierungsregel.</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung aus dem Tätigkeitsort (erfasst als dreistellige Postleitzahl) generiert. Zur Aggregation wurde die Referenzliste "Tercet NUTS-postal codes matching tables" des Statistischen Amtes der Europäischen Union (Eurostat) von 2010 verwendet (cl-eurostat-deplznuts-2010). Diese Referenzliste weist die fünfstellige Postleitzahl und die zugehörige NUTS-3 Region aus. Daraus wurden die dreistelligen Postleitzahlen und die NUTS-2 Regionen gebildet. Sofern die dreistellige Postleitzahl nicht eindeutig einer NUTS-2-Region zugeordnet werden konnte, wurde der Missingwert "-966 nicht bestimmbar" vergeben.</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten Angaben zu sonstigen Wegen der Stellenfindung bzgl. der ersten Stelle (Variable aocc251v), die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten zusätzlichen Angaben zu sonstigen Wegen der Stellenfindung bzgl. der letzten Stelle (Variable aocc252v), die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
+  </si>
+  <si>
+    <t>Es wurden keine offenen Angaben gemacht oder die offenen Angaben wurden nicht vercodet. Daher enthält diese Variable nur Missings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diese Variable enthält die offen erfassten zusätzlichen Angaben zur Ausprägung 8 "Sonstiges, und zwar" der Variable aocc291a (Betriebsgröße der ersten Stelle) in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.
+Hinweis: In der Regel wurden die offenen Nennungen den vorgegebenen Kategorien zur Betriebsgröße zugeordnet. Sie wurden nur dann gesondert vercodet, wenn statt der Betriebsgröße die Betriebsform angegeben wurde. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diese Variable enthält die offen erfassten zusätzlichen Angaben zur Ausprägung 8 "Sonstiges, und zwar" der Variable aocc292a (Betriebsgröße der letzten Stelle) in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.
+Hinweis: In der Regel wurden die offenen Nennungen den vorgegebenen Kategorien zur Betriebsgröße zugeordnet. Sie wurden nur dann gesondert vercodet, wenn statt der Betriebsgröße die Betriebsform angegeben wurde. 
+</t>
+  </si>
+  <si>
+    <t>Es wurden keine offenen Angaben gemacht. Daher enthält diese Variable nur Missings.</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten zusätzlichen Angaben zur Ausprägung 7 "anderer Bildungsweg, und zwar" der Variable adem02a (Bildungsweg zur Erlangung der Studienberechtigung), die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten Angaben zum Bundesland bzw. 
+Land (bei Ausland) des Ortes, in dem die Studienberechtigung erworben wurde, in codierter Form. Zur Codierung der Bundesländer wurde der Destatis-Schlüssel der Bundesländer (vgl. cl-destatis-bundesland-1990) gemäß des Amtlichen Gemeindeschlüssels (AGS) (mit Ergänzungen, wenn nicht zuordenbar) verwendet. Die Länder (bei Ausland) wurden nach einer projekteigenen Codierliste codiert (vgl. cl-dzhw-23).</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation  des Ortes der Studienberechtigung (Bundesland/Land) generiert. Zu Einzelheiten vgl. Generierungsregel.</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation  des Ortes der Studienberechtigung (Bundesland/Ausland) generiert. Zu Einzelheiten vgl. Generierungsregel.</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung aus dem 
+Ort der Studienberechtigung (erfasst als dreistellige Postleitzahl) generiert.  Zur Aggregation wurde die Referenzliste "Tercet NUTS-postal codes matching tables" des Statistischen Amtes der Europäischen Union (Eurostat) von 2010 verwendet (cl-eurostat-deplznuts-2010). Diese Referenzliste weist die fünfstellige Postleitzahl und die zugehörige NUTS-3 Region aus. Daraus wurden die dreistelligen Postleitzahlen und die NUTS-2 Regionen gebildet. Sofern die dreistellige Postleitzahl nicht eindeutig einer NUTS-2-Region zugeordnet werden konnte, wurde der Missingwert "-966 nicht bestimmbar" vergeben.</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten Berufsangaben in codierter Form. Als Codierliste wurde das Destatis-Schlüsselverzeichnis für die "Klassifizierung der Berufe (KldB)" von 1992 herangezogen (vgl. cl-destatis-kldb-1992) und die Angaben dreistellig codiert.</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Berufsvariablen (KldB-3-Steller) generiert. Dabei wurde der zweistellige Code gemäß Destatis-Schlüsselverzeichnis für die "Klassifizierung der Berufe (KldB)" von 1992 (vgl. cl-destatis-kldb-1992) vergeben.</t>
+  </si>
+  <si>
+    <t>Geburtsjahre bis 1959 wurden zu einer Kategorie aggregiert.</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Staatsangehörigkeitsvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste (in Anlehnung an die Länderklassifikation des NEPS bei der Startkohorte 5, aber mit Anpassungen bei den europäischen Ländern) verwendet (vgl. cl-dzhw-23). Zu Einzelheiten vgl. Generierungsregel.</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Geburtslandvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste (in Anlehnung an die Länderklassifikation des NEPS bei der Startkohorte 5, aber mit Anpassungen bei den europäischen Ländern) verwendet (vgl. cl-dzhw-23). Zu Einzelheiten vgl. Generierungsregel.</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung aus der Wohnsitzvariable (erfasst als dreistellige Postleitzahl) generiert. Zur Aggregation wurde die Referenzliste "Tercet NUTS-postal codes matching tables" des Statistischen Amtes der Europäischen Union (Eurostat) von 2010 verwendet (cl-eurostat-deplznuts-2010). Diese Referenzliste weist die fünfstellige Postleitzahl und die zugehörige NUTS-3 Region aus. Daraus wurden die dreistelligen Postleitzahlen und die NUTS-2 Regionen gebildet. Sofern die dreistellige Postleitzahl nicht eindeutig einer NUTS-2-Region zugeordnet werden konnte, wurde der Missingwert "-966 nicht bestimmbar" vergeben.</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält die offen erfassten Angaben zum Bundesland bzw. 
+Land (bei Ausland) des Wohnsitzes in codierter Form. Zur Codierung der Bundesländer wurde der Destatis-Schlüssel der Bundesländer (vgl. cl-destatis-bundesland-1990) gemäß des Amtlichen Gemeindeschlüssels (AGS) (mit Ergänzungen, wenn nicht zuordenbar) verwendet. Die Länder (bei Ausland) wurden nach einer projekteigenen Codierliste codiert (vgl. cl-dzhw-23).</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation des Wohnortes (Bundesland/Land) generiert. Zu Einzelheiten vgl. Generierungsregel.</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation  des Wohnortes (Bundesland/Ausland) generiert. Zu Einzelheiten vgl. Generierungsregel.</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde in der Regel anhand der angegebenen Geburtsdaten der Kinder gebildet. Die Anzahl der Kinder entspricht jedoch nicht immer der Summe der angegebenen Kinder (Geburtsdaten), weil bei mehr als drei angegebenen Kindern Angaben zu den mittleren Kindern gestrichen und durch die Angaben zum jüngsten bzw. ältesten Kind ersetzt wurden.</t>
+  </si>
+  <si>
+    <t>recode astu011k_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu011k_g4)</t>
+  </si>
+  <si>
+    <t>recode astu011k_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu011k_g6)</t>
+  </si>
+  <si>
+    <t>recode astu012k_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu012k_g4)</t>
+  </si>
+  <si>
+    <t>recode astu012k_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu012k_g6)</t>
+  </si>
+  <si>
+    <t>recode astu013k_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu013k_g4)</t>
+  </si>
+  <si>
+    <t>recode astu013k_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu013k_g6)</t>
+  </si>
+  <si>
+    <t>recode astu014k_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu014k_g4)</t>
+  </si>
+  <si>
+    <t>recode astu014k_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu014k_g6)</t>
+  </si>
+  <si>
+    <t>recode astu015k_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu015k_g4)</t>
+  </si>
+  <si>
+    <t>recode astu015k_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu015k_g6)</t>
+  </si>
+  <si>
+    <t>recode astu021g_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu021g_g4)</t>
+  </si>
+  <si>
+    <t>recode astu021g_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu021g_g6)</t>
+  </si>
+  <si>
+    <t>recode astu022g_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu022g_g4)</t>
+  </si>
+  <si>
+    <t>recode astu022g_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu022g_g6)</t>
+  </si>
+  <si>
+    <t>recode astu023g_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu023g_g4)</t>
+  </si>
+  <si>
+    <t>recode astu023g_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu023g_g6)</t>
+  </si>
+  <si>
+    <t>recode afec021l_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(afec021l_g4)</t>
+  </si>
+  <si>
+    <t>recode afec021l_g5r (1 2 3 4 = 1) (5 6 = 2), gen(afec021l_g6)</t>
+  </si>
+  <si>
+    <t>recode afec021m_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(afec021m_g4)</t>
+  </si>
+  <si>
+    <t>recode afec021m_g5r (1 2 3 4 = 1) (5 6 = 2), gen(afec021m_g6)</t>
+  </si>
+  <si>
+    <t>recode afec021n_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(afec021n_g4)</t>
+  </si>
+  <si>
+    <t>recode afec021n_g5r (1 2 3 4 = 1) (5 6 = 2), gen(afec021n_g6)</t>
+  </si>
+  <si>
+    <t>recode afec022l_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(afec022l_g4)</t>
+  </si>
+  <si>
+    <t>recode afec022l_g5r (1 2 3 4 = 1) (5 6 = 2), gen(afec022l_g6)</t>
+  </si>
+  <si>
+    <t>recode afec022m_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(afec022m_g4)</t>
+  </si>
+  <si>
+    <t>recode afec022m_g5r (1 2 3 4 = 1) (5 6 = 2), gen(afec022m_g6)</t>
+  </si>
+  <si>
+    <t>recode afec022n_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(afec022n_g4)</t>
+  </si>
+  <si>
+    <t>recode afec022n_g5r (1 2 3 4 = 1) (5 6 = 2), gen(afec022n_g6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recode aocc241j_g1r (20/90 96 99 =100), gen(aocc241j_g2d) </t>
+  </si>
+  <si>
+    <t>recode aocc241j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc241j_g3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recode aocc242j_g1r (20/90 96 99 =100), gen(aocc242j_g2d) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recode aocc243j_g1r (20/90 96 99 =100), gen(aocc243j_g2d) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recode aocc244j_g1r (20/90 96 99 =100), gen(aocc244j_g2d) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recode aocc245j_g1r (20/90 96 99 =100), gen(aocc245j_g2d) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recode aocc246j_g1r (20/90 96 99 =100), gen(aocc246j_g2d) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+recode adem05a_g1r (20/90 96 99 =100), gen(adem05a_g2d)</t>
+  </si>
+  <si>
+    <t>recode adem05a_g2d (1/10 92 =1) (11/16 91 = 2), gen(adem05a_g3)</t>
+  </si>
+  <si>
+    <t>recode adem08b_g1o (22 = 1) (35 = 2) (37 = 3) (39/41 43/46 68 = 4) (20 21 23/34 36 38 42 53 54 61 = 5) (48/52 63 64 62 = 6) (55 56 = 7) (57/60 = 8) (80/82 = 9) (65/67 85/87 = 10) (69/77 = 11) (88/90 = 12) (47 99 95/97 = -966), gen(adem08b_g2r)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recode adem08b_g1o (20/36 38/42 53 54 61 = 1) (43/46 48/52 62/64 = 2) (55/60 = 3) (37 65/77 = 4) (80/82 = 5) (85/90 = 6) (99 95/97 = -966), gen(adem08b_g3d)
+</t>
+  </si>
+  <si>
+    <t>recode adem09b_g1o (22 = 1) (35 = 2) (37 = 3) (39/41 43/46 68 = 4) (20 21 23/34 36 38 42 53 54 61 = 5) (48/52 63 64 62 = 6) (55 56 = 7) (57/60 = 8) (80/82 = 9) (65/67 85/87 = 10) (69/77 = 11) (88/90 = 12) (47 99 95/97 = -966), gen(adem09b_g2r)</t>
+  </si>
+  <si>
+    <t>recode adem09b_g1o (20/36 38/42 53 54 61 = 1) (43/46 48/52 62/64 = 2) (55/60 = 3) (37 65/77 = 4) (80/82 = 5) (85/90 = 6) (99 95/97 = -966), gen(adem09b_g3d)</t>
+  </si>
+  <si>
+    <t>recode adem11b_g1r (20/90 96 99 =100), gen(adem11b_g2d)</t>
+  </si>
+  <si>
+    <t>recode adem11b_g2d (1/10 92 =1) (11/16 91 = 2), gen(adem11b_g3)</t>
+  </si>
+  <si>
+    <t>panelIdentifier</t>
+  </si>
+  <si>
+    <t>relatedVariables</t>
+  </si>
+  <si>
+    <t>annotations.de</t>
+  </si>
+  <si>
+    <t>annotations.en</t>
+  </si>
+  <si>
+    <t>filterDetails.description.de</t>
+  </si>
+  <si>
+    <t>filterDetails.description.en</t>
+  </si>
+  <si>
+    <t>filterDetails.expression</t>
+  </si>
+  <si>
+    <t>filterDetails.expressionLanguage</t>
+  </si>
+  <si>
+    <t>generationDetails.description.de</t>
+  </si>
+  <si>
+    <t>generationDetails.description.en</t>
+  </si>
+  <si>
+    <t>generationDetails.rule</t>
+  </si>
+  <si>
+    <t>generationDetails.ruleExpressionLanguage</t>
+  </si>
+  <si>
+    <t>recode aocc242j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc242j_g3)</t>
+  </si>
+  <si>
+    <t>recode aocc243j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc243j_g3)</t>
+  </si>
+  <si>
+    <t>recode aocc244j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc244j_g3)</t>
+  </si>
+  <si>
+    <t>recode aocc245j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc245j_g3)</t>
+  </si>
+  <si>
+    <t>recode aocc246j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc246j_g3)</t>
+  </si>
+  <si>
+    <t>Diese Variable enthält neben den im Fragebogen vorgesehenen Kategorien "ja" und "nein" zusätzlich auch die Kategorie 3 "Praktikum war im Folgestudium".
+Sofern Absolventen nach dem Studium ein weiteres Studium aufgenommen haben und im Rahmen dieses Studiums das Praktikum absolvierten (dies ist vor allem bei Bachelorabsolventen im Masterstudium der Fall), dann wurde die Angabe „ja“ gestrichen und stattdessen die neue Kategorie 3 vergeben.</t>
+  </si>
+  <si>
+    <t>Die Gewichte sind lediglich für den Scientific Use File und nicht für den Campus Use File geeignet.</t>
+  </si>
+  <si>
+    <t>Wurde sowohl die deutsche als auch eine andere Staatsangehörigkeit angegeben, so wurde der Code 3 "doppelte Staatsangehörigkeit" vergeben.</t>
+  </si>
+  <si>
+    <t>Haben die Befragten mehr als drei Kinder angegeben, wurden die Geburtsdaten des ältesten und des jüngsten Kindes beibehalten. Angaben zu den mittleren Kindern wurden gestrichen und durch die Angaben zum jüngsten bzw. ältesten Kind ersetzt.</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ04a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ04b_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ10_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ262_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ342a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ342b_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ342c_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ352_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ37a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-occ37b_c</t>
+  </si>
+  <si>
+    <t>recode adem07_d (1942/1959 = 1), gen(adem07_g1)</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem08a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem08b_g1o</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem08b_g2r</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Staatsangehörigkeitsvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-23). Dabei wurde die Türkei zu Asien und Russland zu Europa außerhalb der EU codiert. Zu Einzelheiten vgl. Generierungsregel.</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem08b_g3d</t>
+  </si>
+  <si>
+    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Geburtslandvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-23). Dabei wurde die Türkei zu Asien und Russland zu Europa außerhalb der EU codiert. Zu Einzelheiten vgl. Generierungsregel.</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem151a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem151b_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem152a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem152b_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem153a_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-dem153b_c</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-sys01a_o</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-sys01b_o</t>
+  </si>
+  <si>
+    <t>abs2009-ds1-sys01c_o</t>
+  </si>
+  <si>
     <t>Diese Variable wurde zum Zweck der Anonymisierung aus der Hochschulvariablen generiert. Dabei wurden die deutschen Hochschulen gemäß dem Destatis-Schlüsselverzeichnis für die Studenten- und Prüfungsstatistik (WiSe 2014/15 und SoSe 2015) (vgl. cl-destatis-hochschule-2015) in 6 Typen differenziert:
 1) Universitäten
 2) Pädagogische Hochschulen
 3) Theologische/Kirchliche Hochschulen
 4) Kunsthochschulen
 5) Fachhochschulen (ohne Verwaltungsfachhochschulen)
-6) Verwaltungsfachhochschulen
+6) Verwaltungsfachhochschulen.
 Für Hochschulen, deren Hochschulart nicht bestimmbar war (dies betrifft Hochschulen im Ausland und sonstige deutsche Hochschulen), wurde der Missingwert -966 "nicht bestimmbar" vergeben.</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Hochschulartvariablen generiert. Dabei wurden die 6 Hochschultypen zu den beiden Kategorien "Universität" und "Fachhochschule" aggregiert. Die generierte Variable hat die Ausprägung 1 "Universität", wenn es eine Universität, Pädagogische Hochschule, Theologische/Kirchliche Hochschule oder Kunsthochschule ist. Sie hat die Ausprägung 2 "Fachhochschule", wenn es sich um eine Fachhochschule oder Verwaltungsfachhochschule handelt.
-Für Hochschulen, deren Hochschulart nicht bestimmbar war (dies betrifft Hochschulen im Ausland und sonstige deutsche Hochschulen), wurde der Missingwert -966 "nicht bestimmbar" vergeben.</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten Angaben zur Lehramtsausrichtung in codierter Form. Dabei wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-21).</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten Länderangaben in codierter Form. Dabei wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-23).</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten Angaben zu sonstigen Weiterbildungen (Variable afvt01k), die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten sonstigen Motive für eine weitere akademische Qualifikation, die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten Angaben zu sonstigen Schwierigkeiten bei der Stellensuche (Variable aocc08k), die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten Angaben zu sonstigen Motiven für ein Praktikum (Variable aocc15g), die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diese Variable enthält die offen erfassten Berufsangaben in codierter Form. Als Codierliste wurde das Destatis-Schlüsselverzeichnis für die "Klassifizierung der Berufe (KldB)" von 2010 herangezogen (vgl. cl-destatis-kldb-2010) und die Angaben fünfstellig codiert (ergänzt um Sondercodes, wenn nicht zuordenbar). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Berufsvariablen (KldB-5-Steller) generiert. Dabei wurde der dreistellige Code gemäß Destatis-Schlüsselverzeichnis für die "Klassifizierung der Berufe (KldB)" von 2010 (vgl. cl-destatis-kldb-2010) vergeben (ergänzt um Sondercodes, wenn nicht zuordenbar). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Berufsvariablen (KldB-5-Steller) generiert. Dabei wurde der zweistellige Code gemäß Destatis-Schlüsselverzeichnis für die "Klassifizierung der Berufe (KldB)" von 2010 (vgl. cl-destatis-kldb-2010) vergeben (ergänzt um Sondercodes, wenn nicht zuordenbar). </t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten beruflichen Aufgabenbereiche bzw. Funktionen (erste Angabe) der derzeitigen bzw. letzten beruflichen Tätigkeit in codierter Form. Dabei wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-4).</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten beruflichen Aufgabenbereiche bzw. Funktionen (zweite Angabe) der derzeitigen bzw. letzten beruflichen Tätigkeit in codierter Form. Dabei wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-4).</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten Angaben zum Bundesland bzw. 
-Land (bei Ausland) der Tätigkeit in codierter Form. Zur Codierung der Bundesländer wurde der Destatis-Schlüssel der Bundesländer (vgl. cl-destatis-bundesland-1990) gemäß des Amtlichen Gemeindeschlüssels (AGS) (mit Ergänzungen, wenn nicht zuordenbar) verwendet. Die Länder (bei Ausland) wurden nach einer projekteigenen Codierliste codiert (vgl. cl-dzhw-23).</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus dem Tätigkeitsort (Bundesland/Land) generiert. Zu Einzelheiten vgl. Generierungsregel.</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus dem Tätigkeitsort (Bundesland/Ausland) generiert. Zu Einzelheiten vgl. Generierungsregel.</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung aus dem Tätigkeitsort (erfasst als dreistellige Postleitzahl) generiert. Zur Aggregation wurde die Referenzliste "Tercet NUTS-postal codes matching tables" des Statistischen Amtes der Europäischen Union (Eurostat) von 2010 verwendet (cl-eurostat-deplznuts-2010). Diese Referenzliste weist die fünfstellige Postleitzahl und die zugehörige NUTS-3 Region aus. Daraus wurden die dreistelligen Postleitzahlen und die NUTS-2 Regionen gebildet. Sofern die dreistellige Postleitzahl nicht eindeutig einer NUTS-2-Region zugeordnet werden konnte, wurde der Missingwert "-966 nicht bestimmbar" vergeben.</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten Angaben zu sonstigen Wegen der Stellenfindung bzgl. der ersten Stelle (Variable aocc251v), die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten zusätzlichen Angaben zu sonstigen Wegen der Stellenfindung bzgl. der letzten Stelle (Variable aocc252v), die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
-  </si>
-  <si>
-    <t>Es wurden keine offenen Angaben gemacht oder die offenen Angaben wurden nicht vercodet. Daher enthält diese Variable nur Missings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diese Variable enthält die offen erfassten zusätzlichen Angaben zur Ausprägung 8 "Sonstiges, und zwar" der Variable aocc291a (Betriebsgröße der ersten Stelle) in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.
-Hinweis: In der Regel wurden die offenen Nennungen den vorgegebenen Kategorien zur Betriebsgröße zugeordnet. Sie wurden nur dann gesondert vercodet, wenn statt der Betriebsgröße die Betriebsform angegeben wurde. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diese Variable enthält die offen erfassten zusätzlichen Angaben zur Ausprägung 8 "Sonstiges, und zwar" der Variable aocc292a (Betriebsgröße der letzten Stelle) in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.
-Hinweis: In der Regel wurden die offenen Nennungen den vorgegebenen Kategorien zur Betriebsgröße zugeordnet. Sie wurden nur dann gesondert vercodet, wenn statt der Betriebsgröße die Betriebsform angegeben wurde. 
-</t>
-  </si>
-  <si>
-    <t>Es wurden keine offenen Angaben gemacht. Daher enthält diese Variable nur Missings.</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten zusätzlichen Angaben zur Ausprägung 7 "anderer Bildungsweg, und zwar" der Variable adem02a (Bildungsweg zur Erlangung der Studienberechtigung), die nicht den vorgegebenen Kategorien zugeordnet werden konnten, in codierter Form. Dazu wurde anhand der offenen Angaben (oder basierend auf bereits angelegten Listen auf Basis der Nennungen bisheriger Kohorten) eine Codierliste erstellt.</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten Angaben zum Bundesland bzw. 
-Land (bei Ausland) des Ortes, in dem die Studienberechtigung erworben wurde, in codierter Form. Zur Codierung der Bundesländer wurde der Destatis-Schlüssel der Bundesländer (vgl. cl-destatis-bundesland-1990) gemäß des Amtlichen Gemeindeschlüssels (AGS) (mit Ergänzungen, wenn nicht zuordenbar) verwendet. Die Länder (bei Ausland) wurden nach einer projekteigenen Codierliste codiert (vgl. cl-dzhw-23).</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation  des Ortes der Studienberechtigung (Bundesland/Land) generiert. Zu Einzelheiten vgl. Generierungsregel.</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation  des Ortes der Studienberechtigung (Bundesland/Ausland) generiert. Zu Einzelheiten vgl. Generierungsregel.</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung aus dem 
-Ort der Studienberechtigung (erfasst als dreistellige Postleitzahl) generiert.  Zur Aggregation wurde die Referenzliste "Tercet NUTS-postal codes matching tables" des Statistischen Amtes der Europäischen Union (Eurostat) von 2010 verwendet (cl-eurostat-deplznuts-2010). Diese Referenzliste weist die fünfstellige Postleitzahl und die zugehörige NUTS-3 Region aus. Daraus wurden die dreistelligen Postleitzahlen und die NUTS-2 Regionen gebildet. Sofern die dreistellige Postleitzahl nicht eindeutig einer NUTS-2-Region zugeordnet werden konnte, wurde der Missingwert "-966 nicht bestimmbar" vergeben.</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten Berufsangaben in codierter Form. Als Codierliste wurde das Destatis-Schlüsselverzeichnis für die "Klassifizierung der Berufe (KldB)" von 1992 herangezogen (vgl. cl-destatis-kldb-1992) und die Angaben dreistellig codiert.</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Berufsvariablen (KldB-3-Steller) generiert. Dabei wurde der zweistellige Code gemäß Destatis-Schlüsselverzeichnis für die "Klassifizierung der Berufe (KldB)" von 1992 (vgl. cl-destatis-kldb-1992) vergeben.</t>
-  </si>
-  <si>
-    <t>Geburtsjahre bis 1959 wurden zu einer Kategorie aggregiert.</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Staatsangehörigkeitsvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste (in Anlehnung an die Länderklassifikation des NEPS bei der Startkohorte 5, aber mit Anpassungen bei den europäischen Ländern) verwendet (vgl. cl-dzhw-23). Zu Einzelheiten vgl. Generierungsregel.</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Geburtslandvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste (in Anlehnung an die Länderklassifikation des NEPS bei der Startkohorte 5, aber mit Anpassungen bei den europäischen Ländern) verwendet (vgl. cl-dzhw-23). Zu Einzelheiten vgl. Generierungsregel.</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung aus der Wohnsitzvariable (erfasst als dreistellige Postleitzahl) generiert. Zur Aggregation wurde die Referenzliste "Tercet NUTS-postal codes matching tables" des Statistischen Amtes der Europäischen Union (Eurostat) von 2010 verwendet (cl-eurostat-deplznuts-2010). Diese Referenzliste weist die fünfstellige Postleitzahl und die zugehörige NUTS-3 Region aus. Daraus wurden die dreistelligen Postleitzahlen und die NUTS-2 Regionen gebildet. Sofern die dreistellige Postleitzahl nicht eindeutig einer NUTS-2-Region zugeordnet werden konnte, wurde der Missingwert "-966 nicht bestimmbar" vergeben.</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält die offen erfassten Angaben zum Bundesland bzw. 
-Land (bei Ausland) des Wohnsitzes in codierter Form. Zur Codierung der Bundesländer wurde der Destatis-Schlüssel der Bundesländer (vgl. cl-destatis-bundesland-1990) gemäß des Amtlichen Gemeindeschlüssels (AGS) (mit Ergänzungen, wenn nicht zuordenbar) verwendet. Die Länder (bei Ausland) wurden nach einer projekteigenen Codierliste codiert (vgl. cl-dzhw-23).</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation des Wohnortes (Bundesland/Land) generiert. Zu Einzelheiten vgl. Generierungsregel.</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation  des Wohnortes (Bundesland/Ausland) generiert. Zu Einzelheiten vgl. Generierungsregel.</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde in der Regel anhand der angegebenen Geburtsdaten der Kinder gebildet. Die Anzahl der Kinder entspricht jedoch nicht immer der Summe der angegebenen Kinder (Geburtsdaten), weil bei mehr als drei angegebenen Kindern Angaben zu den mittleren Kindern gestrichen und durch die Angaben zum jüngsten bzw. ältesten Kind ersetzt wurden.</t>
-  </si>
-  <si>
-    <t>recode astu011k_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu011k_g4)</t>
-  </si>
-  <si>
-    <t>recode astu011k_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu011k_g6)</t>
-  </si>
-  <si>
-    <t>recode astu012k_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu012k_g4)</t>
-  </si>
-  <si>
-    <t>recode astu012k_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu012k_g6)</t>
-  </si>
-  <si>
-    <t>recode astu013k_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu013k_g4)</t>
-  </si>
-  <si>
-    <t>recode astu013k_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu013k_g6)</t>
-  </si>
-  <si>
-    <t>recode astu014k_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu014k_g4)</t>
-  </si>
-  <si>
-    <t>recode astu014k_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu014k_g6)</t>
-  </si>
-  <si>
-    <t>recode astu015k_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu015k_g4)</t>
-  </si>
-  <si>
-    <t>recode astu015k_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu015k_g6)</t>
-  </si>
-  <si>
-    <t>recode astu021g_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu021g_g4)</t>
-  </si>
-  <si>
-    <t>recode astu021g_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu021g_g6)</t>
-  </si>
-  <si>
-    <t>recode astu022g_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu022g_g4)</t>
-  </si>
-  <si>
-    <t>recode astu022g_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu022g_g6)</t>
-  </si>
-  <si>
-    <t>recode astu023g_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(astu023g_g4)</t>
-  </si>
-  <si>
-    <t>recode astu023g_g5r (1 2 3 4 = 1) (5 6 = 2), gen(astu023g_g6)</t>
-  </si>
-  <si>
-    <t>recode afec021l_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(afec021l_g4)</t>
-  </si>
-  <si>
-    <t>recode afec021l_g5r (1 2 3 4 = 1) (5 6 = 2), gen(afec021l_g6)</t>
-  </si>
-  <si>
-    <t>recode afec021m_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(afec021m_g4)</t>
-  </si>
-  <si>
-    <t>recode afec021m_g5r (1 2 3 4 = 1) (5 6 = 2), gen(afec021m_g6)</t>
-  </si>
-  <si>
-    <t>recode afec021n_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(afec021n_g4)</t>
-  </si>
-  <si>
-    <t>recode afec021n_g5r (1 2 3 4 = 1) (5 6 = 2), gen(afec021n_g6)</t>
-  </si>
-  <si>
-    <t>recode afec022l_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(afec022l_g4)</t>
-  </si>
-  <si>
-    <t>recode afec022l_g5r (1 2 3 4 = 1) (5 6 = 2), gen(afec022l_g6)</t>
-  </si>
-  <si>
-    <t>recode afec022m_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(afec022m_g4)</t>
-  </si>
-  <si>
-    <t>recode afec022m_g5r (1 2 3 4 = 1) (5 6 = 2), gen(afec022m_g6)</t>
-  </si>
-  <si>
-    <t>recode afec022n_g3r (1/10 =1) (11/16 = 2) (21 = 3) (22 = 4), gen(afec022n_g4)</t>
-  </si>
-  <si>
-    <t>recode afec022n_g5r (1 2 3 4 = 1) (5 6 = 2), gen(afec022n_g6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recode aocc241j_g1r (20/90 96 99 =100), gen(aocc241j_g2d) </t>
-  </si>
-  <si>
-    <t>recode aocc241j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc241j_g3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recode aocc242j_g1r (20/90 96 99 =100), gen(aocc242j_g2d) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">recode aocc243j_g1r (20/90 96 99 =100), gen(aocc243j_g2d) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">recode aocc244j_g1r (20/90 96 99 =100), gen(aocc244j_g2d) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">recode aocc245j_g1r (20/90 96 99 =100), gen(aocc245j_g2d) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">recode aocc246j_g1r (20/90 96 99 =100), gen(aocc246j_g2d) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-recode adem05a_g1r (20/90 96 99 =100), gen(adem05a_g2d)</t>
-  </si>
-  <si>
-    <t>recode adem05a_g2d (1/10 92 =1) (11/16 91 = 2), gen(adem05a_g3)</t>
-  </si>
-  <si>
-    <t>recode adem08b_g1o (22 = 1) (35 = 2) (37 = 3) (39/41 43/46 68 = 4) (20 21 23/34 36 38 42 53 54 61 = 5) (48/52 63 64 62 = 6) (55 56 = 7) (57/60 = 8) (80/82 = 9) (65/67 85/87 = 10) (69/77 = 11) (88/90 = 12) (47 99 95/97 = -966), gen(adem08b_g2r)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recode adem08b_g1o (20/36 38/42 53 54 61 = 1) (43/46 48/52 62/64 = 2) (55/60 = 3) (37 65/77 = 4) (80/82 = 5) (85/90 = 6) (99 95/97 = -966), gen(adem08b_g3d)
-</t>
-  </si>
-  <si>
-    <t>recode adem09b_g1o (22 = 1) (35 = 2) (37 = 3) (39/41 43/46 68 = 4) (20 21 23/34 36 38 42 53 54 61 = 5) (48/52 63 64 62 = 6) (55 56 = 7) (57/60 = 8) (80/82 = 9) (65/67 85/87 = 10) (69/77 = 11) (88/90 = 12) (47 99 95/97 = -966), gen(adem09b_g2r)</t>
-  </si>
-  <si>
-    <t>recode adem09b_g1o (20/36 38/42 53 54 61 = 1) (43/46 48/52 62/64 = 2) (55/60 = 3) (37 65/77 = 4) (80/82 = 5) (85/90 = 6) (99 95/97 = -966), gen(adem09b_g3d)</t>
-  </si>
-  <si>
-    <t>recode adem11b_g1r (20/90 96 99 =100), gen(adem11b_g2d)</t>
-  </si>
-  <si>
-    <t>recode adem11b_g2d (1/10 92 =1) (11/16 91 = 2), gen(adem11b_g3)</t>
-  </si>
-  <si>
-    <t>panelIdentifier</t>
-  </si>
-  <si>
-    <t>relatedVariables</t>
-  </si>
-  <si>
-    <t>annotations.de</t>
-  </si>
-  <si>
-    <t>annotations.en</t>
-  </si>
-  <si>
-    <t>filterDetails.description.de</t>
-  </si>
-  <si>
-    <t>filterDetails.description.en</t>
-  </si>
-  <si>
-    <t>filterDetails.expression</t>
-  </si>
-  <si>
-    <t>filterDetails.expressionLanguage</t>
-  </si>
-  <si>
-    <t>generationDetails.description.de</t>
-  </si>
-  <si>
-    <t>generationDetails.description.en</t>
-  </si>
-  <si>
-    <t>generationDetails.rule</t>
-  </si>
-  <si>
-    <t>generationDetails.ruleExpressionLanguage</t>
-  </si>
-  <si>
-    <t>recode aocc242j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc242j_g3)</t>
-  </si>
-  <si>
-    <t>recode aocc243j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc243j_g3)</t>
-  </si>
-  <si>
-    <t>recode aocc244j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc244j_g3)</t>
-  </si>
-  <si>
-    <t>recode aocc245j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc245j_g3)</t>
-  </si>
-  <si>
-    <t>recode aocc246j_g2d (1/10 92 =1) (11/16 91 = 2), gen(aocc246j_g3)</t>
-  </si>
-  <si>
-    <t>Diese Variable enthält neben den im Fragebogen vorgesehenen Kategorien "ja" und "nein" zusätzlich auch die Kategorie 3 "Praktikum war im Folgestudium".
-Sofern Absolventen nach dem Studium ein weiteres Studium aufgenommen haben und im Rahmen dieses Studiums das Praktikum absolvierten (dies ist vor allem bei Bachelorabsolventen im Masterstudium der Fall), dann wurde die Angabe „ja“ gestrichen und stattdessen die neue Kategorie 3 vergeben.</t>
-  </si>
-  <si>
-    <t>Die Gewichte sind lediglich für den Scientific Use File und nicht für den Campus Use File geeignet.</t>
-  </si>
-  <si>
-    <t>Wurde sowohl die deutsche als auch eine andere Staatsangehörigkeit angegeben, so wurde der Code 3 "doppelte Staatsangehörigkeit" vergeben.</t>
-  </si>
-  <si>
-    <t>Haben die Befragten mehr als drei Kinder angegeben, wurden die Geburtsdaten des ältesten und des jüngsten Kindes beibehalten. Angaben zu den mittleren Kindern wurden gestrichen und durch die Angaben zum jüngsten bzw. ältesten Kind ersetzt.</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-occ04a_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-occ04b_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-occ10_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-occ262_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-occ342a_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-occ342b_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-occ342c_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-occ352_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-occ37a_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-occ37b_c</t>
-  </si>
-  <si>
-    <t>recode adem07_d (1942/1959 = 1), gen(adem07_g1)</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-dem08a_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-dem08b_g1o</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-dem08b_g2r</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Staatsangehörigkeitsvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-23). Dabei wurde die Türkei zu Asien und Russland zu Europa außerhalb der EU codiert. Zu Einzelheiten vgl. Generierungsregel.</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-dem08b_g3d</t>
-  </si>
-  <si>
-    <t>Diese Variable wurde zum Zweck der Anonymisierung durch Aggregation aus der Geburtslandvariable (bei Ausland) generiert. Zur Aggregation wurde eine projekteigene Codierliste verwendet (vgl. cl-dzhw-23). Dabei wurde die Türkei zu Asien und Russland zu Europa außerhalb der EU codiert. Zu Einzelheiten vgl. Generierungsregel.</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-dem151a_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-dem151b_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-dem152a_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-dem152b_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-dem153a_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-dem153b_c</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-sys01a_o</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-sys01b_o</t>
-  </si>
-  <si>
-    <t>abs2009-ds1-sys01c_o</t>
   </si>
 </sst>
 </file>
@@ -2973,8 +2973,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3279,53 +3280,56 @@
   <dimension ref="A1:N811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="L201" sqref="L201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C1" t="s">
         <v>924</v>
-      </c>
-      <c r="C1" t="s">
-        <v>925</v>
       </c>
       <c r="D1" t="s">
         <v>814</v>
       </c>
       <c r="E1" t="s">
+        <v>925</v>
+      </c>
+      <c r="F1" t="s">
         <v>926</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>927</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>928</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>930</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>931</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>932</v>
       </c>
-      <c r="L1" t="s">
-        <v>933</v>
-      </c>
       <c r="M1" t="s">
+        <v>921</v>
+      </c>
+      <c r="N1" t="s">
         <v>922</v>
-      </c>
-      <c r="N1" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3344,7 +3348,7 @@
       <c r="H2" t="s">
         <v>811</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K2" t="s">
@@ -3373,7 +3377,7 @@
       <c r="H3" t="s">
         <v>811</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K3" t="s">
@@ -3402,7 +3406,7 @@
       <c r="H4" t="s">
         <v>811</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K4" t="s">
@@ -3431,7 +3435,7 @@
       <c r="H5" t="s">
         <v>811</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K5" t="s">
@@ -3460,7 +3464,7 @@
       <c r="H6" t="s">
         <v>811</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K6" t="s">
@@ -3489,7 +3493,7 @@
       <c r="H7" t="s">
         <v>811</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K7" t="s">
@@ -3518,7 +3522,7 @@
       <c r="H8" t="s">
         <v>811</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K8" t="s">
@@ -3547,7 +3551,7 @@
       <c r="H9" t="s">
         <v>811</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K9" t="s">
@@ -3576,7 +3580,7 @@
       <c r="H10" t="s">
         <v>811</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K10" t="s">
@@ -3605,7 +3609,7 @@
       <c r="H11" t="s">
         <v>811</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K11" t="s">
@@ -3634,7 +3638,7 @@
       <c r="H12" t="s">
         <v>811</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K12" t="s">
@@ -3663,7 +3667,7 @@
       <c r="H13" t="s">
         <v>811</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K13" t="s">
@@ -3692,7 +3696,7 @@
       <c r="H14" t="s">
         <v>811</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K14" t="s">
@@ -3721,7 +3725,7 @@
       <c r="H15" t="s">
         <v>811</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K15" t="s">
@@ -3750,7 +3754,7 @@
       <c r="H16" t="s">
         <v>811</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K16" t="s">
@@ -3779,7 +3783,7 @@
       <c r="H17" t="s">
         <v>811</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K17" t="s">
@@ -3808,7 +3812,7 @@
       <c r="H18" t="s">
         <v>811</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K18" t="s">
@@ -3837,7 +3841,7 @@
       <c r="H19" t="s">
         <v>811</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K19" t="s">
@@ -3866,7 +3870,7 @@
       <c r="H20" t="s">
         <v>811</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K20" t="s">
@@ -3895,7 +3899,7 @@
       <c r="H21" t="s">
         <v>811</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K21" t="s">
@@ -3924,11 +3928,11 @@
       <c r="H22" t="s">
         <v>811</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K22" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L22" t="s">
         <v>832</v>
@@ -3953,8 +3957,8 @@
       <c r="H23" t="s">
         <v>811</v>
       </c>
-      <c r="I23" t="s">
-        <v>841</v>
+      <c r="I23" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K23" t="s">
         <v>811</v>
@@ -3982,11 +3986,11 @@
       <c r="H24" t="s">
         <v>811</v>
       </c>
-      <c r="I24" t="s">
-        <v>842</v>
+      <c r="I24" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K24" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="L24" t="s">
         <v>832</v>
@@ -4011,7 +4015,7 @@
       <c r="H25" t="s">
         <v>811</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K25" t="s">
@@ -4040,7 +4044,7 @@
       <c r="H26" t="s">
         <v>811</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K26" t="s">
@@ -4069,7 +4073,7 @@
       <c r="H27" t="s">
         <v>811</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K27" t="s">
@@ -4098,7 +4102,7 @@
       <c r="H28" t="s">
         <v>811</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K28" t="s">
@@ -4127,7 +4131,7 @@
       <c r="H29" t="s">
         <v>811</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K29" t="s">
@@ -4156,7 +4160,7 @@
       <c r="H30" t="s">
         <v>811</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K30" t="s">
@@ -4185,7 +4189,7 @@
       <c r="H31" t="s">
         <v>811</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K31" t="s">
@@ -4214,7 +4218,7 @@
       <c r="H32" t="s">
         <v>811</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K32" t="s">
@@ -4243,7 +4247,7 @@
       <c r="H33" t="s">
         <v>811</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K33" t="s">
@@ -4272,7 +4276,7 @@
       <c r="H34" t="s">
         <v>811</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K34" t="s">
@@ -4301,7 +4305,7 @@
       <c r="H35" t="s">
         <v>811</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K35" t="s">
@@ -4330,7 +4334,7 @@
       <c r="H36" t="s">
         <v>811</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K36" t="s">
@@ -4359,7 +4363,7 @@
       <c r="H37" t="s">
         <v>811</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K37" t="s">
@@ -4388,7 +4392,7 @@
       <c r="H38" t="s">
         <v>811</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K38" t="s">
@@ -4417,7 +4421,7 @@
       <c r="H39" t="s">
         <v>811</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K39" t="s">
@@ -4446,7 +4450,7 @@
       <c r="H40" t="s">
         <v>811</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K40" t="s">
@@ -4475,7 +4479,7 @@
       <c r="H41" t="s">
         <v>811</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K41" t="s">
@@ -4504,7 +4508,7 @@
       <c r="H42" t="s">
         <v>811</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K42" t="s">
@@ -4533,7 +4537,7 @@
       <c r="H43" t="s">
         <v>811</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K43" t="s">
@@ -4562,11 +4566,11 @@
       <c r="H44" t="s">
         <v>811</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K44" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="L44" t="s">
         <v>832</v>
@@ -4591,8 +4595,8 @@
       <c r="H45" t="s">
         <v>811</v>
       </c>
-      <c r="I45" t="s">
-        <v>841</v>
+      <c r="I45" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K45" t="s">
         <v>811</v>
@@ -4620,11 +4624,11 @@
       <c r="H46" t="s">
         <v>811</v>
       </c>
-      <c r="I46" t="s">
-        <v>842</v>
+      <c r="I46" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K46" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L46" t="s">
         <v>832</v>
@@ -4649,7 +4653,7 @@
       <c r="H47" t="s">
         <v>811</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K47" t="s">
@@ -4678,7 +4682,7 @@
       <c r="H48" t="s">
         <v>811</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K48" t="s">
@@ -4707,7 +4711,7 @@
       <c r="H49" t="s">
         <v>811</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K49" t="s">
@@ -4736,7 +4740,7 @@
       <c r="H50" t="s">
         <v>811</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K50" t="s">
@@ -4765,7 +4769,7 @@
       <c r="H51" t="s">
         <v>811</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K51" t="s">
@@ -4794,7 +4798,7 @@
       <c r="H52" t="s">
         <v>811</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K52" t="s">
@@ -4823,7 +4827,7 @@
       <c r="H53" t="s">
         <v>811</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K53" t="s">
@@ -4852,7 +4856,7 @@
       <c r="H54" t="s">
         <v>811</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K54" t="s">
@@ -4881,7 +4885,7 @@
       <c r="H55" t="s">
         <v>811</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K55" t="s">
@@ -4910,7 +4914,7 @@
       <c r="H56" t="s">
         <v>811</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K56" t="s">
@@ -4939,7 +4943,7 @@
       <c r="H57" t="s">
         <v>811</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K57" t="s">
@@ -4968,7 +4972,7 @@
       <c r="H58" t="s">
         <v>811</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K58" t="s">
@@ -4997,7 +5001,7 @@
       <c r="H59" t="s">
         <v>811</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K59" t="s">
@@ -5026,7 +5030,7 @@
       <c r="H60" t="s">
         <v>811</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K60" t="s">
@@ -5055,7 +5059,7 @@
       <c r="H61" t="s">
         <v>811</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K61" t="s">
@@ -5084,7 +5088,7 @@
       <c r="H62" t="s">
         <v>811</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K62" t="s">
@@ -5113,7 +5117,7 @@
       <c r="H63" t="s">
         <v>811</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K63" t="s">
@@ -5142,7 +5146,7 @@
       <c r="H64" t="s">
         <v>811</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K64" t="s">
@@ -5171,7 +5175,7 @@
       <c r="H65" t="s">
         <v>811</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K65" t="s">
@@ -5200,11 +5204,11 @@
       <c r="H66" t="s">
         <v>811</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K66" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L66" t="s">
         <v>832</v>
@@ -5229,8 +5233,8 @@
       <c r="H67" t="s">
         <v>811</v>
       </c>
-      <c r="I67" t="s">
-        <v>841</v>
+      <c r="I67" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K67" t="s">
         <v>811</v>
@@ -5258,11 +5262,11 @@
       <c r="H68" t="s">
         <v>811</v>
       </c>
-      <c r="I68" t="s">
-        <v>842</v>
+      <c r="I68" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K68" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="L68" t="s">
         <v>832</v>
@@ -5287,7 +5291,7 @@
       <c r="H69" t="s">
         <v>811</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K69" t="s">
@@ -5316,7 +5320,7 @@
       <c r="H70" t="s">
         <v>811</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K70" t="s">
@@ -5345,7 +5349,7 @@
       <c r="H71" t="s">
         <v>811</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K71" t="s">
@@ -5374,7 +5378,7 @@
       <c r="H72" t="s">
         <v>811</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K72" t="s">
@@ -5403,7 +5407,7 @@
       <c r="H73" t="s">
         <v>811</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K73" t="s">
@@ -5432,7 +5436,7 @@
       <c r="H74" t="s">
         <v>811</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K74" t="s">
@@ -5461,7 +5465,7 @@
       <c r="H75" t="s">
         <v>811</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K75" t="s">
@@ -5490,7 +5494,7 @@
       <c r="H76" t="s">
         <v>811</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K76" t="s">
@@ -5519,7 +5523,7 @@
       <c r="H77" t="s">
         <v>811</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K77" t="s">
@@ -5548,7 +5552,7 @@
       <c r="H78" t="s">
         <v>811</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K78" t="s">
@@ -5577,7 +5581,7 @@
       <c r="H79" t="s">
         <v>811</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K79" t="s">
@@ -5606,7 +5610,7 @@
       <c r="H80" t="s">
         <v>811</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K80" t="s">
@@ -5635,7 +5639,7 @@
       <c r="H81" t="s">
         <v>811</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K81" t="s">
@@ -5664,7 +5668,7 @@
       <c r="H82" t="s">
         <v>811</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K82" t="s">
@@ -5693,7 +5697,7 @@
       <c r="H83" t="s">
         <v>811</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K83" t="s">
@@ -5722,7 +5726,7 @@
       <c r="H84" t="s">
         <v>811</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K84" t="s">
@@ -5751,7 +5755,7 @@
       <c r="H85" t="s">
         <v>811</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K85" t="s">
@@ -5780,7 +5784,7 @@
       <c r="H86" t="s">
         <v>811</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K86" t="s">
@@ -5809,7 +5813,7 @@
       <c r="H87" t="s">
         <v>811</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K87" t="s">
@@ -5838,11 +5842,11 @@
       <c r="H88" t="s">
         <v>811</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K88" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="L88" t="s">
         <v>832</v>
@@ -5867,8 +5871,8 @@
       <c r="H89" t="s">
         <v>811</v>
       </c>
-      <c r="I89" t="s">
-        <v>841</v>
+      <c r="I89" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K89" t="s">
         <v>811</v>
@@ -5896,11 +5900,11 @@
       <c r="H90" t="s">
         <v>811</v>
       </c>
-      <c r="I90" t="s">
-        <v>842</v>
+      <c r="I90" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K90" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L90" t="s">
         <v>832</v>
@@ -5925,7 +5929,7 @@
       <c r="H91" t="s">
         <v>811</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K91" t="s">
@@ -5954,7 +5958,7 @@
       <c r="H92" t="s">
         <v>811</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K92" t="s">
@@ -5983,7 +5987,7 @@
       <c r="H93" t="s">
         <v>811</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K93" t="s">
@@ -6012,7 +6016,7 @@
       <c r="H94" t="s">
         <v>811</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K94" t="s">
@@ -6041,7 +6045,7 @@
       <c r="H95" t="s">
         <v>811</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K95" t="s">
@@ -6070,7 +6074,7 @@
       <c r="H96" t="s">
         <v>811</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K96" t="s">
@@ -6099,7 +6103,7 @@
       <c r="H97" t="s">
         <v>811</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K97" t="s">
@@ -6128,7 +6132,7 @@
       <c r="H98" t="s">
         <v>811</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K98" t="s">
@@ -6157,7 +6161,7 @@
       <c r="H99" t="s">
         <v>811</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K99" t="s">
@@ -6186,7 +6190,7 @@
       <c r="H100" t="s">
         <v>811</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K100" t="s">
@@ -6215,7 +6219,7 @@
       <c r="H101" t="s">
         <v>811</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K101" t="s">
@@ -6244,7 +6248,7 @@
       <c r="H102" t="s">
         <v>811</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K102" t="s">
@@ -6273,7 +6277,7 @@
       <c r="H103" t="s">
         <v>811</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K103" t="s">
@@ -6302,7 +6306,7 @@
       <c r="H104" t="s">
         <v>811</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K104" t="s">
@@ -6331,7 +6335,7 @@
       <c r="H105" t="s">
         <v>811</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K105" t="s">
@@ -6360,7 +6364,7 @@
       <c r="H106" t="s">
         <v>811</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K106" t="s">
@@ -6389,7 +6393,7 @@
       <c r="H107" t="s">
         <v>811</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K107" t="s">
@@ -6418,7 +6422,7 @@
       <c r="H108" t="s">
         <v>811</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K108" t="s">
@@ -6447,7 +6451,7 @@
       <c r="H109" t="s">
         <v>811</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K109" t="s">
@@ -6476,11 +6480,11 @@
       <c r="H110" t="s">
         <v>811</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K110" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="L110" t="s">
         <v>832</v>
@@ -6505,8 +6509,8 @@
       <c r="H111" t="s">
         <v>811</v>
       </c>
-      <c r="I111" t="s">
-        <v>841</v>
+      <c r="I111" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K111" t="s">
         <v>811</v>
@@ -6534,11 +6538,11 @@
       <c r="H112" t="s">
         <v>811</v>
       </c>
-      <c r="I112" t="s">
-        <v>842</v>
+      <c r="I112" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K112" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L112" t="s">
         <v>832</v>
@@ -6563,7 +6567,7 @@
       <c r="H113" t="s">
         <v>811</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K113" t="s">
@@ -6592,7 +6596,7 @@
       <c r="H114" t="s">
         <v>811</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K114" t="s">
@@ -6621,7 +6625,7 @@
       <c r="H115" t="s">
         <v>811</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K115" t="s">
@@ -6650,7 +6654,7 @@
       <c r="H116" t="s">
         <v>811</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K116" t="s">
@@ -6679,7 +6683,7 @@
       <c r="H117" t="s">
         <v>811</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K117" t="s">
@@ -6708,7 +6712,7 @@
       <c r="H118" t="s">
         <v>811</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K118" t="s">
@@ -6737,7 +6741,7 @@
       <c r="H119" t="s">
         <v>811</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K119" t="s">
@@ -6766,7 +6770,7 @@
       <c r="H120" t="s">
         <v>811</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K120" t="s">
@@ -6795,7 +6799,7 @@
       <c r="H121" t="s">
         <v>811</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K121" t="s">
@@ -6824,7 +6828,7 @@
       <c r="H122" t="s">
         <v>811</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K122" t="s">
@@ -6853,7 +6857,7 @@
       <c r="H123" t="s">
         <v>811</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K123" t="s">
@@ -6882,7 +6886,7 @@
       <c r="H124" t="s">
         <v>811</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K124" t="s">
@@ -6911,7 +6915,7 @@
       <c r="H125" t="s">
         <v>811</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K125" t="s">
@@ -6940,7 +6944,7 @@
       <c r="H126" t="s">
         <v>811</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K126" t="s">
@@ -6969,7 +6973,7 @@
       <c r="H127" t="s">
         <v>811</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K127" t="s">
@@ -6998,11 +7002,11 @@
       <c r="H128" t="s">
         <v>811</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K128" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L128" t="s">
         <v>832</v>
@@ -7027,8 +7031,8 @@
       <c r="H129" t="s">
         <v>811</v>
       </c>
-      <c r="I129" t="s">
-        <v>841</v>
+      <c r="I129" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K129" t="s">
         <v>811</v>
@@ -7056,11 +7060,11 @@
       <c r="H130" t="s">
         <v>811</v>
       </c>
-      <c r="I130" t="s">
-        <v>842</v>
+      <c r="I130" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K130" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L130" t="s">
         <v>832</v>
@@ -7085,7 +7089,7 @@
       <c r="H131" t="s">
         <v>811</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K131" t="s">
@@ -7114,7 +7118,7 @@
       <c r="H132" t="s">
         <v>811</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K132" t="s">
@@ -7143,7 +7147,7 @@
       <c r="H133" t="s">
         <v>811</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K133" t="s">
@@ -7172,7 +7176,7 @@
       <c r="H134" t="s">
         <v>811</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K134" t="s">
@@ -7201,7 +7205,7 @@
       <c r="H135" t="s">
         <v>811</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K135" t="s">
@@ -7230,7 +7234,7 @@
       <c r="H136" t="s">
         <v>811</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K136" t="s">
@@ -7259,7 +7263,7 @@
       <c r="H137" t="s">
         <v>811</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K137" t="s">
@@ -7288,7 +7292,7 @@
       <c r="H138" t="s">
         <v>811</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K138" t="s">
@@ -7317,7 +7321,7 @@
       <c r="H139" t="s">
         <v>811</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K139" t="s">
@@ -7346,7 +7350,7 @@
       <c r="H140" t="s">
         <v>811</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K140" t="s">
@@ -7375,7 +7379,7 @@
       <c r="H141" t="s">
         <v>811</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K141" t="s">
@@ -7404,7 +7408,7 @@
       <c r="H142" t="s">
         <v>811</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K142" t="s">
@@ -7433,7 +7437,7 @@
       <c r="H143" t="s">
         <v>811</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K143" t="s">
@@ -7462,7 +7466,7 @@
       <c r="H144" t="s">
         <v>811</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I144" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K144" t="s">
@@ -7491,7 +7495,7 @@
       <c r="H145" t="s">
         <v>811</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I145" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K145" t="s">
@@ -7520,11 +7524,11 @@
       <c r="H146" t="s">
         <v>811</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K146" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L146" t="s">
         <v>832</v>
@@ -7549,8 +7553,8 @@
       <c r="H147" t="s">
         <v>811</v>
       </c>
-      <c r="I147" t="s">
-        <v>841</v>
+      <c r="I147" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K147" t="s">
         <v>811</v>
@@ -7578,11 +7582,11 @@
       <c r="H148" t="s">
         <v>811</v>
       </c>
-      <c r="I148" t="s">
-        <v>842</v>
+      <c r="I148" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K148" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L148" t="s">
         <v>832</v>
@@ -7607,7 +7611,7 @@
       <c r="H149" t="s">
         <v>811</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K149" t="s">
@@ -7636,7 +7640,7 @@
       <c r="H150" t="s">
         <v>811</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K150" t="s">
@@ -7665,7 +7669,7 @@
       <c r="H151" t="s">
         <v>811</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K151" t="s">
@@ -7694,7 +7698,7 @@
       <c r="H152" t="s">
         <v>811</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K152" t="s">
@@ -7723,7 +7727,7 @@
       <c r="H153" t="s">
         <v>811</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I153" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K153" t="s">
@@ -7752,7 +7756,7 @@
       <c r="H154" t="s">
         <v>811</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K154" t="s">
@@ -7781,7 +7785,7 @@
       <c r="H155" t="s">
         <v>811</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K155" t="s">
@@ -7810,7 +7814,7 @@
       <c r="H156" t="s">
         <v>811</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I156" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K156" t="s">
@@ -7839,7 +7843,7 @@
       <c r="H157" t="s">
         <v>811</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K157" t="s">
@@ -7868,7 +7872,7 @@
       <c r="H158" t="s">
         <v>811</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K158" t="s">
@@ -7897,7 +7901,7 @@
       <c r="H159" t="s">
         <v>811</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K159" t="s">
@@ -7926,7 +7930,7 @@
       <c r="H160" t="s">
         <v>811</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I160" s="1" t="s">
         <v>836</v>
       </c>
       <c r="K160" t="s">
@@ -7955,7 +7959,7 @@
       <c r="H161" t="s">
         <v>811</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K161" t="s">
@@ -7984,7 +7988,7 @@
       <c r="H162" t="s">
         <v>811</v>
       </c>
-      <c r="I162" t="s">
+      <c r="I162" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K162" t="s">
@@ -8013,7 +8017,7 @@
       <c r="H163" t="s">
         <v>811</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K163" t="s">
@@ -8042,11 +8046,11 @@
       <c r="H164" t="s">
         <v>811</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I164" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K164" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L164" t="s">
         <v>832</v>
@@ -8071,8 +8075,8 @@
       <c r="H165" t="s">
         <v>811</v>
       </c>
-      <c r="I165" t="s">
-        <v>841</v>
+      <c r="I165" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K165" t="s">
         <v>811</v>
@@ -8100,11 +8104,11 @@
       <c r="H166" t="s">
         <v>811</v>
       </c>
-      <c r="I166" t="s">
-        <v>842</v>
+      <c r="I166" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K166" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L166" t="s">
         <v>832</v>
@@ -8129,7 +8133,7 @@
       <c r="H167" t="s">
         <v>811</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I167" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K167" t="s">
@@ -8158,8 +8162,8 @@
       <c r="H168" t="s">
         <v>811</v>
       </c>
-      <c r="I168" t="s">
-        <v>843</v>
+      <c r="I168" s="1" t="s">
+        <v>842</v>
       </c>
       <c r="K168" t="s">
         <v>811</v>
@@ -8187,7 +8191,7 @@
       <c r="H169" t="s">
         <v>811</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I169" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K169" t="s">
@@ -8216,7 +8220,7 @@
       <c r="H170" t="s">
         <v>811</v>
       </c>
-      <c r="I170" t="s">
+      <c r="I170" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K170" t="s">
@@ -8245,7 +8249,7 @@
       <c r="H171" t="s">
         <v>811</v>
       </c>
-      <c r="I171" t="s">
+      <c r="I171" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K171" t="s">
@@ -8274,7 +8278,7 @@
       <c r="H172" t="s">
         <v>811</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I172" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K172" t="s">
@@ -8303,7 +8307,7 @@
       <c r="H173" t="s">
         <v>811</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I173" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K173" t="s">
@@ -8332,7 +8336,7 @@
       <c r="H174" t="s">
         <v>811</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I174" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K174" t="s">
@@ -8361,7 +8365,7 @@
       <c r="H175" t="s">
         <v>811</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I175" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K175" t="s">
@@ -8390,7 +8394,7 @@
       <c r="H176" t="s">
         <v>811</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I176" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K176" t="s">
@@ -8419,7 +8423,7 @@
       <c r="H177" t="s">
         <v>811</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I177" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K177" t="s">
@@ -8448,7 +8452,7 @@
       <c r="H178" t="s">
         <v>811</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I178" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K178" t="s">
@@ -8477,7 +8481,7 @@
       <c r="H179" t="s">
         <v>811</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I179" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K179" t="s">
@@ -8506,7 +8510,7 @@
       <c r="H180" t="s">
         <v>811</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I180" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K180" t="s">
@@ -8535,8 +8539,8 @@
       <c r="H181" t="s">
         <v>811</v>
       </c>
-      <c r="I181" t="s">
-        <v>844</v>
+      <c r="I181" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="K181" t="s">
         <v>811</v>
@@ -8564,7 +8568,7 @@
       <c r="H182" t="s">
         <v>811</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I182" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K182" t="s">
@@ -8593,7 +8597,7 @@
       <c r="H183" t="s">
         <v>811</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I183" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K183" t="s">
@@ -8622,8 +8626,8 @@
       <c r="H184" t="s">
         <v>811</v>
       </c>
-      <c r="I184" t="s">
-        <v>844</v>
+      <c r="I184" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="K184" t="s">
         <v>811</v>
@@ -8651,7 +8655,7 @@
       <c r="H185" t="s">
         <v>811</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K185" t="s">
@@ -8680,7 +8684,7 @@
       <c r="H186" t="s">
         <v>811</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I186" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K186" t="s">
@@ -8709,8 +8713,8 @@
       <c r="H187" t="s">
         <v>811</v>
       </c>
-      <c r="I187" t="s">
-        <v>844</v>
+      <c r="I187" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="K187" t="s">
         <v>811</v>
@@ -8738,7 +8742,7 @@
       <c r="H188" t="s">
         <v>811</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I188" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K188" t="s">
@@ -8767,7 +8771,7 @@
       <c r="H189" t="s">
         <v>811</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I189" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K189" t="s">
@@ -8796,7 +8800,7 @@
       <c r="H190" t="s">
         <v>811</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I190" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K190" t="s">
@@ -8825,7 +8829,7 @@
       <c r="H191" t="s">
         <v>811</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I191" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K191" t="s">
@@ -8854,7 +8858,7 @@
       <c r="H192" t="s">
         <v>811</v>
       </c>
-      <c r="I192" t="s">
+      <c r="I192" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K192" t="s">
@@ -8883,7 +8887,7 @@
       <c r="H193" t="s">
         <v>811</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I193" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K193" t="s">
@@ -8912,7 +8916,7 @@
       <c r="H194" t="s">
         <v>832</v>
       </c>
-      <c r="I194" t="s">
+      <c r="I194" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K194" t="s">
@@ -8941,7 +8945,7 @@
       <c r="H195" t="s">
         <v>832</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I195" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K195" t="s">
@@ -8970,7 +8974,7 @@
       <c r="H196" t="s">
         <v>832</v>
       </c>
-      <c r="I196" t="s">
+      <c r="I196" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K196" t="s">
@@ -8999,7 +9003,7 @@
       <c r="H197" t="s">
         <v>832</v>
       </c>
-      <c r="I197" t="s">
+      <c r="I197" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K197" t="s">
@@ -9028,7 +9032,7 @@
       <c r="H198" t="s">
         <v>811</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I198" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K198" t="s">
@@ -9057,7 +9061,7 @@
       <c r="H199" t="s">
         <v>811</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I199" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K199" t="s">
@@ -9086,7 +9090,7 @@
       <c r="H200" t="s">
         <v>811</v>
       </c>
-      <c r="I200" t="s">
+      <c r="I200" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K200" t="s">
@@ -9115,7 +9119,7 @@
       <c r="H201" t="s">
         <v>811</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I201" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K201" t="s">
@@ -9144,7 +9148,7 @@
       <c r="H202" t="s">
         <v>811</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I202" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K202" t="s">
@@ -9173,7 +9177,7 @@
       <c r="H203" t="s">
         <v>811</v>
       </c>
-      <c r="I203" t="s">
+      <c r="I203" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K203" t="s">
@@ -9202,7 +9206,7 @@
       <c r="H204" t="s">
         <v>811</v>
       </c>
-      <c r="I204" t="s">
+      <c r="I204" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K204" t="s">
@@ -9231,7 +9235,7 @@
       <c r="H205" t="s">
         <v>811</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I205" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K205" t="s">
@@ -9260,7 +9264,7 @@
       <c r="H206" t="s">
         <v>811</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I206" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K206" t="s">
@@ -9289,7 +9293,7 @@
       <c r="H207" t="s">
         <v>811</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I207" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K207" t="s">
@@ -9318,7 +9322,7 @@
       <c r="H208" t="s">
         <v>811</v>
       </c>
-      <c r="I208" t="s">
+      <c r="I208" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K208" t="s">
@@ -9347,7 +9351,7 @@
       <c r="H209" t="s">
         <v>811</v>
       </c>
-      <c r="I209" t="s">
+      <c r="I209" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K209" t="s">
@@ -9376,7 +9380,7 @@
       <c r="H210" t="s">
         <v>811</v>
       </c>
-      <c r="I210" t="s">
+      <c r="I210" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K210" t="s">
@@ -9405,7 +9409,7 @@
       <c r="H211" t="s">
         <v>811</v>
       </c>
-      <c r="I211" t="s">
+      <c r="I211" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K211" t="s">
@@ -9434,7 +9438,7 @@
       <c r="H212" t="s">
         <v>811</v>
       </c>
-      <c r="I212" t="s">
+      <c r="I212" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K212" t="s">
@@ -9463,7 +9467,7 @@
       <c r="H213" t="s">
         <v>811</v>
       </c>
-      <c r="I213" t="s">
+      <c r="I213" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K213" t="s">
@@ -9492,7 +9496,7 @@
       <c r="H214" t="s">
         <v>811</v>
       </c>
-      <c r="I214" t="s">
+      <c r="I214" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K214" t="s">
@@ -9521,7 +9525,7 @@
       <c r="H215" t="s">
         <v>811</v>
       </c>
-      <c r="I215" t="s">
+      <c r="I215" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K215" t="s">
@@ -9550,7 +9554,7 @@
       <c r="H216" t="s">
         <v>811</v>
       </c>
-      <c r="I216" t="s">
+      <c r="I216" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K216" t="s">
@@ -9579,7 +9583,7 @@
       <c r="H217" t="s">
         <v>811</v>
       </c>
-      <c r="I217" t="s">
+      <c r="I217" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K217" t="s">
@@ -9608,7 +9612,7 @@
       <c r="H218" t="s">
         <v>811</v>
       </c>
-      <c r="I218" t="s">
+      <c r="I218" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K218" t="s">
@@ -9637,7 +9641,7 @@
       <c r="H219" t="s">
         <v>811</v>
       </c>
-      <c r="I219" t="s">
+      <c r="I219" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K219" t="s">
@@ -9666,7 +9670,7 @@
       <c r="H220" t="s">
         <v>811</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I220" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K220" t="s">
@@ -9695,7 +9699,7 @@
       <c r="H221" t="s">
         <v>811</v>
       </c>
-      <c r="I221" t="s">
+      <c r="I221" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K221" t="s">
@@ -9724,7 +9728,7 @@
       <c r="H222" t="s">
         <v>811</v>
       </c>
-      <c r="I222" t="s">
+      <c r="I222" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K222" t="s">
@@ -9753,7 +9757,7 @@
       <c r="H223" t="s">
         <v>811</v>
       </c>
-      <c r="I223" t="s">
+      <c r="I223" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K223" t="s">
@@ -9782,7 +9786,7 @@
       <c r="H224" t="s">
         <v>811</v>
       </c>
-      <c r="I224" t="s">
+      <c r="I224" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K224" t="s">
@@ -9811,7 +9815,7 @@
       <c r="H225" t="s">
         <v>811</v>
       </c>
-      <c r="I225" t="s">
+      <c r="I225" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K225" t="s">
@@ -9840,7 +9844,7 @@
       <c r="H226" t="s">
         <v>811</v>
       </c>
-      <c r="I226" t="s">
+      <c r="I226" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K226" t="s">
@@ -9869,7 +9873,7 @@
       <c r="H227" t="s">
         <v>811</v>
       </c>
-      <c r="I227" t="s">
+      <c r="I227" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K227" t="s">
@@ -9898,7 +9902,7 @@
       <c r="H228" t="s">
         <v>811</v>
       </c>
-      <c r="I228" t="s">
+      <c r="I228" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K228" t="s">
@@ -9927,7 +9931,7 @@
       <c r="H229" t="s">
         <v>811</v>
       </c>
-      <c r="I229" t="s">
+      <c r="I229" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K229" t="s">
@@ -9956,7 +9960,7 @@
       <c r="H230" t="s">
         <v>811</v>
       </c>
-      <c r="I230" t="s">
+      <c r="I230" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K230" t="s">
@@ -9985,7 +9989,7 @@
       <c r="H231" t="s">
         <v>811</v>
       </c>
-      <c r="I231" t="s">
+      <c r="I231" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K231" t="s">
@@ -10014,7 +10018,7 @@
       <c r="H232" t="s">
         <v>811</v>
       </c>
-      <c r="I232" t="s">
+      <c r="I232" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K232" t="s">
@@ -10043,7 +10047,7 @@
       <c r="H233" t="s">
         <v>811</v>
       </c>
-      <c r="I233" t="s">
+      <c r="I233" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K233" t="s">
@@ -10072,7 +10076,7 @@
       <c r="H234" t="s">
         <v>811</v>
       </c>
-      <c r="I234" t="s">
+      <c r="I234" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K234" t="s">
@@ -10101,7 +10105,7 @@
       <c r="H235" t="s">
         <v>811</v>
       </c>
-      <c r="I235" t="s">
+      <c r="I235" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K235" t="s">
@@ -10130,7 +10134,7 @@
       <c r="H236" t="s">
         <v>811</v>
       </c>
-      <c r="I236" t="s">
+      <c r="I236" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K236" t="s">
@@ -10159,7 +10163,7 @@
       <c r="H237" t="s">
         <v>811</v>
       </c>
-      <c r="I237" t="s">
+      <c r="I237" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K237" t="s">
@@ -10188,7 +10192,7 @@
       <c r="H238" t="s">
         <v>811</v>
       </c>
-      <c r="I238" t="s">
+      <c r="I238" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K238" t="s">
@@ -10217,7 +10221,7 @@
       <c r="H239" t="s">
         <v>811</v>
       </c>
-      <c r="I239" t="s">
+      <c r="I239" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K239" t="s">
@@ -10246,7 +10250,7 @@
       <c r="H240" t="s">
         <v>811</v>
       </c>
-      <c r="I240" t="s">
+      <c r="I240" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K240" t="s">
@@ -10275,7 +10279,7 @@
       <c r="H241" t="s">
         <v>811</v>
       </c>
-      <c r="I241" t="s">
+      <c r="I241" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K241" t="s">
@@ -10304,7 +10308,7 @@
       <c r="H242" t="s">
         <v>811</v>
       </c>
-      <c r="I242" t="s">
+      <c r="I242" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K242" t="s">
@@ -10333,7 +10337,7 @@
       <c r="H243" t="s">
         <v>811</v>
       </c>
-      <c r="I243" t="s">
+      <c r="I243" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K243" t="s">
@@ -10362,7 +10366,7 @@
       <c r="H244" t="s">
         <v>811</v>
       </c>
-      <c r="I244" t="s">
+      <c r="I244" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K244" t="s">
@@ -10391,7 +10395,7 @@
       <c r="H245" t="s">
         <v>811</v>
       </c>
-      <c r="I245" t="s">
+      <c r="I245" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K245" t="s">
@@ -10420,7 +10424,7 @@
       <c r="H246" t="s">
         <v>811</v>
       </c>
-      <c r="I246" t="s">
+      <c r="I246" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K246" t="s">
@@ -10449,7 +10453,7 @@
       <c r="H247" t="s">
         <v>811</v>
       </c>
-      <c r="I247" t="s">
+      <c r="I247" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K247" t="s">
@@ -10478,7 +10482,7 @@
       <c r="H248" t="s">
         <v>811</v>
       </c>
-      <c r="I248" t="s">
+      <c r="I248" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K248" t="s">
@@ -10507,7 +10511,7 @@
       <c r="H249" t="s">
         <v>811</v>
       </c>
-      <c r="I249" t="s">
+      <c r="I249" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K249" t="s">
@@ -10536,7 +10540,7 @@
       <c r="H250" t="s">
         <v>811</v>
       </c>
-      <c r="I250" t="s">
+      <c r="I250" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K250" t="s">
@@ -10565,7 +10569,7 @@
       <c r="H251" t="s">
         <v>811</v>
       </c>
-      <c r="I251" t="s">
+      <c r="I251" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K251" t="s">
@@ -10594,7 +10598,7 @@
       <c r="H252" t="s">
         <v>811</v>
       </c>
-      <c r="I252" t="s">
+      <c r="I252" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K252" t="s">
@@ -10623,7 +10627,7 @@
       <c r="H253" t="s">
         <v>811</v>
       </c>
-      <c r="I253" t="s">
+      <c r="I253" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K253" t="s">
@@ -10652,7 +10656,7 @@
       <c r="H254" t="s">
         <v>811</v>
       </c>
-      <c r="I254" t="s">
+      <c r="I254" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K254" t="s">
@@ -10681,7 +10685,7 @@
       <c r="H255" t="s">
         <v>811</v>
       </c>
-      <c r="I255" t="s">
+      <c r="I255" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K255" t="s">
@@ -10710,7 +10714,7 @@
       <c r="H256" t="s">
         <v>811</v>
       </c>
-      <c r="I256" t="s">
+      <c r="I256" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K256" t="s">
@@ -10739,7 +10743,7 @@
       <c r="H257" t="s">
         <v>811</v>
       </c>
-      <c r="I257" t="s">
+      <c r="I257" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K257" t="s">
@@ -10768,7 +10772,7 @@
       <c r="H258" t="s">
         <v>811</v>
       </c>
-      <c r="I258" t="s">
+      <c r="I258" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K258" t="s">
@@ -10797,7 +10801,7 @@
       <c r="H259" t="s">
         <v>811</v>
       </c>
-      <c r="I259" t="s">
+      <c r="I259" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K259" t="s">
@@ -10826,7 +10830,7 @@
       <c r="H260" t="s">
         <v>811</v>
       </c>
-      <c r="I260" t="s">
+      <c r="I260" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K260" t="s">
@@ -10855,7 +10859,7 @@
       <c r="H261" t="s">
         <v>811</v>
       </c>
-      <c r="I261" t="s">
+      <c r="I261" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K261" t="s">
@@ -10884,7 +10888,7 @@
       <c r="H262" t="s">
         <v>811</v>
       </c>
-      <c r="I262" t="s">
+      <c r="I262" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K262" t="s">
@@ -10913,7 +10917,7 @@
       <c r="H263" t="s">
         <v>811</v>
       </c>
-      <c r="I263" t="s">
+      <c r="I263" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K263" t="s">
@@ -10942,7 +10946,7 @@
       <c r="H264" t="s">
         <v>811</v>
       </c>
-      <c r="I264" t="s">
+      <c r="I264" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K264" t="s">
@@ -10971,7 +10975,7 @@
       <c r="H265" t="s">
         <v>811</v>
       </c>
-      <c r="I265" t="s">
+      <c r="I265" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K265" t="s">
@@ -11000,7 +11004,7 @@
       <c r="H266" t="s">
         <v>811</v>
       </c>
-      <c r="I266" t="s">
+      <c r="I266" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K266" t="s">
@@ -11029,7 +11033,7 @@
       <c r="H267" t="s">
         <v>811</v>
       </c>
-      <c r="I267" t="s">
+      <c r="I267" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K267" t="s">
@@ -11058,7 +11062,7 @@
       <c r="H268" t="s">
         <v>811</v>
       </c>
-      <c r="I268" t="s">
+      <c r="I268" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K268" t="s">
@@ -11087,7 +11091,7 @@
       <c r="H269" t="s">
         <v>811</v>
       </c>
-      <c r="I269" t="s">
+      <c r="I269" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K269" t="s">
@@ -11116,7 +11120,7 @@
       <c r="H270" t="s">
         <v>811</v>
       </c>
-      <c r="I270" t="s">
+      <c r="I270" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K270" t="s">
@@ -11145,7 +11149,7 @@
       <c r="H271" t="s">
         <v>811</v>
       </c>
-      <c r="I271" t="s">
+      <c r="I271" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K271" t="s">
@@ -11174,7 +11178,7 @@
       <c r="H272" t="s">
         <v>811</v>
       </c>
-      <c r="I272" t="s">
+      <c r="I272" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K272" t="s">
@@ -11203,7 +11207,7 @@
       <c r="H273" t="s">
         <v>811</v>
       </c>
-      <c r="I273" t="s">
+      <c r="I273" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K273" t="s">
@@ -11232,7 +11236,7 @@
       <c r="H274" t="s">
         <v>811</v>
       </c>
-      <c r="I274" t="s">
+      <c r="I274" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K274" t="s">
@@ -11261,7 +11265,7 @@
       <c r="H275" t="s">
         <v>811</v>
       </c>
-      <c r="I275" t="s">
+      <c r="I275" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K275" t="s">
@@ -11290,7 +11294,7 @@
       <c r="H276" t="s">
         <v>811</v>
       </c>
-      <c r="I276" t="s">
+      <c r="I276" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K276" t="s">
@@ -11319,7 +11323,7 @@
       <c r="H277" t="s">
         <v>811</v>
       </c>
-      <c r="I277" t="s">
+      <c r="I277" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K277" t="s">
@@ -11348,7 +11352,7 @@
       <c r="H278" t="s">
         <v>811</v>
       </c>
-      <c r="I278" t="s">
+      <c r="I278" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K278" t="s">
@@ -11377,7 +11381,7 @@
       <c r="H279" t="s">
         <v>811</v>
       </c>
-      <c r="I279" t="s">
+      <c r="I279" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K279" t="s">
@@ -11406,7 +11410,7 @@
       <c r="H280" t="s">
         <v>811</v>
       </c>
-      <c r="I280" t="s">
+      <c r="I280" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K280" t="s">
@@ -11435,7 +11439,7 @@
       <c r="H281" t="s">
         <v>811</v>
       </c>
-      <c r="I281" t="s">
+      <c r="I281" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K281" t="s">
@@ -11464,7 +11468,7 @@
       <c r="H282" t="s">
         <v>811</v>
       </c>
-      <c r="I282" t="s">
+      <c r="I282" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K282" t="s">
@@ -11493,7 +11497,7 @@
       <c r="H283" t="s">
         <v>811</v>
       </c>
-      <c r="I283" t="s">
+      <c r="I283" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K283" t="s">
@@ -11522,7 +11526,7 @@
       <c r="H284" t="s">
         <v>811</v>
       </c>
-      <c r="I284" t="s">
+      <c r="I284" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K284" t="s">
@@ -11551,7 +11555,7 @@
       <c r="H285" t="s">
         <v>811</v>
       </c>
-      <c r="I285" t="s">
+      <c r="I285" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K285" t="s">
@@ -11580,7 +11584,7 @@
       <c r="H286" t="s">
         <v>811</v>
       </c>
-      <c r="I286" t="s">
+      <c r="I286" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K286" t="s">
@@ -11609,7 +11613,7 @@
       <c r="H287" t="s">
         <v>811</v>
       </c>
-      <c r="I287" t="s">
+      <c r="I287" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K287" t="s">
@@ -11638,7 +11642,7 @@
       <c r="H288" t="s">
         <v>811</v>
       </c>
-      <c r="I288" t="s">
+      <c r="I288" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K288" t="s">
@@ -11667,7 +11671,7 @@
       <c r="H289" t="s">
         <v>811</v>
       </c>
-      <c r="I289" t="s">
+      <c r="I289" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K289" t="s">
@@ -11696,7 +11700,7 @@
       <c r="H290" t="s">
         <v>811</v>
       </c>
-      <c r="I290" t="s">
+      <c r="I290" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K290" t="s">
@@ -11725,7 +11729,7 @@
       <c r="H291" t="s">
         <v>811</v>
       </c>
-      <c r="I291" t="s">
+      <c r="I291" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K291" t="s">
@@ -11754,7 +11758,7 @@
       <c r="H292" t="s">
         <v>811</v>
       </c>
-      <c r="I292" t="s">
+      <c r="I292" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K292" t="s">
@@ -11783,7 +11787,7 @@
       <c r="H293" t="s">
         <v>811</v>
       </c>
-      <c r="I293" t="s">
+      <c r="I293" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K293" t="s">
@@ -11812,7 +11816,7 @@
       <c r="H294" t="s">
         <v>811</v>
       </c>
-      <c r="I294" t="s">
+      <c r="I294" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K294" t="s">
@@ -11841,7 +11845,7 @@
       <c r="H295" t="s">
         <v>811</v>
       </c>
-      <c r="I295" t="s">
+      <c r="I295" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K295" t="s">
@@ -11870,7 +11874,7 @@
       <c r="H296" t="s">
         <v>811</v>
       </c>
-      <c r="I296" t="s">
+      <c r="I296" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K296" t="s">
@@ -11899,7 +11903,7 @@
       <c r="H297" t="s">
         <v>811</v>
       </c>
-      <c r="I297" t="s">
+      <c r="I297" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K297" t="s">
@@ -11928,7 +11932,7 @@
       <c r="H298" t="s">
         <v>811</v>
       </c>
-      <c r="I298" t="s">
+      <c r="I298" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K298" t="s">
@@ -11957,7 +11961,7 @@
       <c r="H299" t="s">
         <v>811</v>
       </c>
-      <c r="I299" t="s">
+      <c r="I299" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K299" t="s">
@@ -11986,7 +11990,7 @@
       <c r="H300" t="s">
         <v>811</v>
       </c>
-      <c r="I300" t="s">
+      <c r="I300" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K300" t="s">
@@ -12015,7 +12019,7 @@
       <c r="H301" t="s">
         <v>811</v>
       </c>
-      <c r="I301" t="s">
+      <c r="I301" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K301" t="s">
@@ -12044,7 +12048,7 @@
       <c r="H302" t="s">
         <v>811</v>
       </c>
-      <c r="I302" t="s">
+      <c r="I302" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K302" t="s">
@@ -12073,7 +12077,7 @@
       <c r="H303" t="s">
         <v>811</v>
       </c>
-      <c r="I303" t="s">
+      <c r="I303" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K303" t="s">
@@ -12102,7 +12106,7 @@
       <c r="H304" t="s">
         <v>811</v>
       </c>
-      <c r="I304" t="s">
+      <c r="I304" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K304" t="s">
@@ -12131,7 +12135,7 @@
       <c r="H305" t="s">
         <v>811</v>
       </c>
-      <c r="I305" t="s">
+      <c r="I305" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K305" t="s">
@@ -12160,7 +12164,7 @@
       <c r="H306" t="s">
         <v>811</v>
       </c>
-      <c r="I306" t="s">
+      <c r="I306" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K306" t="s">
@@ -12189,7 +12193,7 @@
       <c r="H307" t="s">
         <v>811</v>
       </c>
-      <c r="I307" t="s">
+      <c r="I307" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K307" t="s">
@@ -12218,7 +12222,7 @@
       <c r="H308" t="s">
         <v>811</v>
       </c>
-      <c r="I308" t="s">
+      <c r="I308" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K308" t="s">
@@ -12247,7 +12251,7 @@
       <c r="H309" t="s">
         <v>811</v>
       </c>
-      <c r="I309" t="s">
+      <c r="I309" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K309" t="s">
@@ -12276,7 +12280,7 @@
       <c r="H310" t="s">
         <v>811</v>
       </c>
-      <c r="I310" t="s">
+      <c r="I310" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K310" t="s">
@@ -12305,7 +12309,7 @@
       <c r="H311" t="s">
         <v>811</v>
       </c>
-      <c r="I311" t="s">
+      <c r="I311" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K311" t="s">
@@ -12334,7 +12338,7 @@
       <c r="H312" t="s">
         <v>811</v>
       </c>
-      <c r="I312" t="s">
+      <c r="I312" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K312" t="s">
@@ -12363,7 +12367,7 @@
       <c r="H313" t="s">
         <v>811</v>
       </c>
-      <c r="I313" t="s">
+      <c r="I313" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K313" t="s">
@@ -12392,7 +12396,7 @@
       <c r="H314" t="s">
         <v>811</v>
       </c>
-      <c r="I314" t="s">
+      <c r="I314" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K314" t="s">
@@ -12421,8 +12425,8 @@
       <c r="H315" t="s">
         <v>811</v>
       </c>
-      <c r="I315" t="s">
-        <v>845</v>
+      <c r="I315" s="1" t="s">
+        <v>844</v>
       </c>
       <c r="K315" t="s">
         <v>811</v>
@@ -12450,7 +12454,7 @@
       <c r="H316" t="s">
         <v>811</v>
       </c>
-      <c r="I316" t="s">
+      <c r="I316" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K316" t="s">
@@ -12479,7 +12483,7 @@
       <c r="H317" t="s">
         <v>811</v>
       </c>
-      <c r="I317" t="s">
+      <c r="I317" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K317" t="s">
@@ -12508,7 +12512,7 @@
       <c r="H318" t="s">
         <v>811</v>
       </c>
-      <c r="I318" t="s">
+      <c r="I318" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K318" t="s">
@@ -12537,7 +12541,7 @@
       <c r="H319" t="s">
         <v>811</v>
       </c>
-      <c r="I319" t="s">
+      <c r="I319" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K319" t="s">
@@ -12566,7 +12570,7 @@
       <c r="H320" t="s">
         <v>811</v>
       </c>
-      <c r="I320" t="s">
+      <c r="I320" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K320" t="s">
@@ -12595,7 +12599,7 @@
       <c r="H321" t="s">
         <v>811</v>
       </c>
-      <c r="I321" t="s">
+      <c r="I321" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K321" t="s">
@@ -12624,7 +12628,7 @@
       <c r="H322" t="s">
         <v>811</v>
       </c>
-      <c r="I322" t="s">
+      <c r="I322" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K322" t="s">
@@ -12653,7 +12657,7 @@
       <c r="H323" t="s">
         <v>832</v>
       </c>
-      <c r="I323" t="s">
+      <c r="I323" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K323" t="s">
@@ -12682,7 +12686,7 @@
       <c r="H324" t="s">
         <v>832</v>
       </c>
-      <c r="I324" t="s">
+      <c r="I324" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K324" t="s">
@@ -12711,7 +12715,7 @@
       <c r="H325" t="s">
         <v>832</v>
       </c>
-      <c r="I325" t="s">
+      <c r="I325" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K325" t="s">
@@ -12740,7 +12744,7 @@
       <c r="H326" t="s">
         <v>832</v>
       </c>
-      <c r="I326" t="s">
+      <c r="I326" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K326" t="s">
@@ -12769,7 +12773,7 @@
       <c r="H327" t="s">
         <v>832</v>
       </c>
-      <c r="I327" t="s">
+      <c r="I327" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K327" t="s">
@@ -12798,7 +12802,7 @@
       <c r="H328" t="s">
         <v>832</v>
       </c>
-      <c r="I328" t="s">
+      <c r="I328" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K328" t="s">
@@ -12827,7 +12831,7 @@
       <c r="H329" t="s">
         <v>832</v>
       </c>
-      <c r="I329" t="s">
+      <c r="I329" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K329" t="s">
@@ -12856,7 +12860,7 @@
       <c r="H330" t="s">
         <v>832</v>
       </c>
-      <c r="I330" t="s">
+      <c r="I330" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K330" t="s">
@@ -12885,7 +12889,7 @@
       <c r="H331" t="s">
         <v>832</v>
       </c>
-      <c r="I331" t="s">
+      <c r="I331" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K331" t="s">
@@ -12914,7 +12918,7 @@
       <c r="H332" t="s">
         <v>832</v>
       </c>
-      <c r="I332" t="s">
+      <c r="I332" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K332" t="s">
@@ -12943,7 +12947,7 @@
       <c r="H333" t="s">
         <v>832</v>
       </c>
-      <c r="I333" t="s">
+      <c r="I333" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K333" t="s">
@@ -12972,7 +12976,7 @@
       <c r="H334" t="s">
         <v>832</v>
       </c>
-      <c r="I334" t="s">
+      <c r="I334" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K334" t="s">
@@ -13001,7 +13005,7 @@
       <c r="H335" t="s">
         <v>832</v>
       </c>
-      <c r="I335" t="s">
+      <c r="I335" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K335" t="s">
@@ -13030,7 +13034,7 @@
       <c r="H336" t="s">
         <v>832</v>
       </c>
-      <c r="I336" t="s">
+      <c r="I336" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K336" t="s">
@@ -13059,7 +13063,7 @@
       <c r="H337" t="s">
         <v>832</v>
       </c>
-      <c r="I337" t="s">
+      <c r="I337" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K337" t="s">
@@ -13088,7 +13092,7 @@
       <c r="H338" t="s">
         <v>832</v>
       </c>
-      <c r="I338" t="s">
+      <c r="I338" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K338" t="s">
@@ -13117,7 +13121,7 @@
       <c r="H339" t="s">
         <v>832</v>
       </c>
-      <c r="I339" t="s">
+      <c r="I339" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K339" t="s">
@@ -13146,7 +13150,7 @@
       <c r="H340" t="s">
         <v>832</v>
       </c>
-      <c r="I340" t="s">
+      <c r="I340" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K340" t="s">
@@ -13175,7 +13179,7 @@
       <c r="H341" t="s">
         <v>832</v>
       </c>
-      <c r="I341" t="s">
+      <c r="I341" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K341" t="s">
@@ -13204,7 +13208,7 @@
       <c r="H342" t="s">
         <v>832</v>
       </c>
-      <c r="I342" t="s">
+      <c r="I342" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K342" t="s">
@@ -13233,11 +13237,11 @@
       <c r="H343" t="s">
         <v>832</v>
       </c>
-      <c r="I343" t="s">
+      <c r="I343" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K343" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L343" t="s">
         <v>832</v>
@@ -13262,8 +13266,8 @@
       <c r="H344" t="s">
         <v>832</v>
       </c>
-      <c r="I344" t="s">
-        <v>841</v>
+      <c r="I344" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K344" t="s">
         <v>811</v>
@@ -13291,11 +13295,11 @@
       <c r="H345" t="s">
         <v>832</v>
       </c>
-      <c r="I345" t="s">
-        <v>842</v>
+      <c r="I345" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K345" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="L345" t="s">
         <v>832</v>
@@ -13320,7 +13324,7 @@
       <c r="H346" t="s">
         <v>832</v>
       </c>
-      <c r="I346" t="s">
+      <c r="I346" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K346" t="s">
@@ -13349,7 +13353,7 @@
       <c r="H347" t="s">
         <v>832</v>
       </c>
-      <c r="I347" t="s">
+      <c r="I347" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K347" t="s">
@@ -13378,7 +13382,7 @@
       <c r="H348" t="s">
         <v>832</v>
       </c>
-      <c r="I348" t="s">
+      <c r="I348" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K348" t="s">
@@ -13407,11 +13411,11 @@
       <c r="H349" t="s">
         <v>832</v>
       </c>
-      <c r="I349" t="s">
+      <c r="I349" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K349" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L349" t="s">
         <v>832</v>
@@ -13436,8 +13440,8 @@
       <c r="H350" t="s">
         <v>832</v>
       </c>
-      <c r="I350" t="s">
-        <v>841</v>
+      <c r="I350" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K350" t="s">
         <v>811</v>
@@ -13465,11 +13469,11 @@
       <c r="H351" t="s">
         <v>832</v>
       </c>
-      <c r="I351" t="s">
-        <v>842</v>
+      <c r="I351" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K351" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L351" t="s">
         <v>832</v>
@@ -13494,7 +13498,7 @@
       <c r="H352" t="s">
         <v>832</v>
       </c>
-      <c r="I352" t="s">
+      <c r="I352" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K352" t="s">
@@ -13523,7 +13527,7 @@
       <c r="H353" t="s">
         <v>832</v>
       </c>
-      <c r="I353" t="s">
+      <c r="I353" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K353" t="s">
@@ -13552,7 +13556,7 @@
       <c r="H354" t="s">
         <v>832</v>
       </c>
-      <c r="I354" t="s">
+      <c r="I354" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K354" t="s">
@@ -13581,11 +13585,11 @@
       <c r="H355" t="s">
         <v>832</v>
       </c>
-      <c r="I355" t="s">
+      <c r="I355" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K355" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L355" t="s">
         <v>832</v>
@@ -13610,8 +13614,8 @@
       <c r="H356" t="s">
         <v>832</v>
       </c>
-      <c r="I356" t="s">
-        <v>841</v>
+      <c r="I356" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K356" t="s">
         <v>811</v>
@@ -13639,11 +13643,11 @@
       <c r="H357" t="s">
         <v>832</v>
       </c>
-      <c r="I357" t="s">
-        <v>842</v>
+      <c r="I357" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K357" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L357" t="s">
         <v>832</v>
@@ -13668,7 +13672,7 @@
       <c r="H358" t="s">
         <v>832</v>
       </c>
-      <c r="I358" t="s">
+      <c r="I358" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K358" t="s">
@@ -13697,7 +13701,7 @@
       <c r="H359" t="s">
         <v>832</v>
       </c>
-      <c r="I359" t="s">
+      <c r="I359" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K359" t="s">
@@ -13726,7 +13730,7 @@
       <c r="H360" t="s">
         <v>832</v>
       </c>
-      <c r="I360" t="s">
+      <c r="I360" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K360" t="s">
@@ -13755,7 +13759,7 @@
       <c r="H361" t="s">
         <v>832</v>
       </c>
-      <c r="I361" t="s">
+      <c r="I361" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K361" t="s">
@@ -13784,7 +13788,7 @@
       <c r="H362" t="s">
         <v>832</v>
       </c>
-      <c r="I362" t="s">
+      <c r="I362" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K362" t="s">
@@ -13813,7 +13817,7 @@
       <c r="H363" t="s">
         <v>832</v>
       </c>
-      <c r="I363" t="s">
+      <c r="I363" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K363" t="s">
@@ -13842,7 +13846,7 @@
       <c r="H364" t="s">
         <v>832</v>
       </c>
-      <c r="I364" t="s">
+      <c r="I364" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K364" t="s">
@@ -13871,7 +13875,7 @@
       <c r="H365" t="s">
         <v>832</v>
       </c>
-      <c r="I365" t="s">
+      <c r="I365" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K365" t="s">
@@ -13900,7 +13904,7 @@
       <c r="H366" t="s">
         <v>832</v>
       </c>
-      <c r="I366" t="s">
+      <c r="I366" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K366" t="s">
@@ -13929,7 +13933,7 @@
       <c r="H367" t="s">
         <v>832</v>
       </c>
-      <c r="I367" t="s">
+      <c r="I367" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K367" t="s">
@@ -13958,7 +13962,7 @@
       <c r="H368" t="s">
         <v>832</v>
       </c>
-      <c r="I368" t="s">
+      <c r="I368" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K368" t="s">
@@ -13987,7 +13991,7 @@
       <c r="H369" t="s">
         <v>832</v>
       </c>
-      <c r="I369" t="s">
+      <c r="I369" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K369" t="s">
@@ -14016,7 +14020,7 @@
       <c r="H370" t="s">
         <v>832</v>
       </c>
-      <c r="I370" t="s">
+      <c r="I370" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K370" t="s">
@@ -14045,7 +14049,7 @@
       <c r="H371" t="s">
         <v>832</v>
       </c>
-      <c r="I371" t="s">
+      <c r="I371" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K371" t="s">
@@ -14074,7 +14078,7 @@
       <c r="H372" t="s">
         <v>832</v>
       </c>
-      <c r="I372" t="s">
+      <c r="I372" s="1" t="s">
         <v>834</v>
       </c>
       <c r="K372" t="s">
@@ -14103,7 +14107,7 @@
       <c r="H373" t="s">
         <v>832</v>
       </c>
-      <c r="I373" t="s">
+      <c r="I373" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K373" t="s">
@@ -14132,7 +14136,7 @@
       <c r="H374" t="s">
         <v>832</v>
       </c>
-      <c r="I374" t="s">
+      <c r="I374" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K374" t="s">
@@ -14161,7 +14165,7 @@
       <c r="H375" t="s">
         <v>832</v>
       </c>
-      <c r="I375" t="s">
+      <c r="I375" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K375" t="s">
@@ -14190,7 +14194,7 @@
       <c r="H376" t="s">
         <v>832</v>
       </c>
-      <c r="I376" t="s">
+      <c r="I376" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K376" t="s">
@@ -14219,7 +14223,7 @@
       <c r="H377" t="s">
         <v>832</v>
       </c>
-      <c r="I377" t="s">
+      <c r="I377" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K377" t="s">
@@ -14248,11 +14252,11 @@
       <c r="H378" t="s">
         <v>832</v>
       </c>
-      <c r="I378" t="s">
+      <c r="I378" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K378" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="L378" t="s">
         <v>832</v>
@@ -14277,8 +14281,8 @@
       <c r="H379" t="s">
         <v>832</v>
       </c>
-      <c r="I379" t="s">
-        <v>841</v>
+      <c r="I379" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K379" t="s">
         <v>811</v>
@@ -14306,11 +14310,11 @@
       <c r="H380" t="s">
         <v>832</v>
       </c>
-      <c r="I380" t="s">
-        <v>842</v>
+      <c r="I380" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K380" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L380" t="s">
         <v>832</v>
@@ -14335,7 +14339,7 @@
       <c r="H381" t="s">
         <v>832</v>
       </c>
-      <c r="I381" t="s">
+      <c r="I381" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K381" t="s">
@@ -14364,7 +14368,7 @@
       <c r="H382" t="s">
         <v>832</v>
       </c>
-      <c r="I382" t="s">
+      <c r="I382" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K382" t="s">
@@ -14393,7 +14397,7 @@
       <c r="H383" t="s">
         <v>832</v>
       </c>
-      <c r="I383" t="s">
+      <c r="I383" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K383" t="s">
@@ -14422,11 +14426,11 @@
       <c r="H384" t="s">
         <v>832</v>
       </c>
-      <c r="I384" t="s">
+      <c r="I384" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K384" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L384" t="s">
         <v>832</v>
@@ -14451,8 +14455,8 @@
       <c r="H385" t="s">
         <v>832</v>
       </c>
-      <c r="I385" t="s">
-        <v>841</v>
+      <c r="I385" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K385" t="s">
         <v>811</v>
@@ -14480,11 +14484,11 @@
       <c r="H386" t="s">
         <v>832</v>
       </c>
-      <c r="I386" t="s">
-        <v>842</v>
+      <c r="I386" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K386" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L386" t="s">
         <v>832</v>
@@ -14509,7 +14513,7 @@
       <c r="H387" t="s">
         <v>832</v>
       </c>
-      <c r="I387" t="s">
+      <c r="I387" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K387" t="s">
@@ -14538,7 +14542,7 @@
       <c r="H388" t="s">
         <v>832</v>
       </c>
-      <c r="I388" t="s">
+      <c r="I388" s="1" t="s">
         <v>838</v>
       </c>
       <c r="K388" t="s">
@@ -14567,7 +14571,7 @@
       <c r="H389" t="s">
         <v>832</v>
       </c>
-      <c r="I389" t="s">
+      <c r="I389" s="1" t="s">
         <v>839</v>
       </c>
       <c r="K389" t="s">
@@ -14596,11 +14600,11 @@
       <c r="H390" t="s">
         <v>832</v>
       </c>
-      <c r="I390" t="s">
+      <c r="I390" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K390" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L390" t="s">
         <v>832</v>
@@ -14625,8 +14629,8 @@
       <c r="H391" t="s">
         <v>832</v>
       </c>
-      <c r="I391" t="s">
-        <v>841</v>
+      <c r="I391" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="K391" t="s">
         <v>811</v>
@@ -14654,11 +14658,11 @@
       <c r="H392" t="s">
         <v>832</v>
       </c>
-      <c r="I392" t="s">
-        <v>842</v>
+      <c r="I392" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="K392" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L392" t="s">
         <v>832</v>
@@ -14683,7 +14687,7 @@
       <c r="H393" t="s">
         <v>832</v>
       </c>
-      <c r="I393" t="s">
+      <c r="I393" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K393" t="s">
@@ -14712,7 +14716,7 @@
       <c r="H394" t="s">
         <v>832</v>
       </c>
-      <c r="I394" t="s">
+      <c r="I394" s="1" t="s">
         <v>833</v>
       </c>
       <c r="K394" t="s">
@@ -14741,7 +14745,7 @@
       <c r="H395" t="s">
         <v>832</v>
       </c>
-      <c r="I395" t="s">
+      <c r="I395" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K395" t="s">
@@ -14770,7 +14774,7 @@
       <c r="H396" t="s">
         <v>832</v>
       </c>
-      <c r="I396" t="s">
+      <c r="I396" s="1" t="s">
         <v>837</v>
       </c>
       <c r="K396" t="s">
@@ -14799,7 +14803,7 @@
       <c r="H397" t="s">
         <v>832</v>
       </c>
-      <c r="I397" t="s">
+      <c r="I397" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K397" t="s">
@@ -14828,7 +14832,7 @@
       <c r="H398" t="s">
         <v>832</v>
       </c>
-      <c r="I398" t="s">
+      <c r="I398" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K398" t="s">
@@ -14857,7 +14861,7 @@
       <c r="H399" t="s">
         <v>832</v>
       </c>
-      <c r="I399" t="s">
+      <c r="I399" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K399" t="s">
@@ -14886,7 +14890,7 @@
       <c r="H400" t="s">
         <v>832</v>
       </c>
-      <c r="I400" t="s">
+      <c r="I400" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K400" t="s">
@@ -14915,7 +14919,7 @@
       <c r="H401" t="s">
         <v>832</v>
       </c>
-      <c r="I401" t="s">
+      <c r="I401" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K401" t="s">
@@ -14944,7 +14948,7 @@
       <c r="H402" t="s">
         <v>832</v>
       </c>
-      <c r="I402" t="s">
+      <c r="I402" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K402" t="s">
@@ -14973,7 +14977,7 @@
       <c r="H403" t="s">
         <v>832</v>
       </c>
-      <c r="I403" t="s">
+      <c r="I403" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K403" t="s">
@@ -15002,7 +15006,7 @@
       <c r="H404" t="s">
         <v>832</v>
       </c>
-      <c r="I404" t="s">
+      <c r="I404" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K404" t="s">
@@ -15031,7 +15035,7 @@
       <c r="H405" t="s">
         <v>832</v>
       </c>
-      <c r="I405" t="s">
+      <c r="I405" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K405" t="s">
@@ -15060,7 +15064,7 @@
       <c r="H406" t="s">
         <v>832</v>
       </c>
-      <c r="I406" t="s">
+      <c r="I406" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K406" t="s">
@@ -15089,7 +15093,7 @@
       <c r="H407" t="s">
         <v>832</v>
       </c>
-      <c r="I407" t="s">
+      <c r="I407" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K407" t="s">
@@ -15118,7 +15122,7 @@
       <c r="H408" t="s">
         <v>832</v>
       </c>
-      <c r="I408" t="s">
+      <c r="I408" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K408" t="s">
@@ -15147,7 +15151,7 @@
       <c r="H409" t="s">
         <v>832</v>
       </c>
-      <c r="I409" t="s">
+      <c r="I409" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K409" t="s">
@@ -15176,7 +15180,7 @@
       <c r="H410" t="s">
         <v>832</v>
       </c>
-      <c r="I410" t="s">
+      <c r="I410" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K410" t="s">
@@ -15205,8 +15209,8 @@
       <c r="H411" t="s">
         <v>832</v>
       </c>
-      <c r="I411" t="s">
-        <v>846</v>
+      <c r="I411" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="K411" t="s">
         <v>811</v>
@@ -15234,7 +15238,7 @@
       <c r="H412" t="s">
         <v>832</v>
       </c>
-      <c r="I412" t="s">
+      <c r="I412" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K412" t="s">
@@ -15263,7 +15267,7 @@
       <c r="H413" t="s">
         <v>832</v>
       </c>
-      <c r="I413" t="s">
+      <c r="I413" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K413" t="s">
@@ -15292,7 +15296,7 @@
       <c r="H414" t="s">
         <v>832</v>
       </c>
-      <c r="I414" t="s">
+      <c r="I414" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K414" t="s">
@@ -15321,7 +15325,7 @@
       <c r="H415" t="s">
         <v>832</v>
       </c>
-      <c r="I415" t="s">
+      <c r="I415" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K415" t="s">
@@ -15350,7 +15354,7 @@
       <c r="H416" t="s">
         <v>832</v>
       </c>
-      <c r="I416" t="s">
+      <c r="I416" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K416" t="s">
@@ -15379,7 +15383,7 @@
       <c r="H417" t="s">
         <v>832</v>
       </c>
-      <c r="I417" t="s">
+      <c r="I417" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K417" t="s">
@@ -15408,7 +15412,7 @@
       <c r="H418" t="s">
         <v>832</v>
       </c>
-      <c r="I418" t="s">
+      <c r="I418" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K418" t="s">
@@ -15437,7 +15441,7 @@
       <c r="H419" t="s">
         <v>832</v>
       </c>
-      <c r="I419" t="s">
+      <c r="I419" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K419" t="s">
@@ -15466,7 +15470,7 @@
       <c r="H420" t="s">
         <v>811</v>
       </c>
-      <c r="I420" t="s">
+      <c r="I420" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K420" t="s">
@@ -15495,7 +15499,7 @@
       <c r="H421" t="s">
         <v>832</v>
       </c>
-      <c r="I421" t="s">
+      <c r="I421" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K421" t="s">
@@ -15524,7 +15528,7 @@
       <c r="H422" t="s">
         <v>832</v>
       </c>
-      <c r="I422" t="s">
+      <c r="I422" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K422" t="s">
@@ -15553,7 +15557,7 @@
       <c r="H423" t="s">
         <v>832</v>
       </c>
-      <c r="I423" t="s">
+      <c r="I423" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K423" t="s">
@@ -15582,7 +15586,7 @@
       <c r="H424" t="s">
         <v>832</v>
       </c>
-      <c r="I424" t="s">
+      <c r="I424" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K424" t="s">
@@ -15611,7 +15615,7 @@
       <c r="H425" t="s">
         <v>832</v>
       </c>
-      <c r="I425" t="s">
+      <c r="I425" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K425" t="s">
@@ -15640,7 +15644,7 @@
       <c r="H426" t="s">
         <v>832</v>
       </c>
-      <c r="I426" t="s">
+      <c r="I426" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K426" t="s">
@@ -15669,7 +15673,7 @@
       <c r="H427" t="s">
         <v>832</v>
       </c>
-      <c r="I427" t="s">
+      <c r="I427" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K427" t="s">
@@ -15698,7 +15702,7 @@
       <c r="H428" t="s">
         <v>832</v>
       </c>
-      <c r="I428" t="s">
+      <c r="I428" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K428" t="s">
@@ -15727,7 +15731,7 @@
       <c r="H429" t="s">
         <v>832</v>
       </c>
-      <c r="I429" t="s">
+      <c r="I429" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K429" t="s">
@@ -15756,7 +15760,7 @@
       <c r="H430" t="s">
         <v>832</v>
       </c>
-      <c r="I430" t="s">
+      <c r="I430" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K430" t="s">
@@ -15785,7 +15789,7 @@
       <c r="H431" t="s">
         <v>832</v>
       </c>
-      <c r="I431" t="s">
+      <c r="I431" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K431" t="s">
@@ -15814,7 +15818,7 @@
       <c r="H432" t="s">
         <v>832</v>
       </c>
-      <c r="I432" t="s">
+      <c r="I432" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K432" t="s">
@@ -15843,7 +15847,7 @@
       <c r="H433" t="s">
         <v>832</v>
       </c>
-      <c r="I433" t="s">
+      <c r="I433" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K433" t="s">
@@ -15872,7 +15876,7 @@
       <c r="H434" t="s">
         <v>832</v>
       </c>
-      <c r="I434" t="s">
+      <c r="I434" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K434" t="s">
@@ -15901,7 +15905,7 @@
       <c r="H435" t="s">
         <v>832</v>
       </c>
-      <c r="I435" t="s">
+      <c r="I435" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K435" t="s">
@@ -15930,7 +15934,7 @@
       <c r="H436" t="s">
         <v>811</v>
       </c>
-      <c r="I436" t="s">
+      <c r="I436" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K436" t="s">
@@ -15959,7 +15963,7 @@
       <c r="H437" t="s">
         <v>811</v>
       </c>
-      <c r="I437" t="s">
+      <c r="I437" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K437" t="s">
@@ -15969,7 +15973,7 @@
         <v>811</v>
       </c>
       <c r="M437" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.2">
@@ -15988,7 +15992,7 @@
       <c r="H438" t="s">
         <v>811</v>
       </c>
-      <c r="I438" t="s">
+      <c r="I438" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K438" t="s">
@@ -15998,7 +16002,7 @@
         <v>811</v>
       </c>
       <c r="M438" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.2">
@@ -16017,7 +16021,7 @@
       <c r="H439" t="s">
         <v>811</v>
       </c>
-      <c r="I439" t="s">
+      <c r="I439" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K439" t="s">
@@ -16046,7 +16050,7 @@
       <c r="H440" t="s">
         <v>811</v>
       </c>
-      <c r="I440" t="s">
+      <c r="I440" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K440" t="s">
@@ -16075,7 +16079,7 @@
       <c r="H441" t="s">
         <v>832</v>
       </c>
-      <c r="I441" t="s">
+      <c r="I441" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K441" t="s">
@@ -16104,7 +16108,7 @@
       <c r="H442" t="s">
         <v>832</v>
       </c>
-      <c r="I442" t="s">
+      <c r="I442" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K442" t="s">
@@ -16133,7 +16137,7 @@
       <c r="H443" t="s">
         <v>832</v>
       </c>
-      <c r="I443" t="s">
+      <c r="I443" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K443" t="s">
@@ -16162,7 +16166,7 @@
       <c r="H444" t="s">
         <v>832</v>
       </c>
-      <c r="I444" t="s">
+      <c r="I444" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K444" t="s">
@@ -16191,7 +16195,7 @@
       <c r="H445" t="s">
         <v>832</v>
       </c>
-      <c r="I445" t="s">
+      <c r="I445" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K445" t="s">
@@ -16220,7 +16224,7 @@
       <c r="H446" t="s">
         <v>832</v>
       </c>
-      <c r="I446" t="s">
+      <c r="I446" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K446" t="s">
@@ -16249,7 +16253,7 @@
       <c r="H447" t="s">
         <v>832</v>
       </c>
-      <c r="I447" t="s">
+      <c r="I447" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K447" t="s">
@@ -16278,7 +16282,7 @@
       <c r="H448" t="s">
         <v>832</v>
       </c>
-      <c r="I448" t="s">
+      <c r="I448" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K448" t="s">
@@ -16307,7 +16311,7 @@
       <c r="H449" t="s">
         <v>832</v>
       </c>
-      <c r="I449" t="s">
+      <c r="I449" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K449" t="s">
@@ -16336,7 +16340,7 @@
       <c r="H450" t="s">
         <v>832</v>
       </c>
-      <c r="I450" t="s">
+      <c r="I450" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K450" t="s">
@@ -16365,7 +16369,7 @@
       <c r="H451" t="s">
         <v>832</v>
       </c>
-      <c r="I451" t="s">
+      <c r="I451" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K451" t="s">
@@ -16394,7 +16398,7 @@
       <c r="H452" t="s">
         <v>832</v>
       </c>
-      <c r="I452" t="s">
+      <c r="I452" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K452" t="s">
@@ -16423,7 +16427,7 @@
       <c r="H453" t="s">
         <v>832</v>
       </c>
-      <c r="I453" t="s">
+      <c r="I453" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K453" t="s">
@@ -16452,7 +16456,7 @@
       <c r="H454" t="s">
         <v>832</v>
       </c>
-      <c r="I454" t="s">
+      <c r="I454" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K454" t="s">
@@ -16481,7 +16485,7 @@
       <c r="H455" t="s">
         <v>832</v>
       </c>
-      <c r="I455" t="s">
+      <c r="I455" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K455" t="s">
@@ -16510,8 +16514,8 @@
       <c r="H456" t="s">
         <v>832</v>
       </c>
-      <c r="I456" t="s">
-        <v>847</v>
+      <c r="I456" s="1" t="s">
+        <v>846</v>
       </c>
       <c r="K456" t="s">
         <v>811</v>
@@ -16539,7 +16543,7 @@
       <c r="H457" t="s">
         <v>832</v>
       </c>
-      <c r="I457" t="s">
+      <c r="I457" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K457" t="s">
@@ -16568,7 +16572,7 @@
       <c r="H458" t="s">
         <v>811</v>
       </c>
-      <c r="I458" t="s">
+      <c r="I458" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K458" t="s">
@@ -16597,7 +16601,7 @@
       <c r="H459" t="s">
         <v>832</v>
       </c>
-      <c r="I459" t="s">
+      <c r="I459" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K459" t="s">
@@ -16607,7 +16611,7 @@
         <v>811</v>
       </c>
       <c r="M459" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.2">
@@ -16615,7 +16619,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D460" t="s">
         <v>815</v>
@@ -16626,7 +16630,7 @@
       <c r="H460" t="s">
         <v>811</v>
       </c>
-      <c r="I460" t="s">
+      <c r="I460" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K460" t="s">
@@ -16655,7 +16659,7 @@
       <c r="H461" t="s">
         <v>832</v>
       </c>
-      <c r="I461" t="s">
+      <c r="I461" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K461" t="s">
@@ -16684,7 +16688,7 @@
       <c r="H462" t="s">
         <v>832</v>
       </c>
-      <c r="I462" t="s">
+      <c r="I462" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K462" t="s">
@@ -16713,7 +16717,7 @@
       <c r="H463" t="s">
         <v>832</v>
       </c>
-      <c r="I463" t="s">
+      <c r="I463" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K463" t="s">
@@ -16742,7 +16746,7 @@
       <c r="H464" t="s">
         <v>832</v>
       </c>
-      <c r="I464" t="s">
+      <c r="I464" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K464" t="s">
@@ -16771,7 +16775,7 @@
       <c r="H465" t="s">
         <v>832</v>
       </c>
-      <c r="I465" t="s">
+      <c r="I465" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K465" t="s">
@@ -16800,7 +16804,7 @@
       <c r="H466" t="s">
         <v>832</v>
       </c>
-      <c r="I466" t="s">
+      <c r="I466" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K466" t="s">
@@ -16829,7 +16833,7 @@
       <c r="H467" t="s">
         <v>832</v>
       </c>
-      <c r="I467" t="s">
+      <c r="I467" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K467" t="s">
@@ -16858,7 +16862,7 @@
       <c r="H468" t="s">
         <v>832</v>
       </c>
-      <c r="I468" t="s">
+      <c r="I468" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K468" t="s">
@@ -16887,7 +16891,7 @@
       <c r="H469" t="s">
         <v>832</v>
       </c>
-      <c r="I469" t="s">
+      <c r="I469" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K469" t="s">
@@ -16916,7 +16920,7 @@
       <c r="H470" t="s">
         <v>832</v>
       </c>
-      <c r="I470" t="s">
+      <c r="I470" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K470" t="s">
@@ -16945,7 +16949,7 @@
       <c r="H471" t="s">
         <v>832</v>
       </c>
-      <c r="I471" t="s">
+      <c r="I471" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K471" t="s">
@@ -16974,7 +16978,7 @@
       <c r="H472" t="s">
         <v>832</v>
       </c>
-      <c r="I472" t="s">
+      <c r="I472" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K472" t="s">
@@ -17003,7 +17007,7 @@
       <c r="H473" t="s">
         <v>832</v>
       </c>
-      <c r="I473" t="s">
+      <c r="I473" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K473" t="s">
@@ -17032,7 +17036,7 @@
       <c r="H474" t="s">
         <v>832</v>
       </c>
-      <c r="I474" t="s">
+      <c r="I474" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K474" t="s">
@@ -17061,7 +17065,7 @@
       <c r="H475" t="s">
         <v>832</v>
       </c>
-      <c r="I475" t="s">
+      <c r="I475" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K475" t="s">
@@ -17090,7 +17094,7 @@
       <c r="H476" t="s">
         <v>832</v>
       </c>
-      <c r="I476" t="s">
+      <c r="I476" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K476" t="s">
@@ -17119,7 +17123,7 @@
       <c r="H477" t="s">
         <v>832</v>
       </c>
-      <c r="I477" t="s">
+      <c r="I477" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K477" t="s">
@@ -17148,7 +17152,7 @@
       <c r="H478" t="s">
         <v>832</v>
       </c>
-      <c r="I478" t="s">
+      <c r="I478" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K478" t="s">
@@ -17177,7 +17181,7 @@
       <c r="H479" t="s">
         <v>832</v>
       </c>
-      <c r="I479" t="s">
+      <c r="I479" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K479" t="s">
@@ -17206,7 +17210,7 @@
       <c r="H480" t="s">
         <v>832</v>
       </c>
-      <c r="I480" t="s">
+      <c r="I480" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K480" t="s">
@@ -17235,7 +17239,7 @@
       <c r="H481" t="s">
         <v>832</v>
       </c>
-      <c r="I481" t="s">
+      <c r="I481" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K481" t="s">
@@ -17264,8 +17268,8 @@
       <c r="H482" t="s">
         <v>832</v>
       </c>
-      <c r="I482" t="s">
-        <v>848</v>
+      <c r="I482" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="K482" t="s">
         <v>811</v>
@@ -17293,7 +17297,7 @@
       <c r="H483" t="s">
         <v>832</v>
       </c>
-      <c r="I483" t="s">
+      <c r="I483" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K483" t="s">
@@ -17322,7 +17326,7 @@
       <c r="H484" t="s">
         <v>832</v>
       </c>
-      <c r="I484" t="s">
+      <c r="I484" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K484" t="s">
@@ -17351,7 +17355,7 @@
       <c r="H485" t="s">
         <v>832</v>
       </c>
-      <c r="I485" t="s">
+      <c r="I485" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K485" t="s">
@@ -17380,7 +17384,7 @@
       <c r="H486" t="s">
         <v>832</v>
       </c>
-      <c r="I486" t="s">
+      <c r="I486" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K486" t="s">
@@ -17409,7 +17413,7 @@
       <c r="H487" t="s">
         <v>832</v>
       </c>
-      <c r="I487" t="s">
+      <c r="I487" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K487" t="s">
@@ -17438,7 +17442,7 @@
       <c r="H488" t="s">
         <v>832</v>
       </c>
-      <c r="I488" t="s">
+      <c r="I488" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K488" t="s">
@@ -17467,7 +17471,7 @@
       <c r="H489" t="s">
         <v>832</v>
       </c>
-      <c r="I489" t="s">
+      <c r="I489" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K489" t="s">
@@ -17496,7 +17500,7 @@
       <c r="H490" t="s">
         <v>832</v>
       </c>
-      <c r="I490" t="s">
+      <c r="I490" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K490" t="s">
@@ -17525,7 +17529,7 @@
       <c r="H491" t="s">
         <v>832</v>
       </c>
-      <c r="I491" t="s">
+      <c r="I491" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K491" t="s">
@@ -17554,7 +17558,7 @@
       <c r="H492" t="s">
         <v>832</v>
       </c>
-      <c r="I492" t="s">
+      <c r="I492" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K492" t="s">
@@ -17583,7 +17587,7 @@
       <c r="H493" t="s">
         <v>832</v>
       </c>
-      <c r="I493" t="s">
+      <c r="I493" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K493" t="s">
@@ -17612,7 +17616,7 @@
       <c r="H494" t="s">
         <v>832</v>
       </c>
-      <c r="I494" t="s">
+      <c r="I494" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K494" t="s">
@@ -17641,7 +17645,7 @@
       <c r="H495" t="s">
         <v>832</v>
       </c>
-      <c r="I495" t="s">
+      <c r="I495" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K495" t="s">
@@ -17670,7 +17674,7 @@
       <c r="H496" t="s">
         <v>832</v>
       </c>
-      <c r="I496" t="s">
+      <c r="I496" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K496" t="s">
@@ -17699,7 +17703,7 @@
       <c r="H497" t="s">
         <v>832</v>
       </c>
-      <c r="I497" t="s">
+      <c r="I497" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K497" t="s">
@@ -17728,7 +17732,7 @@
       <c r="H498" t="s">
         <v>832</v>
       </c>
-      <c r="I498" t="s">
+      <c r="I498" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K498" t="s">
@@ -17757,7 +17761,7 @@
       <c r="H499" t="s">
         <v>832</v>
       </c>
-      <c r="I499" t="s">
+      <c r="I499" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K499" t="s">
@@ -17786,7 +17790,7 @@
       <c r="H500" t="s">
         <v>832</v>
       </c>
-      <c r="I500" t="s">
+      <c r="I500" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K500" t="s">
@@ -17815,7 +17819,7 @@
       <c r="H501" t="s">
         <v>832</v>
       </c>
-      <c r="I501" t="s">
+      <c r="I501" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K501" t="s">
@@ -17844,7 +17848,7 @@
       <c r="H502" t="s">
         <v>832</v>
       </c>
-      <c r="I502" t="s">
+      <c r="I502" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K502" t="s">
@@ -17873,7 +17877,7 @@
       <c r="H503" t="s">
         <v>811</v>
       </c>
-      <c r="I503" t="s">
+      <c r="I503" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K503" t="s">
@@ -17902,7 +17906,7 @@
       <c r="H504" t="s">
         <v>832</v>
       </c>
-      <c r="I504" t="s">
+      <c r="I504" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K504" t="s">
@@ -17931,8 +17935,8 @@
       <c r="H505" t="s">
         <v>832</v>
       </c>
-      <c r="I505" t="s">
-        <v>849</v>
+      <c r="I505" s="1" t="s">
+        <v>848</v>
       </c>
       <c r="K505" t="s">
         <v>811</v>
@@ -17960,8 +17964,8 @@
       <c r="H506" t="s">
         <v>832</v>
       </c>
-      <c r="I506" t="s">
-        <v>850</v>
+      <c r="I506" s="1" t="s">
+        <v>849</v>
       </c>
       <c r="K506" t="s">
         <v>811</v>
@@ -17989,8 +17993,8 @@
       <c r="H507" t="s">
         <v>832</v>
       </c>
-      <c r="I507" t="s">
-        <v>851</v>
+      <c r="I507" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="K507" t="s">
         <v>811</v>
@@ -18018,8 +18022,8 @@
       <c r="H508" t="s">
         <v>832</v>
       </c>
-      <c r="I508" t="s">
-        <v>852</v>
+      <c r="I508" s="1" t="s">
+        <v>851</v>
       </c>
       <c r="K508" t="s">
         <v>811</v>
@@ -18047,8 +18051,8 @@
       <c r="H509" t="s">
         <v>832</v>
       </c>
-      <c r="I509" t="s">
-        <v>853</v>
+      <c r="I509" s="1" t="s">
+        <v>852</v>
       </c>
       <c r="K509" t="s">
         <v>811</v>
@@ -18076,7 +18080,7 @@
       <c r="H510" t="s">
         <v>832</v>
       </c>
-      <c r="I510" t="s">
+      <c r="I510" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K510" t="s">
@@ -18105,7 +18109,7 @@
       <c r="H511" t="s">
         <v>832</v>
       </c>
-      <c r="I511" t="s">
+      <c r="I511" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K511" t="s">
@@ -18134,7 +18138,7 @@
       <c r="H512" t="s">
         <v>832</v>
       </c>
-      <c r="I512" t="s">
+      <c r="I512" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K512" t="s">
@@ -18163,7 +18167,7 @@
       <c r="H513" t="s">
         <v>832</v>
       </c>
-      <c r="I513" t="s">
+      <c r="I513" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K513" t="s">
@@ -18192,7 +18196,7 @@
       <c r="H514" t="s">
         <v>832</v>
       </c>
-      <c r="I514" t="s">
+      <c r="I514" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K514" t="s">
@@ -18221,7 +18225,7 @@
       <c r="H515" t="s">
         <v>832</v>
       </c>
-      <c r="I515" t="s">
+      <c r="I515" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K515" t="s">
@@ -18250,7 +18254,7 @@
       <c r="H516" t="s">
         <v>832</v>
       </c>
-      <c r="I516" t="s">
+      <c r="I516" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K516" t="s">
@@ -18279,7 +18283,7 @@
       <c r="H517" t="s">
         <v>832</v>
       </c>
-      <c r="I517" t="s">
+      <c r="I517" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K517" t="s">
@@ -18308,7 +18312,7 @@
       <c r="H518" t="s">
         <v>832</v>
       </c>
-      <c r="I518" t="s">
+      <c r="I518" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K518" t="s">
@@ -18337,7 +18341,7 @@
       <c r="H519" t="s">
         <v>832</v>
       </c>
-      <c r="I519" t="s">
+      <c r="I519" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K519" t="s">
@@ -18366,7 +18370,7 @@
       <c r="H520" t="s">
         <v>832</v>
       </c>
-      <c r="I520" t="s">
+      <c r="I520" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K520" t="s">
@@ -18395,7 +18399,7 @@
       <c r="H521" t="s">
         <v>832</v>
       </c>
-      <c r="I521" t="s">
+      <c r="I521" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K521" t="s">
@@ -18424,7 +18428,7 @@
       <c r="H522" t="s">
         <v>832</v>
       </c>
-      <c r="I522" t="s">
+      <c r="I522" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K522" t="s">
@@ -18453,7 +18457,7 @@
       <c r="H523" t="s">
         <v>832</v>
       </c>
-      <c r="I523" t="s">
+      <c r="I523" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K523" t="s">
@@ -18482,7 +18486,7 @@
       <c r="H524" t="s">
         <v>832</v>
       </c>
-      <c r="I524" t="s">
+      <c r="I524" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K524" t="s">
@@ -18511,7 +18515,7 @@
       <c r="H525" t="s">
         <v>832</v>
       </c>
-      <c r="I525" t="s">
+      <c r="I525" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K525" t="s">
@@ -18540,7 +18544,7 @@
       <c r="H526" t="s">
         <v>832</v>
       </c>
-      <c r="I526" t="s">
+      <c r="I526" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K526" t="s">
@@ -18569,7 +18573,7 @@
       <c r="H527" t="s">
         <v>832</v>
       </c>
-      <c r="I527" t="s">
+      <c r="I527" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K527" t="s">
@@ -18598,7 +18602,7 @@
       <c r="H528" t="s">
         <v>832</v>
       </c>
-      <c r="I528" t="s">
+      <c r="I528" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K528" t="s">
@@ -18627,8 +18631,8 @@
       <c r="H529" t="s">
         <v>832</v>
       </c>
-      <c r="I529" t="s">
-        <v>854</v>
+      <c r="I529" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="K529" t="s">
         <v>811</v>
@@ -18656,11 +18660,11 @@
       <c r="H530" t="s">
         <v>832</v>
       </c>
-      <c r="I530" t="s">
-        <v>855</v>
+      <c r="I530" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="K530" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L530" t="s">
         <v>832</v>
@@ -18685,11 +18689,11 @@
       <c r="H531" t="s">
         <v>832</v>
       </c>
-      <c r="I531" t="s">
-        <v>856</v>
+      <c r="I531" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="K531" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="L531" t="s">
         <v>832</v>
@@ -18714,7 +18718,7 @@
       <c r="H532" t="s">
         <v>832</v>
       </c>
-      <c r="I532" t="s">
+      <c r="I532" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K532" t="s">
@@ -18743,8 +18747,8 @@
       <c r="H533" t="s">
         <v>832</v>
       </c>
-      <c r="I533" t="s">
-        <v>857</v>
+      <c r="I533" s="1" t="s">
+        <v>856</v>
       </c>
       <c r="K533" t="s">
         <v>811</v>
@@ -18772,7 +18776,7 @@
       <c r="H534" t="s">
         <v>832</v>
       </c>
-      <c r="I534" t="s">
+      <c r="I534" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K534" t="s">
@@ -18801,7 +18805,7 @@
       <c r="H535" t="s">
         <v>832</v>
       </c>
-      <c r="I535" t="s">
+      <c r="I535" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K535" t="s">
@@ -18830,7 +18834,7 @@
       <c r="H536" t="s">
         <v>832</v>
       </c>
-      <c r="I536" t="s">
+      <c r="I536" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K536" t="s">
@@ -18859,7 +18863,7 @@
       <c r="H537" t="s">
         <v>832</v>
       </c>
-      <c r="I537" t="s">
+      <c r="I537" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K537" t="s">
@@ -18888,7 +18892,7 @@
       <c r="H538" t="s">
         <v>832</v>
       </c>
-      <c r="I538" t="s">
+      <c r="I538" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K538" t="s">
@@ -18917,7 +18921,7 @@
       <c r="H539" t="s">
         <v>832</v>
       </c>
-      <c r="I539" t="s">
+      <c r="I539" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K539" t="s">
@@ -18946,7 +18950,7 @@
       <c r="H540" t="s">
         <v>832</v>
       </c>
-      <c r="I540" t="s">
+      <c r="I540" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K540" t="s">
@@ -18975,7 +18979,7 @@
       <c r="H541" t="s">
         <v>832</v>
       </c>
-      <c r="I541" t="s">
+      <c r="I541" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K541" t="s">
@@ -19004,7 +19008,7 @@
       <c r="H542" t="s">
         <v>832</v>
       </c>
-      <c r="I542" t="s">
+      <c r="I542" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K542" t="s">
@@ -19033,8 +19037,8 @@
       <c r="H543" t="s">
         <v>832</v>
       </c>
-      <c r="I543" t="s">
-        <v>854</v>
+      <c r="I543" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="K543" t="s">
         <v>811</v>
@@ -19062,11 +19066,11 @@
       <c r="H544" t="s">
         <v>832</v>
       </c>
-      <c r="I544" t="s">
-        <v>855</v>
+      <c r="I544" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="K544" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L544" t="s">
         <v>832</v>
@@ -19091,11 +19095,11 @@
       <c r="H545" t="s">
         <v>832</v>
       </c>
-      <c r="I545" t="s">
-        <v>856</v>
+      <c r="I545" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="K545" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L545" t="s">
         <v>832</v>
@@ -19120,7 +19124,7 @@
       <c r="H546" t="s">
         <v>832</v>
       </c>
-      <c r="I546" t="s">
+      <c r="I546" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K546" t="s">
@@ -19149,8 +19153,8 @@
       <c r="H547" t="s">
         <v>832</v>
       </c>
-      <c r="I547" t="s">
-        <v>857</v>
+      <c r="I547" s="1" t="s">
+        <v>856</v>
       </c>
       <c r="K547" t="s">
         <v>811</v>
@@ -19178,7 +19182,7 @@
       <c r="H548" t="s">
         <v>832</v>
       </c>
-      <c r="I548" t="s">
+      <c r="I548" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K548" t="s">
@@ -19207,7 +19211,7 @@
       <c r="H549" t="s">
         <v>832</v>
       </c>
-      <c r="I549" t="s">
+      <c r="I549" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K549" t="s">
@@ -19236,7 +19240,7 @@
       <c r="H550" t="s">
         <v>832</v>
       </c>
-      <c r="I550" t="s">
+      <c r="I550" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K550" t="s">
@@ -19265,7 +19269,7 @@
       <c r="H551" t="s">
         <v>832</v>
       </c>
-      <c r="I551" t="s">
+      <c r="I551" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K551" t="s">
@@ -19294,7 +19298,7 @@
       <c r="H552" t="s">
         <v>832</v>
       </c>
-      <c r="I552" t="s">
+      <c r="I552" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K552" t="s">
@@ -19323,7 +19327,7 @@
       <c r="H553" t="s">
         <v>832</v>
       </c>
-      <c r="I553" t="s">
+      <c r="I553" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K553" t="s">
@@ -19352,7 +19356,7 @@
       <c r="H554" t="s">
         <v>832</v>
       </c>
-      <c r="I554" t="s">
+      <c r="I554" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K554" t="s">
@@ -19381,7 +19385,7 @@
       <c r="H555" t="s">
         <v>832</v>
       </c>
-      <c r="I555" t="s">
+      <c r="I555" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K555" t="s">
@@ -19410,7 +19414,7 @@
       <c r="H556" t="s">
         <v>832</v>
       </c>
-      <c r="I556" t="s">
+      <c r="I556" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K556" t="s">
@@ -19439,8 +19443,8 @@
       <c r="H557" t="s">
         <v>832</v>
       </c>
-      <c r="I557" t="s">
-        <v>854</v>
+      <c r="I557" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="K557" t="s">
         <v>811</v>
@@ -19468,11 +19472,11 @@
       <c r="H558" t="s">
         <v>832</v>
       </c>
-      <c r="I558" t="s">
-        <v>855</v>
+      <c r="I558" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="K558" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L558" t="s">
         <v>832</v>
@@ -19497,11 +19501,11 @@
       <c r="H559" t="s">
         <v>832</v>
       </c>
-      <c r="I559" t="s">
-        <v>856</v>
+      <c r="I559" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="K559" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L559" t="s">
         <v>832</v>
@@ -19526,7 +19530,7 @@
       <c r="H560" t="s">
         <v>832</v>
       </c>
-      <c r="I560" t="s">
+      <c r="I560" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K560" t="s">
@@ -19555,8 +19559,8 @@
       <c r="H561" t="s">
         <v>832</v>
       </c>
-      <c r="I561" t="s">
-        <v>857</v>
+      <c r="I561" s="1" t="s">
+        <v>856</v>
       </c>
       <c r="K561" t="s">
         <v>811</v>
@@ -19584,7 +19588,7 @@
       <c r="H562" t="s">
         <v>832</v>
       </c>
-      <c r="I562" t="s">
+      <c r="I562" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K562" t="s">
@@ -19613,7 +19617,7 @@
       <c r="H563" t="s">
         <v>832</v>
       </c>
-      <c r="I563" t="s">
+      <c r="I563" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K563" t="s">
@@ -19642,7 +19646,7 @@
       <c r="H564" t="s">
         <v>832</v>
       </c>
-      <c r="I564" t="s">
+      <c r="I564" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K564" t="s">
@@ -19671,7 +19675,7 @@
       <c r="H565" t="s">
         <v>832</v>
       </c>
-      <c r="I565" t="s">
+      <c r="I565" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K565" t="s">
@@ -19700,7 +19704,7 @@
       <c r="H566" t="s">
         <v>832</v>
       </c>
-      <c r="I566" t="s">
+      <c r="I566" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K566" t="s">
@@ -19729,7 +19733,7 @@
       <c r="H567" t="s">
         <v>832</v>
       </c>
-      <c r="I567" t="s">
+      <c r="I567" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K567" t="s">
@@ -19758,7 +19762,7 @@
       <c r="H568" t="s">
         <v>832</v>
       </c>
-      <c r="I568" t="s">
+      <c r="I568" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K568" t="s">
@@ -19787,7 +19791,7 @@
       <c r="H569" t="s">
         <v>832</v>
       </c>
-      <c r="I569" t="s">
+      <c r="I569" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K569" t="s">
@@ -19816,7 +19820,7 @@
       <c r="H570" t="s">
         <v>832</v>
       </c>
-      <c r="I570" t="s">
+      <c r="I570" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K570" t="s">
@@ -19845,8 +19849,8 @@
       <c r="H571" t="s">
         <v>832</v>
       </c>
-      <c r="I571" t="s">
-        <v>854</v>
+      <c r="I571" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="K571" t="s">
         <v>811</v>
@@ -19874,11 +19878,11 @@
       <c r="H572" t="s">
         <v>832</v>
       </c>
-      <c r="I572" t="s">
-        <v>855</v>
+      <c r="I572" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="K572" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L572" t="s">
         <v>832</v>
@@ -19903,11 +19907,11 @@
       <c r="H573" t="s">
         <v>832</v>
       </c>
-      <c r="I573" t="s">
-        <v>856</v>
+      <c r="I573" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="K573" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L573" t="s">
         <v>832</v>
@@ -19932,7 +19936,7 @@
       <c r="H574" t="s">
         <v>832</v>
       </c>
-      <c r="I574" t="s">
+      <c r="I574" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K574" t="s">
@@ -19961,8 +19965,8 @@
       <c r="H575" t="s">
         <v>832</v>
       </c>
-      <c r="I575" t="s">
-        <v>857</v>
+      <c r="I575" s="1" t="s">
+        <v>856</v>
       </c>
       <c r="K575" t="s">
         <v>811</v>
@@ -19990,7 +19994,7 @@
       <c r="H576" t="s">
         <v>832</v>
       </c>
-      <c r="I576" t="s">
+      <c r="I576" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K576" t="s">
@@ -20019,7 +20023,7 @@
       <c r="H577" t="s">
         <v>832</v>
       </c>
-      <c r="I577" t="s">
+      <c r="I577" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K577" t="s">
@@ -20048,7 +20052,7 @@
       <c r="H578" t="s">
         <v>832</v>
       </c>
-      <c r="I578" t="s">
+      <c r="I578" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K578" t="s">
@@ -20077,7 +20081,7 @@
       <c r="H579" t="s">
         <v>832</v>
       </c>
-      <c r="I579" t="s">
+      <c r="I579" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K579" t="s">
@@ -20106,7 +20110,7 @@
       <c r="H580" t="s">
         <v>832</v>
       </c>
-      <c r="I580" t="s">
+      <c r="I580" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K580" t="s">
@@ -20135,7 +20139,7 @@
       <c r="H581" t="s">
         <v>832</v>
       </c>
-      <c r="I581" t="s">
+      <c r="I581" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K581" t="s">
@@ -20164,7 +20168,7 @@
       <c r="H582" t="s">
         <v>832</v>
       </c>
-      <c r="I582" t="s">
+      <c r="I582" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K582" t="s">
@@ -20193,7 +20197,7 @@
       <c r="H583" t="s">
         <v>832</v>
       </c>
-      <c r="I583" t="s">
+      <c r="I583" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K583" t="s">
@@ -20222,7 +20226,7 @@
       <c r="H584" t="s">
         <v>832</v>
       </c>
-      <c r="I584" t="s">
+      <c r="I584" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K584" t="s">
@@ -20251,8 +20255,8 @@
       <c r="H585" t="s">
         <v>832</v>
       </c>
-      <c r="I585" t="s">
-        <v>854</v>
+      <c r="I585" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="K585" t="s">
         <v>811</v>
@@ -20280,11 +20284,11 @@
       <c r="H586" t="s">
         <v>832</v>
       </c>
-      <c r="I586" t="s">
-        <v>855</v>
+      <c r="I586" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="K586" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L586" t="s">
         <v>832</v>
@@ -20309,11 +20313,11 @@
       <c r="H587" t="s">
         <v>832</v>
       </c>
-      <c r="I587" t="s">
-        <v>856</v>
+      <c r="I587" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="K587" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L587" t="s">
         <v>832</v>
@@ -20338,7 +20342,7 @@
       <c r="H588" t="s">
         <v>832</v>
       </c>
-      <c r="I588" t="s">
+      <c r="I588" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K588" t="s">
@@ -20367,8 +20371,8 @@
       <c r="H589" t="s">
         <v>832</v>
       </c>
-      <c r="I589" t="s">
-        <v>857</v>
+      <c r="I589" s="1" t="s">
+        <v>856</v>
       </c>
       <c r="K589" t="s">
         <v>811</v>
@@ -20396,7 +20400,7 @@
       <c r="H590" t="s">
         <v>832</v>
       </c>
-      <c r="I590" t="s">
+      <c r="I590" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K590" t="s">
@@ -20425,7 +20429,7 @@
       <c r="H591" t="s">
         <v>832</v>
       </c>
-      <c r="I591" t="s">
+      <c r="I591" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K591" t="s">
@@ -20454,7 +20458,7 @@
       <c r="H592" t="s">
         <v>832</v>
       </c>
-      <c r="I592" t="s">
+      <c r="I592" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K592" t="s">
@@ -20483,7 +20487,7 @@
       <c r="H593" t="s">
         <v>832</v>
       </c>
-      <c r="I593" t="s">
+      <c r="I593" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K593" t="s">
@@ -20512,7 +20516,7 @@
       <c r="H594" t="s">
         <v>832</v>
       </c>
-      <c r="I594" t="s">
+      <c r="I594" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K594" t="s">
@@ -20541,7 +20545,7 @@
       <c r="H595" t="s">
         <v>832</v>
       </c>
-      <c r="I595" t="s">
+      <c r="I595" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K595" t="s">
@@ -20570,7 +20574,7 @@
       <c r="H596" t="s">
         <v>832</v>
       </c>
-      <c r="I596" t="s">
+      <c r="I596" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K596" t="s">
@@ -20599,7 +20603,7 @@
       <c r="H597" t="s">
         <v>832</v>
       </c>
-      <c r="I597" t="s">
+      <c r="I597" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K597" t="s">
@@ -20628,7 +20632,7 @@
       <c r="H598" t="s">
         <v>832</v>
       </c>
-      <c r="I598" t="s">
+      <c r="I598" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K598" t="s">
@@ -20657,8 +20661,8 @@
       <c r="H599" t="s">
         <v>832</v>
       </c>
-      <c r="I599" t="s">
-        <v>854</v>
+      <c r="I599" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="K599" t="s">
         <v>811</v>
@@ -20686,11 +20690,11 @@
       <c r="H600" t="s">
         <v>832</v>
       </c>
-      <c r="I600" t="s">
-        <v>855</v>
+      <c r="I600" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="K600" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L600" t="s">
         <v>832</v>
@@ -20715,11 +20719,11 @@
       <c r="H601" t="s">
         <v>832</v>
       </c>
-      <c r="I601" t="s">
-        <v>856</v>
+      <c r="I601" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="K601" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L601" t="s">
         <v>832</v>
@@ -20744,7 +20748,7 @@
       <c r="H602" t="s">
         <v>832</v>
       </c>
-      <c r="I602" t="s">
+      <c r="I602" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K602" t="s">
@@ -20773,8 +20777,8 @@
       <c r="H603" t="s">
         <v>832</v>
       </c>
-      <c r="I603" t="s">
-        <v>857</v>
+      <c r="I603" s="1" t="s">
+        <v>856</v>
       </c>
       <c r="K603" t="s">
         <v>811</v>
@@ -20802,7 +20806,7 @@
       <c r="H604" t="s">
         <v>832</v>
       </c>
-      <c r="I604" t="s">
+      <c r="I604" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K604" t="s">
@@ -20831,7 +20835,7 @@
       <c r="H605" t="s">
         <v>832</v>
       </c>
-      <c r="I605" t="s">
+      <c r="I605" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K605" t="s">
@@ -20860,7 +20864,7 @@
       <c r="H606" t="s">
         <v>832</v>
       </c>
-      <c r="I606" t="s">
+      <c r="I606" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K606" t="s">
@@ -20889,7 +20893,7 @@
       <c r="H607" t="s">
         <v>832</v>
       </c>
-      <c r="I607" t="s">
+      <c r="I607" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K607" t="s">
@@ -20918,7 +20922,7 @@
       <c r="H608" t="s">
         <v>832</v>
       </c>
-      <c r="I608" t="s">
+      <c r="I608" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K608" t="s">
@@ -20947,7 +20951,7 @@
       <c r="H609" t="s">
         <v>832</v>
       </c>
-      <c r="I609" t="s">
+      <c r="I609" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K609" t="s">
@@ -20976,7 +20980,7 @@
       <c r="H610" t="s">
         <v>832</v>
       </c>
-      <c r="I610" t="s">
+      <c r="I610" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K610" t="s">
@@ -21005,7 +21009,7 @@
       <c r="H611" t="s">
         <v>832</v>
       </c>
-      <c r="I611" t="s">
+      <c r="I611" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K611" t="s">
@@ -21034,7 +21038,7 @@
       <c r="H612" t="s">
         <v>832</v>
       </c>
-      <c r="I612" t="s">
+      <c r="I612" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K612" t="s">
@@ -21063,7 +21067,7 @@
       <c r="H613" t="s">
         <v>832</v>
       </c>
-      <c r="I613" t="s">
+      <c r="I613" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K613" t="s">
@@ -21092,7 +21096,7 @@
       <c r="H614" t="s">
         <v>832</v>
       </c>
-      <c r="I614" t="s">
+      <c r="I614" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K614" t="s">
@@ -21121,7 +21125,7 @@
       <c r="H615" t="s">
         <v>832</v>
       </c>
-      <c r="I615" t="s">
+      <c r="I615" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K615" t="s">
@@ -21150,7 +21154,7 @@
       <c r="H616" t="s">
         <v>832</v>
       </c>
-      <c r="I616" t="s">
+      <c r="I616" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K616" t="s">
@@ -21179,7 +21183,7 @@
       <c r="H617" t="s">
         <v>832</v>
       </c>
-      <c r="I617" t="s">
+      <c r="I617" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K617" t="s">
@@ -21208,7 +21212,7 @@
       <c r="H618" t="s">
         <v>832</v>
       </c>
-      <c r="I618" t="s">
+      <c r="I618" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K618" t="s">
@@ -21237,7 +21241,7 @@
       <c r="H619" t="s">
         <v>832</v>
       </c>
-      <c r="I619" t="s">
+      <c r="I619" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K619" t="s">
@@ -21266,7 +21270,7 @@
       <c r="H620" t="s">
         <v>832</v>
       </c>
-      <c r="I620" t="s">
+      <c r="I620" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K620" t="s">
@@ -21295,7 +21299,7 @@
       <c r="H621" t="s">
         <v>832</v>
       </c>
-      <c r="I621" t="s">
+      <c r="I621" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K621" t="s">
@@ -21324,7 +21328,7 @@
       <c r="H622" t="s">
         <v>832</v>
       </c>
-      <c r="I622" t="s">
+      <c r="I622" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K622" t="s">
@@ -21353,7 +21357,7 @@
       <c r="H623" t="s">
         <v>832</v>
       </c>
-      <c r="I623" t="s">
+      <c r="I623" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K623" t="s">
@@ -21382,7 +21386,7 @@
       <c r="H624" t="s">
         <v>832</v>
       </c>
-      <c r="I624" t="s">
+      <c r="I624" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K624" t="s">
@@ -21411,7 +21415,7 @@
       <c r="H625" t="s">
         <v>832</v>
       </c>
-      <c r="I625" t="s">
+      <c r="I625" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K625" t="s">
@@ -21440,8 +21444,8 @@
       <c r="H626" t="s">
         <v>832</v>
       </c>
-      <c r="I626" t="s">
-        <v>858</v>
+      <c r="I626" s="1" t="s">
+        <v>857</v>
       </c>
       <c r="K626" t="s">
         <v>811</v>
@@ -21469,7 +21473,7 @@
       <c r="H627" t="s">
         <v>832</v>
       </c>
-      <c r="I627" t="s">
+      <c r="I627" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K627" t="s">
@@ -21498,7 +21502,7 @@
       <c r="H628" t="s">
         <v>832</v>
       </c>
-      <c r="I628" t="s">
+      <c r="I628" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K628" t="s">
@@ -21527,7 +21531,7 @@
       <c r="H629" t="s">
         <v>832</v>
       </c>
-      <c r="I629" t="s">
+      <c r="I629" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K629" t="s">
@@ -21556,7 +21560,7 @@
       <c r="H630" t="s">
         <v>832</v>
       </c>
-      <c r="I630" t="s">
+      <c r="I630" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K630" t="s">
@@ -21585,7 +21589,7 @@
       <c r="H631" t="s">
         <v>832</v>
       </c>
-      <c r="I631" t="s">
+      <c r="I631" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K631" t="s">
@@ -21614,7 +21618,7 @@
       <c r="H632" t="s">
         <v>832</v>
       </c>
-      <c r="I632" t="s">
+      <c r="I632" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K632" t="s">
@@ -21643,7 +21647,7 @@
       <c r="H633" t="s">
         <v>832</v>
       </c>
-      <c r="I633" t="s">
+      <c r="I633" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K633" t="s">
@@ -21672,7 +21676,7 @@
       <c r="H634" t="s">
         <v>832</v>
       </c>
-      <c r="I634" t="s">
+      <c r="I634" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K634" t="s">
@@ -21701,7 +21705,7 @@
       <c r="H635" t="s">
         <v>832</v>
       </c>
-      <c r="I635" t="s">
+      <c r="I635" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K635" t="s">
@@ -21730,7 +21734,7 @@
       <c r="H636" t="s">
         <v>832</v>
       </c>
-      <c r="I636" t="s">
+      <c r="I636" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K636" t="s">
@@ -21759,7 +21763,7 @@
       <c r="H637" t="s">
         <v>832</v>
       </c>
-      <c r="I637" t="s">
+      <c r="I637" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K637" t="s">
@@ -21788,7 +21792,7 @@
       <c r="H638" t="s">
         <v>832</v>
       </c>
-      <c r="I638" t="s">
+      <c r="I638" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K638" t="s">
@@ -21817,7 +21821,7 @@
       <c r="H639" t="s">
         <v>832</v>
       </c>
-      <c r="I639" t="s">
+      <c r="I639" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K639" t="s">
@@ -21846,7 +21850,7 @@
       <c r="H640" t="s">
         <v>832</v>
       </c>
-      <c r="I640" t="s">
+      <c r="I640" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K640" t="s">
@@ -21875,7 +21879,7 @@
       <c r="H641" t="s">
         <v>832</v>
       </c>
-      <c r="I641" t="s">
+      <c r="I641" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K641" t="s">
@@ -21904,7 +21908,7 @@
       <c r="H642" t="s">
         <v>832</v>
       </c>
-      <c r="I642" t="s">
+      <c r="I642" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K642" t="s">
@@ -21933,7 +21937,7 @@
       <c r="H643" t="s">
         <v>832</v>
       </c>
-      <c r="I643" t="s">
+      <c r="I643" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K643" t="s">
@@ -21962,7 +21966,7 @@
       <c r="H644" t="s">
         <v>832</v>
       </c>
-      <c r="I644" t="s">
+      <c r="I644" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K644" t="s">
@@ -21991,7 +21995,7 @@
       <c r="H645" t="s">
         <v>832</v>
       </c>
-      <c r="I645" t="s">
+      <c r="I645" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K645" t="s">
@@ -22020,7 +22024,7 @@
       <c r="H646" t="s">
         <v>832</v>
       </c>
-      <c r="I646" t="s">
+      <c r="I646" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K646" t="s">
@@ -22049,7 +22053,7 @@
       <c r="H647" t="s">
         <v>832</v>
       </c>
-      <c r="I647" t="s">
+      <c r="I647" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K647" t="s">
@@ -22078,7 +22082,7 @@
       <c r="H648" t="s">
         <v>832</v>
       </c>
-      <c r="I648" t="s">
+      <c r="I648" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K648" t="s">
@@ -22107,8 +22111,8 @@
       <c r="H649" t="s">
         <v>832</v>
       </c>
-      <c r="I649" t="s">
-        <v>859</v>
+      <c r="I649" s="1" t="s">
+        <v>858</v>
       </c>
       <c r="K649" t="s">
         <v>811</v>
@@ -22136,7 +22140,7 @@
       <c r="H650" t="s">
         <v>832</v>
       </c>
-      <c r="I650" t="s">
+      <c r="I650" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K650" t="s">
@@ -22165,7 +22169,7 @@
       <c r="H651" t="s">
         <v>832</v>
       </c>
-      <c r="I651" t="s">
+      <c r="I651" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K651" t="s">
@@ -22175,7 +22179,7 @@
         <v>811</v>
       </c>
       <c r="M651" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="652" spans="1:13" x14ac:dyDescent="0.2">
@@ -22194,7 +22198,7 @@
       <c r="H652" t="s">
         <v>832</v>
       </c>
-      <c r="I652" t="s">
+      <c r="I652" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K652" t="s">
@@ -22223,7 +22227,7 @@
       <c r="H653" t="s">
         <v>832</v>
       </c>
-      <c r="I653" t="s">
+      <c r="I653" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K653" t="s">
@@ -22252,7 +22256,7 @@
       <c r="H654" t="s">
         <v>832</v>
       </c>
-      <c r="I654" t="s">
+      <c r="I654" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K654" t="s">
@@ -22281,7 +22285,7 @@
       <c r="H655" t="s">
         <v>832</v>
       </c>
-      <c r="I655" t="s">
+      <c r="I655" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K655" t="s">
@@ -22310,7 +22314,7 @@
       <c r="H656" t="s">
         <v>832</v>
       </c>
-      <c r="I656" t="s">
+      <c r="I656" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K656" t="s">
@@ -22339,7 +22343,7 @@
       <c r="H657" t="s">
         <v>832</v>
       </c>
-      <c r="I657" t="s">
+      <c r="I657" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K657" t="s">
@@ -22368,7 +22372,7 @@
       <c r="H658" t="s">
         <v>832</v>
       </c>
-      <c r="I658" t="s">
+      <c r="I658" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K658" t="s">
@@ -22397,7 +22401,7 @@
       <c r="H659" t="s">
         <v>832</v>
       </c>
-      <c r="I659" t="s">
+      <c r="I659" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K659" t="s">
@@ -22426,7 +22430,7 @@
       <c r="H660" t="s">
         <v>832</v>
       </c>
-      <c r="I660" t="s">
+      <c r="I660" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K660" t="s">
@@ -22455,8 +22459,8 @@
       <c r="H661" t="s">
         <v>832</v>
       </c>
-      <c r="I661" t="s">
-        <v>860</v>
+      <c r="I661" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="K661" t="s">
         <v>811</v>
@@ -22484,7 +22488,7 @@
       <c r="H662" t="s">
         <v>832</v>
       </c>
-      <c r="I662" t="s">
+      <c r="I662" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K662" t="s">
@@ -22513,7 +22517,7 @@
       <c r="H663" t="s">
         <v>832</v>
       </c>
-      <c r="I663" t="s">
+      <c r="I663" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K663" t="s">
@@ -22542,7 +22546,7 @@
       <c r="H664" t="s">
         <v>832</v>
       </c>
-      <c r="I664" t="s">
+      <c r="I664" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K664" t="s">
@@ -22571,7 +22575,7 @@
       <c r="H665" t="s">
         <v>832</v>
       </c>
-      <c r="I665" t="s">
+      <c r="I665" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K665" t="s">
@@ -22600,7 +22604,7 @@
       <c r="H666" t="s">
         <v>832</v>
       </c>
-      <c r="I666" t="s">
+      <c r="I666" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K666" t="s">
@@ -22629,7 +22633,7 @@
       <c r="H667" t="s">
         <v>832</v>
       </c>
-      <c r="I667" t="s">
+      <c r="I667" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K667" t="s">
@@ -22658,7 +22662,7 @@
       <c r="H668" t="s">
         <v>832</v>
       </c>
-      <c r="I668" t="s">
+      <c r="I668" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K668" t="s">
@@ -22687,7 +22691,7 @@
       <c r="H669" t="s">
         <v>832</v>
       </c>
-      <c r="I669" t="s">
+      <c r="I669" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K669" t="s">
@@ -22716,7 +22720,7 @@
       <c r="H670" t="s">
         <v>832</v>
       </c>
-      <c r="I670" t="s">
+      <c r="I670" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K670" t="s">
@@ -22745,8 +22749,8 @@
       <c r="H671" t="s">
         <v>832</v>
       </c>
-      <c r="I671" t="s">
-        <v>860</v>
+      <c r="I671" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="K671" t="s">
         <v>811</v>
@@ -22774,7 +22778,7 @@
       <c r="H672" t="s">
         <v>832</v>
       </c>
-      <c r="I672" t="s">
+      <c r="I672" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K672" t="s">
@@ -22803,7 +22807,7 @@
       <c r="H673" t="s">
         <v>832</v>
       </c>
-      <c r="I673" t="s">
+      <c r="I673" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K673" t="s">
@@ -22832,8 +22836,8 @@
       <c r="H674" t="s">
         <v>832</v>
       </c>
-      <c r="I674" t="s">
-        <v>861</v>
+      <c r="I674" s="1" t="s">
+        <v>860</v>
       </c>
       <c r="K674" t="s">
         <v>811</v>
@@ -22861,7 +22865,7 @@
       <c r="H675" t="s">
         <v>832</v>
       </c>
-      <c r="I675" t="s">
+      <c r="I675" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K675" t="s">
@@ -22890,8 +22894,8 @@
       <c r="H676" t="s">
         <v>832</v>
       </c>
-      <c r="I676" t="s">
-        <v>862</v>
+      <c r="I676" s="1" t="s">
+        <v>861</v>
       </c>
       <c r="K676" t="s">
         <v>811</v>
@@ -22919,7 +22923,7 @@
       <c r="H677" t="s">
         <v>832</v>
       </c>
-      <c r="I677" t="s">
+      <c r="I677" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K677" t="s">
@@ -22948,8 +22952,8 @@
       <c r="H678" t="s">
         <v>832</v>
       </c>
-      <c r="I678" t="s">
-        <v>860</v>
+      <c r="I678" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="K678" t="s">
         <v>811</v>
@@ -22977,7 +22981,7 @@
       <c r="H679" t="s">
         <v>832</v>
       </c>
-      <c r="I679" t="s">
+      <c r="I679" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K679" t="s">
@@ -23006,8 +23010,8 @@
       <c r="H680" t="s">
         <v>832</v>
       </c>
-      <c r="I680" t="s">
-        <v>860</v>
+      <c r="I680" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="K680" t="s">
         <v>811</v>
@@ -23035,7 +23039,7 @@
       <c r="H681" t="s">
         <v>832</v>
       </c>
-      <c r="I681" t="s">
+      <c r="I681" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K681" t="s">
@@ -23064,7 +23068,7 @@
       <c r="H682" t="s">
         <v>832</v>
       </c>
-      <c r="I682" t="s">
+      <c r="I682" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K682" t="s">
@@ -23093,7 +23097,7 @@
       <c r="H683" t="s">
         <v>832</v>
       </c>
-      <c r="I683" t="s">
+      <c r="I683" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K683" t="s">
@@ -23122,7 +23126,7 @@
       <c r="H684" t="s">
         <v>832</v>
       </c>
-      <c r="I684" t="s">
+      <c r="I684" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K684" t="s">
@@ -23151,7 +23155,7 @@
       <c r="H685" t="s">
         <v>832</v>
       </c>
-      <c r="I685" t="s">
+      <c r="I685" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K685" t="s">
@@ -23180,7 +23184,7 @@
       <c r="H686" t="s">
         <v>832</v>
       </c>
-      <c r="I686" t="s">
+      <c r="I686" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K686" t="s">
@@ -23209,7 +23213,7 @@
       <c r="H687" t="s">
         <v>832</v>
       </c>
-      <c r="I687" t="s">
+      <c r="I687" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K687" t="s">
@@ -23238,7 +23242,7 @@
       <c r="H688" t="s">
         <v>832</v>
       </c>
-      <c r="I688" t="s">
+      <c r="I688" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K688" t="s">
@@ -23267,7 +23271,7 @@
       <c r="H689" t="s">
         <v>832</v>
       </c>
-      <c r="I689" t="s">
+      <c r="I689" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K689" t="s">
@@ -23296,8 +23300,8 @@
       <c r="H690" t="s">
         <v>832</v>
       </c>
-      <c r="I690" t="s">
-        <v>860</v>
+      <c r="I690" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="K690" t="s">
         <v>811</v>
@@ -23325,7 +23329,7 @@
       <c r="H691" t="s">
         <v>832</v>
       </c>
-      <c r="I691" t="s">
+      <c r="I691" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K691" t="s">
@@ -23354,7 +23358,7 @@
       <c r="H692" t="s">
         <v>832</v>
       </c>
-      <c r="I692" t="s">
+      <c r="I692" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K692" t="s">
@@ -23383,7 +23387,7 @@
       <c r="H693" t="s">
         <v>832</v>
       </c>
-      <c r="I693" t="s">
+      <c r="I693" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K693" t="s">
@@ -23412,7 +23416,7 @@
       <c r="H694" t="s">
         <v>832</v>
       </c>
-      <c r="I694" t="s">
+      <c r="I694" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K694" t="s">
@@ -23441,7 +23445,7 @@
       <c r="H695" t="s">
         <v>832</v>
       </c>
-      <c r="I695" t="s">
+      <c r="I695" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K695" t="s">
@@ -23470,7 +23474,7 @@
       <c r="H696" t="s">
         <v>832</v>
       </c>
-      <c r="I696" t="s">
+      <c r="I696" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K696" t="s">
@@ -23499,7 +23503,7 @@
       <c r="H697" t="s">
         <v>832</v>
       </c>
-      <c r="I697" t="s">
+      <c r="I697" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K697" t="s">
@@ -23528,8 +23532,8 @@
       <c r="H698" t="s">
         <v>832</v>
       </c>
-      <c r="I698" t="s">
-        <v>860</v>
+      <c r="I698" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="K698" t="s">
         <v>811</v>
@@ -23557,7 +23561,7 @@
       <c r="H699" t="s">
         <v>832</v>
       </c>
-      <c r="I699" t="s">
+      <c r="I699" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K699" t="s">
@@ -23586,7 +23590,7 @@
       <c r="H700" t="s">
         <v>832</v>
       </c>
-      <c r="I700" t="s">
+      <c r="I700" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K700" t="s">
@@ -23615,7 +23619,7 @@
       <c r="H701" t="s">
         <v>832</v>
       </c>
-      <c r="I701" t="s">
+      <c r="I701" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K701" t="s">
@@ -23644,7 +23648,7 @@
       <c r="H702" t="s">
         <v>832</v>
       </c>
-      <c r="I702" t="s">
+      <c r="I702" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K702" t="s">
@@ -23673,7 +23677,7 @@
       <c r="H703" t="s">
         <v>832</v>
       </c>
-      <c r="I703" t="s">
+      <c r="I703" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K703" t="s">
@@ -23702,7 +23706,7 @@
       <c r="H704" t="s">
         <v>832</v>
       </c>
-      <c r="I704" t="s">
+      <c r="I704" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K704" t="s">
@@ -23712,7 +23716,7 @@
         <v>811</v>
       </c>
       <c r="M704" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.2">
@@ -23731,7 +23735,7 @@
       <c r="H705" t="s">
         <v>832</v>
       </c>
-      <c r="I705" t="s">
+      <c r="I705" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K705" t="s">
@@ -23741,7 +23745,7 @@
         <v>811</v>
       </c>
       <c r="M705" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="706" spans="1:13" x14ac:dyDescent="0.2">
@@ -23760,7 +23764,7 @@
       <c r="H706" t="s">
         <v>832</v>
       </c>
-      <c r="I706" t="s">
+      <c r="I706" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K706" t="s">
@@ -23770,7 +23774,7 @@
         <v>811</v>
       </c>
       <c r="M706" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="707" spans="1:13" x14ac:dyDescent="0.2">
@@ -23789,7 +23793,7 @@
       <c r="H707" t="s">
         <v>832</v>
       </c>
-      <c r="I707" t="s">
+      <c r="I707" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K707" t="s">
@@ -23818,7 +23822,7 @@
       <c r="H708" t="s">
         <v>832</v>
       </c>
-      <c r="I708" t="s">
+      <c r="I708" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K708" t="s">
@@ -23828,7 +23832,7 @@
         <v>811</v>
       </c>
       <c r="M708" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="709" spans="1:13" x14ac:dyDescent="0.2">
@@ -23847,7 +23851,7 @@
       <c r="H709" t="s">
         <v>832</v>
       </c>
-      <c r="I709" t="s">
+      <c r="I709" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K709" t="s">
@@ -23876,7 +23880,7 @@
       <c r="H710" t="s">
         <v>832</v>
       </c>
-      <c r="I710" t="s">
+      <c r="I710" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K710" t="s">
@@ -23905,7 +23909,7 @@
       <c r="H711" t="s">
         <v>832</v>
       </c>
-      <c r="I711" t="s">
+      <c r="I711" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K711" t="s">
@@ -23934,7 +23938,7 @@
       <c r="H712" t="s">
         <v>832</v>
       </c>
-      <c r="I712" t="s">
+      <c r="I712" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K712" t="s">
@@ -23963,7 +23967,7 @@
       <c r="H713" t="s">
         <v>832</v>
       </c>
-      <c r="I713" t="s">
+      <c r="I713" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K713" t="s">
@@ -23992,7 +23996,7 @@
       <c r="H714" t="s">
         <v>832</v>
       </c>
-      <c r="I714" t="s">
+      <c r="I714" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K714" t="s">
@@ -24021,7 +24025,7 @@
       <c r="H715" t="s">
         <v>832</v>
       </c>
-      <c r="I715" t="s">
+      <c r="I715" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K715" t="s">
@@ -24050,7 +24054,7 @@
       <c r="H716" t="s">
         <v>832</v>
       </c>
-      <c r="I716" t="s">
+      <c r="I716" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K716" t="s">
@@ -24079,7 +24083,7 @@
       <c r="H717" t="s">
         <v>832</v>
       </c>
-      <c r="I717" t="s">
+      <c r="I717" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K717" t="s">
@@ -24108,7 +24112,7 @@
       <c r="H718" t="s">
         <v>832</v>
       </c>
-      <c r="I718" t="s">
+      <c r="I718" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K718" t="s">
@@ -24137,7 +24141,7 @@
       <c r="H719" t="s">
         <v>832</v>
       </c>
-      <c r="I719" t="s">
+      <c r="I719" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K719" t="s">
@@ -24166,7 +24170,7 @@
       <c r="H720" t="s">
         <v>832</v>
       </c>
-      <c r="I720" t="s">
+      <c r="I720" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K720" t="s">
@@ -24195,7 +24199,7 @@
       <c r="H721" t="s">
         <v>832</v>
       </c>
-      <c r="I721" t="s">
+      <c r="I721" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K721" t="s">
@@ -24224,7 +24228,7 @@
       <c r="H722" t="s">
         <v>811</v>
       </c>
-      <c r="I722" t="s">
+      <c r="I722" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K722" t="s">
@@ -24234,7 +24238,7 @@
         <v>811</v>
       </c>
       <c r="M722" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="723" spans="1:13" x14ac:dyDescent="0.2">
@@ -24253,7 +24257,7 @@
       <c r="H723" t="s">
         <v>811</v>
       </c>
-      <c r="I723" t="s">
+      <c r="I723" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K723" t="s">
@@ -24263,7 +24267,7 @@
         <v>811</v>
       </c>
       <c r="M723" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="724" spans="1:13" x14ac:dyDescent="0.2">
@@ -24282,7 +24286,7 @@
       <c r="H724" t="s">
         <v>811</v>
       </c>
-      <c r="I724" t="s">
+      <c r="I724" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K724" t="s">
@@ -24311,7 +24315,7 @@
       <c r="H725" t="s">
         <v>811</v>
       </c>
-      <c r="I725" t="s">
+      <c r="I725" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K725" t="s">
@@ -24340,7 +24344,7 @@
       <c r="H726" t="s">
         <v>811</v>
       </c>
-      <c r="I726" t="s">
+      <c r="I726" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K726" t="s">
@@ -24369,7 +24373,7 @@
       <c r="H727" t="s">
         <v>811</v>
       </c>
-      <c r="I727" t="s">
+      <c r="I727" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K727" t="s">
@@ -24398,7 +24402,7 @@
       <c r="H728" t="s">
         <v>811</v>
       </c>
-      <c r="I728" t="s">
+      <c r="I728" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K728" t="s">
@@ -24427,7 +24431,7 @@
       <c r="H729" t="s">
         <v>811</v>
       </c>
-      <c r="I729" t="s">
+      <c r="I729" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K729" t="s">
@@ -24456,7 +24460,7 @@
       <c r="H730" t="s">
         <v>811</v>
       </c>
-      <c r="I730" t="s">
+      <c r="I730" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K730" t="s">
@@ -24485,7 +24489,7 @@
       <c r="H731" t="s">
         <v>811</v>
       </c>
-      <c r="I731" t="s">
+      <c r="I731" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K731" t="s">
@@ -24514,7 +24518,7 @@
       <c r="H732" t="s">
         <v>811</v>
       </c>
-      <c r="I732" t="s">
+      <c r="I732" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K732" t="s">
@@ -24543,7 +24547,7 @@
       <c r="H733" t="s">
         <v>811</v>
       </c>
-      <c r="I733" t="s">
+      <c r="I733" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K733" t="s">
@@ -24572,7 +24576,7 @@
       <c r="H734" t="s">
         <v>811</v>
       </c>
-      <c r="I734" t="s">
+      <c r="I734" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K734" t="s">
@@ -24601,7 +24605,7 @@
       <c r="H735" t="s">
         <v>811</v>
       </c>
-      <c r="I735" t="s">
+      <c r="I735" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K735" t="s">
@@ -24630,7 +24634,7 @@
       <c r="H736" t="s">
         <v>811</v>
       </c>
-      <c r="I736" t="s">
+      <c r="I736" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K736" t="s">
@@ -24659,7 +24663,7 @@
       <c r="H737" t="s">
         <v>811</v>
       </c>
-      <c r="I737" t="s">
+      <c r="I737" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K737" t="s">
@@ -24688,7 +24692,7 @@
       <c r="H738" t="s">
         <v>811</v>
       </c>
-      <c r="I738" t="s">
+      <c r="I738" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K738" t="s">
@@ -24717,7 +24721,7 @@
       <c r="H739" t="s">
         <v>811</v>
       </c>
-      <c r="I739" t="s">
+      <c r="I739" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K739" t="s">
@@ -24746,7 +24750,7 @@
       <c r="H740" t="s">
         <v>811</v>
       </c>
-      <c r="I740" t="s">
+      <c r="I740" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K740" t="s">
@@ -24775,7 +24779,7 @@
       <c r="H741" t="s">
         <v>811</v>
       </c>
-      <c r="I741" t="s">
+      <c r="I741" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K741" t="s">
@@ -24804,7 +24808,7 @@
       <c r="H742" t="s">
         <v>811</v>
       </c>
-      <c r="I742" t="s">
+      <c r="I742" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K742" t="s">
@@ -24833,7 +24837,7 @@
       <c r="H743" t="s">
         <v>811</v>
       </c>
-      <c r="I743" t="s">
+      <c r="I743" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K743" t="s">
@@ -24862,7 +24866,7 @@
       <c r="H744" t="s">
         <v>811</v>
       </c>
-      <c r="I744" t="s">
+      <c r="I744" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K744" t="s">
@@ -24891,7 +24895,7 @@
       <c r="H745" t="s">
         <v>811</v>
       </c>
-      <c r="I745" t="s">
+      <c r="I745" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K745" t="s">
@@ -24920,7 +24924,7 @@
       <c r="H746" t="s">
         <v>811</v>
       </c>
-      <c r="I746" t="s">
+      <c r="I746" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K746" t="s">
@@ -24949,7 +24953,7 @@
       <c r="H747" t="s">
         <v>811</v>
       </c>
-      <c r="I747" t="s">
+      <c r="I747" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K747" t="s">
@@ -24978,7 +24982,7 @@
       <c r="H748" t="s">
         <v>811</v>
       </c>
-      <c r="I748" t="s">
+      <c r="I748" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K748" t="s">
@@ -25007,7 +25011,7 @@
       <c r="H749" t="s">
         <v>811</v>
       </c>
-      <c r="I749" t="s">
+      <c r="I749" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K749" t="s">
@@ -25036,8 +25040,8 @@
       <c r="H750" t="s">
         <v>811</v>
       </c>
-      <c r="I750" t="s">
-        <v>863</v>
+      <c r="I750" s="1" t="s">
+        <v>862</v>
       </c>
       <c r="K750" t="s">
         <v>811</v>
@@ -25065,7 +25069,7 @@
       <c r="H751" t="s">
         <v>811</v>
       </c>
-      <c r="I751" t="s">
+      <c r="I751" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K751" t="s">
@@ -25094,8 +25098,8 @@
       <c r="H752" t="s">
         <v>811</v>
       </c>
-      <c r="I752" t="s">
-        <v>864</v>
+      <c r="I752" s="1" t="s">
+        <v>863</v>
       </c>
       <c r="K752" t="s">
         <v>811</v>
@@ -25123,7 +25127,7 @@
       <c r="H753" t="s">
         <v>811</v>
       </c>
-      <c r="I753" t="s">
+      <c r="I753" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K753" t="s">
@@ -25152,7 +25156,7 @@
       <c r="H754" t="s">
         <v>811</v>
       </c>
-      <c r="I754" t="s">
+      <c r="I754" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K754" t="s">
@@ -25181,8 +25185,8 @@
       <c r="H755" t="s">
         <v>811</v>
       </c>
-      <c r="I755" t="s">
-        <v>865</v>
+      <c r="I755" s="1" t="s">
+        <v>864</v>
       </c>
       <c r="K755" t="s">
         <v>811</v>
@@ -25210,11 +25214,11 @@
       <c r="H756" t="s">
         <v>811</v>
       </c>
-      <c r="I756" t="s">
-        <v>866</v>
+      <c r="I756" s="1" t="s">
+        <v>865</v>
       </c>
       <c r="K756" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L756" t="s">
         <v>832</v>
@@ -25239,11 +25243,11 @@
       <c r="H757" t="s">
         <v>811</v>
       </c>
-      <c r="I757" t="s">
-        <v>867</v>
+      <c r="I757" s="1" t="s">
+        <v>866</v>
       </c>
       <c r="K757" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L757" t="s">
         <v>832</v>
@@ -25268,7 +25272,7 @@
       <c r="H758" t="s">
         <v>811</v>
       </c>
-      <c r="I758" t="s">
+      <c r="I758" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K758" t="s">
@@ -25297,8 +25301,8 @@
       <c r="H759" t="s">
         <v>811</v>
       </c>
-      <c r="I759" t="s">
-        <v>868</v>
+      <c r="I759" s="1" t="s">
+        <v>867</v>
       </c>
       <c r="K759" t="s">
         <v>811</v>
@@ -25326,7 +25330,7 @@
       <c r="H760" t="s">
         <v>811</v>
       </c>
-      <c r="I760" t="s">
+      <c r="I760" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K760" t="s">
@@ -25355,8 +25359,8 @@
       <c r="H761" t="s">
         <v>811</v>
       </c>
-      <c r="I761" t="s">
-        <v>869</v>
+      <c r="I761" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="K761" t="s">
         <v>811</v>
@@ -25384,8 +25388,8 @@
       <c r="H762" t="s">
         <v>811</v>
       </c>
-      <c r="I762" t="s">
-        <v>870</v>
+      <c r="I762" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="K762" t="s">
         <v>811</v>
@@ -25413,7 +25417,7 @@
       <c r="H763" t="s">
         <v>811</v>
       </c>
-      <c r="I763" t="s">
+      <c r="I763" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K763" t="s">
@@ -25442,7 +25446,7 @@
       <c r="H764" t="s">
         <v>811</v>
       </c>
-      <c r="I764" t="s">
+      <c r="I764" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K764" t="s">
@@ -25471,7 +25475,7 @@
       <c r="H765" t="s">
         <v>811</v>
       </c>
-      <c r="I765" t="s">
+      <c r="I765" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K765" t="s">
@@ -25500,7 +25504,7 @@
       <c r="H766" t="s">
         <v>811</v>
       </c>
-      <c r="I766" t="s">
+      <c r="I766" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K766" t="s">
@@ -25529,7 +25533,7 @@
       <c r="H767" t="s">
         <v>811</v>
       </c>
-      <c r="I767" t="s">
+      <c r="I767" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K767" t="s">
@@ -25558,11 +25562,11 @@
       <c r="H768" t="s">
         <v>811</v>
       </c>
-      <c r="I768" t="s">
-        <v>871</v>
+      <c r="I768" s="1" t="s">
+        <v>870</v>
       </c>
       <c r="K768" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="L768" t="s">
         <v>832</v>
@@ -25576,7 +25580,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D769" t="s">
         <v>815</v>
@@ -25587,7 +25591,7 @@
       <c r="H769" t="s">
         <v>811</v>
       </c>
-      <c r="I769" t="s">
+      <c r="I769" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K769" t="s">
@@ -25597,7 +25601,7 @@
         <v>811</v>
       </c>
       <c r="M769" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="770" spans="1:13" x14ac:dyDescent="0.2">
@@ -25616,8 +25620,8 @@
       <c r="H770" t="s">
         <v>811</v>
       </c>
-      <c r="I770" t="s">
-        <v>844</v>
+      <c r="I770" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="K770" t="s">
         <v>811</v>
@@ -25626,7 +25630,7 @@
         <v>811</v>
       </c>
       <c r="M770" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="771" spans="1:13" x14ac:dyDescent="0.2">
@@ -25645,17 +25649,17 @@
       <c r="H771" t="s">
         <v>811</v>
       </c>
-      <c r="I771" t="s">
-        <v>872</v>
+      <c r="I771" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="K771" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L771" t="s">
         <v>832</v>
       </c>
       <c r="M771" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.2">
@@ -25674,17 +25678,17 @@
       <c r="H772" t="s">
         <v>811</v>
       </c>
-      <c r="I772" t="s">
+      <c r="I772" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="K772" t="s">
+        <v>916</v>
+      </c>
+      <c r="L772" t="s">
+        <v>832</v>
+      </c>
+      <c r="M772" t="s">
         <v>957</v>
-      </c>
-      <c r="K772" t="s">
-        <v>917</v>
-      </c>
-      <c r="L772" t="s">
-        <v>832</v>
-      </c>
-      <c r="M772" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="773" spans="1:13" x14ac:dyDescent="0.2">
@@ -25703,7 +25707,7 @@
       <c r="H773" t="s">
         <v>811</v>
       </c>
-      <c r="I773" t="s">
+      <c r="I773" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K773" t="s">
@@ -25732,8 +25736,8 @@
       <c r="H774" t="s">
         <v>811</v>
       </c>
-      <c r="I774" t="s">
-        <v>844</v>
+      <c r="I774" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="K774" t="s">
         <v>811</v>
@@ -25761,11 +25765,11 @@
       <c r="H775" t="s">
         <v>811</v>
       </c>
-      <c r="I775" t="s">
-        <v>873</v>
+      <c r="I775" s="1" t="s">
+        <v>872</v>
       </c>
       <c r="K775" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L775" t="s">
         <v>832</v>
@@ -25790,11 +25794,11 @@
       <c r="H776" t="s">
         <v>811</v>
       </c>
-      <c r="I776" t="s">
-        <v>959</v>
+      <c r="I776" s="1" t="s">
+        <v>958</v>
       </c>
       <c r="K776" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L776" t="s">
         <v>832</v>
@@ -25819,7 +25823,7 @@
       <c r="H777" t="s">
         <v>811</v>
       </c>
-      <c r="I777" t="s">
+      <c r="I777" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K777" t="s">
@@ -25848,7 +25852,7 @@
       <c r="H778" t="s">
         <v>811</v>
       </c>
-      <c r="I778" t="s">
+      <c r="I778" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K778" t="s">
@@ -25877,7 +25881,7 @@
       <c r="H779" t="s">
         <v>811</v>
       </c>
-      <c r="I779" t="s">
+      <c r="I779" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K779" t="s">
@@ -25906,7 +25910,7 @@
       <c r="H780" t="s">
         <v>811</v>
       </c>
-      <c r="I780" t="s">
+      <c r="I780" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K780" t="s">
@@ -25935,7 +25939,7 @@
       <c r="H781" t="s">
         <v>811</v>
       </c>
-      <c r="I781" t="s">
+      <c r="I781" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K781" t="s">
@@ -25964,8 +25968,8 @@
       <c r="H782" t="s">
         <v>811</v>
       </c>
-      <c r="I782" t="s">
-        <v>874</v>
+      <c r="I782" s="1" t="s">
+        <v>873</v>
       </c>
       <c r="K782" t="s">
         <v>811</v>
@@ -25993,8 +25997,8 @@
       <c r="H783" t="s">
         <v>811</v>
       </c>
-      <c r="I783" t="s">
-        <v>875</v>
+      <c r="I783" s="1" t="s">
+        <v>874</v>
       </c>
       <c r="K783" t="s">
         <v>811</v>
@@ -26022,11 +26026,11 @@
       <c r="H784" t="s">
         <v>811</v>
       </c>
-      <c r="I784" t="s">
-        <v>876</v>
+      <c r="I784" s="1" t="s">
+        <v>875</v>
       </c>
       <c r="K784" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L784" t="s">
         <v>832</v>
@@ -26051,11 +26055,11 @@
       <c r="H785" t="s">
         <v>811</v>
       </c>
-      <c r="I785" t="s">
-        <v>877</v>
+      <c r="I785" s="1" t="s">
+        <v>876</v>
       </c>
       <c r="K785" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L785" t="s">
         <v>832</v>
@@ -26080,7 +26084,7 @@
       <c r="H786" t="s">
         <v>811</v>
       </c>
-      <c r="I786" t="s">
+      <c r="I786" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K786" t="s">
@@ -26109,7 +26113,7 @@
       <c r="H787" t="s">
         <v>832</v>
       </c>
-      <c r="I787" t="s">
+      <c r="I787" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K787" t="s">
@@ -26138,7 +26142,7 @@
       <c r="H788" t="s">
         <v>811</v>
       </c>
-      <c r="I788" t="s">
+      <c r="I788" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K788" t="s">
@@ -26156,7 +26160,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D789" t="s">
         <v>815</v>
@@ -26167,7 +26171,7 @@
       <c r="H789" t="s">
         <v>832</v>
       </c>
-      <c r="I789" t="s">
+      <c r="I789" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K789" t="s">
@@ -26177,7 +26181,7 @@
         <v>811</v>
       </c>
       <c r="M789" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="790" spans="1:13" x14ac:dyDescent="0.2">
@@ -26185,7 +26189,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D790" t="s">
         <v>815</v>
@@ -26196,7 +26200,7 @@
       <c r="H790" t="s">
         <v>832</v>
       </c>
-      <c r="I790" t="s">
+      <c r="I790" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K790" t="s">
@@ -26206,7 +26210,7 @@
         <v>811</v>
       </c>
       <c r="M790" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="791" spans="1:13" x14ac:dyDescent="0.2">
@@ -26214,7 +26218,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D791" t="s">
         <v>815</v>
@@ -26225,7 +26229,7 @@
       <c r="H791" t="s">
         <v>832</v>
       </c>
-      <c r="I791" t="s">
+      <c r="I791" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K791" t="s">
@@ -26235,7 +26239,7 @@
         <v>811</v>
       </c>
       <c r="M791" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="792" spans="1:13" x14ac:dyDescent="0.2">
@@ -26243,7 +26247,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D792" t="s">
         <v>815</v>
@@ -26254,7 +26258,7 @@
       <c r="H792" t="s">
         <v>832</v>
       </c>
-      <c r="I792" t="s">
+      <c r="I792" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K792" t="s">
@@ -26264,7 +26268,7 @@
         <v>811</v>
       </c>
       <c r="M792" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="793" spans="1:13" x14ac:dyDescent="0.2">
@@ -26272,7 +26276,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D793" t="s">
         <v>815</v>
@@ -26283,7 +26287,7 @@
       <c r="H793" t="s">
         <v>832</v>
       </c>
-      <c r="I793" t="s">
+      <c r="I793" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K793" t="s">
@@ -26293,7 +26297,7 @@
         <v>811</v>
       </c>
       <c r="M793" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="794" spans="1:13" x14ac:dyDescent="0.2">
@@ -26301,7 +26305,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D794" t="s">
         <v>815</v>
@@ -26312,7 +26316,7 @@
       <c r="H794" t="s">
         <v>832</v>
       </c>
-      <c r="I794" t="s">
+      <c r="I794" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K794" t="s">
@@ -26322,7 +26326,7 @@
         <v>811</v>
       </c>
       <c r="M794" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="795" spans="1:13" x14ac:dyDescent="0.2">
@@ -26341,8 +26345,8 @@
       <c r="H795" t="s">
         <v>832</v>
       </c>
-      <c r="I795" t="s">
-        <v>878</v>
+      <c r="I795" s="1" t="s">
+        <v>877</v>
       </c>
       <c r="K795" t="s">
         <v>811</v>
@@ -26370,7 +26374,7 @@
       <c r="H796" t="s">
         <v>811</v>
       </c>
-      <c r="I796" t="s">
+      <c r="I796" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K796" t="s">
@@ -26399,7 +26403,7 @@
       <c r="H797" t="s">
         <v>811</v>
       </c>
-      <c r="I797" t="s">
+      <c r="I797" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K797" t="s">
@@ -26428,7 +26432,7 @@
       <c r="H798" t="s">
         <v>811</v>
       </c>
-      <c r="I798" t="s">
+      <c r="I798" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K798" t="s">
@@ -26457,7 +26461,7 @@
       <c r="H799" t="s">
         <v>811</v>
       </c>
-      <c r="I799" t="s">
+      <c r="I799" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K799" t="s">
@@ -26486,7 +26490,7 @@
       <c r="H800" t="s">
         <v>811</v>
       </c>
-      <c r="I800" t="s">
+      <c r="I800" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K800" t="s">
@@ -26515,7 +26519,7 @@
       <c r="H801" t="s">
         <v>811</v>
       </c>
-      <c r="I801" t="s">
+      <c r="I801" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K801" t="s">
@@ -26544,8 +26548,8 @@
       <c r="H802" t="s">
         <v>811</v>
       </c>
-      <c r="I802" t="s">
-        <v>869</v>
+      <c r="I802" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="K802" t="s">
         <v>811</v>
@@ -26573,8 +26577,8 @@
       <c r="H803" t="s">
         <v>811</v>
       </c>
-      <c r="I803" t="s">
-        <v>870</v>
+      <c r="I803" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="K803" t="s">
         <v>811</v>
@@ -26602,8 +26606,8 @@
       <c r="H804" t="s">
         <v>811</v>
       </c>
-      <c r="I804" t="s">
-        <v>869</v>
+      <c r="I804" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="K804" t="s">
         <v>811</v>
@@ -26631,8 +26635,8 @@
       <c r="H805" t="s">
         <v>811</v>
       </c>
-      <c r="I805" t="s">
-        <v>870</v>
+      <c r="I805" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="K805" t="s">
         <v>811</v>
@@ -26660,7 +26664,7 @@
       <c r="H806" t="s">
         <v>811</v>
       </c>
-      <c r="I806" t="s">
+      <c r="I806" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K806" t="s">
@@ -26670,7 +26674,7 @@
         <v>811</v>
       </c>
       <c r="M806" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.2">
@@ -26689,7 +26693,7 @@
       <c r="H807" t="s">
         <v>811</v>
       </c>
-      <c r="I807" t="s">
+      <c r="I807" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K807" t="s">
@@ -26699,7 +26703,7 @@
         <v>811</v>
       </c>
       <c r="M807" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.2">
@@ -26718,7 +26722,7 @@
       <c r="H808" t="s">
         <v>811</v>
       </c>
-      <c r="I808" t="s">
+      <c r="I808" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K808" t="s">
@@ -26728,7 +26732,7 @@
         <v>811</v>
       </c>
       <c r="M808" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.2">
@@ -26736,7 +26740,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D809" t="s">
         <v>817</v>
@@ -26747,7 +26751,7 @@
       <c r="H809" t="s">
         <v>811</v>
       </c>
-      <c r="I809" t="s">
+      <c r="I809" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K809" t="s">
@@ -26765,7 +26769,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D810" t="s">
         <v>817</v>
@@ -26776,7 +26780,7 @@
       <c r="H810" t="s">
         <v>811</v>
       </c>
-      <c r="I810" t="s">
+      <c r="I810" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K810" t="s">
@@ -26794,7 +26798,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D811" t="s">
         <v>817</v>
@@ -26805,7 +26809,7 @@
       <c r="H811" t="s">
         <v>811</v>
       </c>
-      <c r="I811" t="s">
+      <c r="I811" s="1" t="s">
         <v>811</v>
       </c>
       <c r="K811" t="s">

--- a/data/variables/ds1/variables.xlsx
+++ b/data/variables/ds1/variables.xlsx
@@ -8562,8 +8562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1897" workbookViewId="0">
-      <selection activeCell="C1916" sqref="C1916"/>
+    <sheetView tabSelected="1" topLeftCell="A1478" workbookViewId="0">
+      <selection activeCell="B1502" sqref="B1502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8738,7 +8738,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C5" t="s">
         <v>2219</v>
@@ -8814,7 +8814,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C7" t="s">
         <v>2219</v>
@@ -9574,7 +9574,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C27" t="s">
         <v>2219</v>
@@ -9650,7 +9650,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C29" t="s">
         <v>2219</v>
@@ -10410,7 +10410,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C49" t="s">
         <v>2219</v>
@@ -10486,7 +10486,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C51" t="s">
         <v>2219</v>
@@ -11246,7 +11246,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C71" t="s">
         <v>2219</v>
@@ -11322,7 +11322,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C73" t="s">
         <v>2219</v>
@@ -12082,7 +12082,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C93" t="s">
         <v>2219</v>
@@ -12158,7 +12158,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C95" t="s">
         <v>2219</v>
@@ -12918,7 +12918,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C115" t="s">
         <v>2219</v>
@@ -13602,7 +13602,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C133" t="s">
         <v>2219</v>
@@ -14286,7 +14286,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C151" t="s">
         <v>2219</v>
@@ -15046,7 +15046,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C171" t="s">
         <v>2219</v>
@@ -20936,7 +20936,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C326" t="s">
         <v>2219</v>
@@ -21050,7 +21050,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C329" t="s">
         <v>2219</v>
@@ -22266,7 +22266,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C361" t="s">
         <v>2219</v>
@@ -22380,7 +22380,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C364" t="s">
         <v>2219</v>
@@ -28384,7 +28384,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C522" t="s">
         <v>2268</v>
@@ -28460,7 +28460,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C524" t="s">
         <v>2270</v>
@@ -28916,7 +28916,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C536" t="s">
         <v>2282</v>
@@ -28992,7 +28992,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C538" t="s">
         <v>2284</v>
@@ -29448,7 +29448,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C550" t="s">
         <v>2296</v>
@@ -29524,7 +29524,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C552" t="s">
         <v>2298</v>
@@ -29980,7 +29980,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C564" t="s">
         <v>2310</v>
@@ -30056,7 +30056,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C566" t="s">
         <v>2312</v>
@@ -30512,7 +30512,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C578" t="s">
         <v>2324</v>
@@ -30588,7 +30588,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C580" t="s">
         <v>2326</v>
@@ -31044,7 +31044,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C592" t="s">
         <v>2338</v>
@@ -31120,7 +31120,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C594" t="s">
         <v>2340</v>
@@ -37200,7 +37200,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C754" t="s">
         <v>2219</v>
@@ -37580,7 +37580,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C764" t="s">
         <v>2219</v>
@@ -37732,7 +37732,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C768" t="s">
         <v>2219</v>
@@ -37770,7 +37770,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C769" t="s">
         <v>2219</v>
@@ -38112,7 +38112,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C778" t="s">
         <v>2219</v>
@@ -38606,7 +38606,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C791" t="s">
         <v>2424</v>
@@ -38682,7 +38682,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C793" t="s">
         <v>2426</v>
@@ -38758,7 +38758,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C795" t="s">
         <v>2428</v>
@@ -39290,7 +39290,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C809" t="s">
         <v>2431</v>
@@ -41152,7 +41152,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C858" t="s">
         <v>2219</v>
@@ -41228,7 +41228,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C860" t="s">
         <v>2219</v>
@@ -44382,7 +44382,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C943" t="s">
         <v>2268</v>
@@ -44458,7 +44458,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C945" t="s">
         <v>2270</v>
@@ -44952,7 +44952,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C958" t="s">
         <v>2282</v>
@@ -45028,7 +45028,7 @@
         <v>959</v>
       </c>
       <c r="B960" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C960" t="s">
         <v>2284</v>
@@ -45522,7 +45522,7 @@
         <v>972</v>
       </c>
       <c r="B973" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C973" t="s">
         <v>2296</v>
@@ -45598,7 +45598,7 @@
         <v>974</v>
       </c>
       <c r="B975" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C975" t="s">
         <v>2298</v>
@@ -46092,7 +46092,7 @@
         <v>987</v>
       </c>
       <c r="B988" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C988" t="s">
         <v>2310</v>
@@ -46168,7 +46168,7 @@
         <v>989</v>
       </c>
       <c r="B990" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C990" t="s">
         <v>2312</v>
@@ -46662,7 +46662,7 @@
         <v>1002</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1003" t="s">
         <v>2324</v>
@@ -46738,7 +46738,7 @@
         <v>1004</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1005" t="s">
         <v>2326</v>
@@ -47232,7 +47232,7 @@
         <v>1017</v>
       </c>
       <c r="B1018" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1018" t="s">
         <v>2338</v>
@@ -47308,7 +47308,7 @@
         <v>1019</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1020" t="s">
         <v>2340</v>
@@ -47802,7 +47802,7 @@
         <v>1032</v>
       </c>
       <c r="B1033" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1033" t="s">
         <v>2219</v>
@@ -47878,7 +47878,7 @@
         <v>1034</v>
       </c>
       <c r="B1035" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1035" t="s">
         <v>2219</v>
@@ -48372,7 +48372,7 @@
         <v>1047</v>
       </c>
       <c r="B1048" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1048" t="s">
         <v>2219</v>
@@ -53578,7 +53578,7 @@
         <v>1184</v>
       </c>
       <c r="B1185" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1185" t="s">
         <v>2219</v>
@@ -54224,7 +54224,7 @@
         <v>1201</v>
       </c>
       <c r="B1202" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1202" t="s">
         <v>2219</v>
@@ -54300,7 +54300,7 @@
         <v>1203</v>
       </c>
       <c r="B1204" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1204" t="s">
         <v>2219</v>
@@ -54946,7 +54946,7 @@
         <v>1220</v>
       </c>
       <c r="B1221" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1221" t="s">
         <v>2219</v>
@@ -55022,7 +55022,7 @@
         <v>1222</v>
       </c>
       <c r="B1223" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1223" t="s">
         <v>2219</v>
@@ -55668,7 +55668,7 @@
         <v>1239</v>
       </c>
       <c r="B1240" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1240" t="s">
         <v>2219</v>
@@ -55744,7 +55744,7 @@
         <v>1241</v>
       </c>
       <c r="B1242" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1242" t="s">
         <v>2219</v>
@@ -56390,7 +56390,7 @@
         <v>1258</v>
       </c>
       <c r="B1259" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1259" t="s">
         <v>2219</v>
@@ -56466,7 +56466,7 @@
         <v>1260</v>
       </c>
       <c r="B1261" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1261" t="s">
         <v>2219</v>
@@ -65586,7 +65586,7 @@
         <v>1500</v>
       </c>
       <c r="B1501" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1501" t="s">
         <v>2431</v>
@@ -69576,7 +69576,7 @@
         <v>1605</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1606" t="s">
         <v>2219</v>
@@ -69652,7 +69652,7 @@
         <v>1607</v>
       </c>
       <c r="B1608" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1608" t="s">
         <v>2219</v>
@@ -70944,7 +70944,7 @@
         <v>1641</v>
       </c>
       <c r="B1642" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1642" t="s">
         <v>2219</v>
@@ -71020,7 +71020,7 @@
         <v>1643</v>
       </c>
       <c r="B1644" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1644" t="s">
         <v>2219</v>
@@ -72312,7 +72312,7 @@
         <v>1677</v>
       </c>
       <c r="B1678" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1678" t="s">
         <v>2219</v>
@@ -72388,7 +72388,7 @@
         <v>1679</v>
       </c>
       <c r="B1680" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1680" t="s">
         <v>2219</v>
@@ -75048,7 +75048,7 @@
         <v>1749</v>
       </c>
       <c r="B1750" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1750" t="s">
         <v>2219</v>
@@ -75124,7 +75124,7 @@
         <v>1751</v>
       </c>
       <c r="B1752" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1752" t="s">
         <v>2219</v>
@@ -76416,7 +76416,7 @@
         <v>1785</v>
       </c>
       <c r="B1786" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1786" t="s">
         <v>2219</v>
@@ -76492,7 +76492,7 @@
         <v>1787</v>
       </c>
       <c r="B1788" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C1788" t="s">
         <v>2219</v>
@@ -84662,7 +84662,7 @@
         <v>2002</v>
       </c>
       <c r="B2003" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C2003" t="s">
         <v>2219</v>
@@ -84738,7 +84738,7 @@
         <v>2004</v>
       </c>
       <c r="B2005" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C2005" t="s">
         <v>2219</v>
@@ -84966,7 +84966,7 @@
         <v>2010</v>
       </c>
       <c r="B2011" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="C2011" t="s">
         <v>2219</v>
